--- a/ImportContract.xlsx
+++ b/ImportContract.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3587" uniqueCount="1398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3586" uniqueCount="1397">
   <si>
     <t>Կնքման Ամսաթիվ</t>
   </si>
@@ -3550,9 +3550,6 @@
     <t>Շահումյան փ. 98 բն</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08.01.1996</t>
-  </si>
-  <si>
     <t>marut96@mail.ru</t>
   </si>
   <si>
@@ -4247,16 +4244,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="179" formatCode="0.0"/>
-    <numFmt numFmtId="180" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4458,13 +4454,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4959,7 +4948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5034,9 +5023,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5579,8 +5565,8 @@
   <sheetPr/>
   <dimension ref="A1:Z241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B194" workbookViewId="0">
+      <selection activeCell="L199" sqref="L199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5588,6 +5574,7 @@
     <col min="1" max="1" width="24.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="34.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="30.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="27.752380952381" customWidth="1"/>
     <col min="12" max="12" width="32"/>
     <col min="24" max="24" width="11.4285714285714"/>
   </cols>
@@ -5786,19 +5773,19 @@
       <c r="L3" s="14">
         <v>31848</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="26" t="s">
+      <c r="O3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R3" s="5">
@@ -5866,19 +5853,19 @@
       <c r="L4" s="14">
         <v>31840</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="26" t="s">
+      <c r="O4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R4" s="5">
@@ -5946,19 +5933,19 @@
       <c r="L5" s="14">
         <v>27149</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="25" t="s">
         <v>50</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="26" t="s">
+      <c r="O5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R5" s="5">
@@ -6026,19 +6013,19 @@
       <c r="L6" s="14">
         <v>27149</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="25" t="s">
         <v>50</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="26" t="s">
+      <c r="O6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R6" s="5">
@@ -6106,19 +6093,19 @@
       <c r="L7" s="14">
         <v>30428</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="25" t="s">
         <v>58</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="26" t="s">
+      <c r="O7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R7" s="5">
@@ -6186,19 +6173,19 @@
       <c r="L8" s="14">
         <v>29193</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="26" t="s">
+      <c r="O8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R8" s="5">
@@ -6266,19 +6253,19 @@
       <c r="L9" s="14">
         <v>29434</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="O9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="26" t="s">
+      <c r="O9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R9" s="5">
@@ -6346,19 +6333,19 @@
       <c r="L10" s="14">
         <v>36292</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="25" t="s">
         <v>82</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="26" t="s">
+      <c r="O10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R10" s="5">
@@ -6426,19 +6413,19 @@
       <c r="L11" s="14">
         <v>34531</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="25" t="s">
         <v>89</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="26" t="s">
+      <c r="O11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R11" s="5">
@@ -6506,19 +6493,19 @@
       <c r="L12" s="14">
         <v>32585</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="25" t="s">
         <v>96</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="26" t="s">
+      <c r="O12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R12" s="5">
@@ -6586,19 +6573,19 @@
       <c r="L13" s="14">
         <v>33816</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="25" t="s">
         <v>103</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="26" t="s">
+      <c r="O13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R13" s="5">
@@ -6666,19 +6653,19 @@
       <c r="L14" s="14">
         <v>31346</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="25" t="s">
         <v>110</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="26" t="s">
+      <c r="O14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R14" s="5">
@@ -6746,19 +6733,19 @@
       <c r="L15" s="14">
         <v>29193</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P15" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="26" t="s">
+      <c r="O15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R15" s="5">
@@ -6826,19 +6813,19 @@
       <c r="L16" s="14">
         <v>35167</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="25" t="s">
         <v>120</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="O16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="26" t="s">
+      <c r="O16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R16" s="5">
@@ -6906,19 +6893,19 @@
       <c r="L17" s="14">
         <v>33862</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>128</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="O17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="26" t="s">
+      <c r="O17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R17" s="5">
@@ -6986,19 +6973,19 @@
       <c r="L18" s="14">
         <v>37979</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="25" t="s">
         <v>135</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="O18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="26" t="s">
+      <c r="O18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R18" s="5">
@@ -7066,19 +7053,19 @@
       <c r="L19" s="14">
         <v>32370</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="25" t="s">
         <v>141</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="26" t="s">
+      <c r="O19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R19" s="5">
@@ -7146,19 +7133,19 @@
       <c r="L20" s="14">
         <v>20940</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="25" t="s">
         <v>147</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="O20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="26" t="s">
+      <c r="O20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R20" s="5">
@@ -7226,19 +7213,19 @@
       <c r="L21" s="14">
         <v>35772</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="25" t="s">
         <v>154</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="O21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P21" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="26" t="s">
+      <c r="O21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R21" s="5">
@@ -7306,19 +7293,19 @@
       <c r="L22" s="14">
         <v>37740</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="25" t="s">
         <v>160</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="O22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P22" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="26" t="s">
+      <c r="O22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R22" s="5">
@@ -7386,19 +7373,19 @@
       <c r="L23" s="14">
         <v>37979</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="25" t="s">
         <v>135</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="O23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="26" t="s">
+      <c r="O23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R23" s="5">
@@ -7466,19 +7453,19 @@
       <c r="L24" s="14">
         <v>32779</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="25" t="s">
         <v>169</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="O24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="26" t="s">
+      <c r="O24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R24" s="5">
@@ -7546,19 +7533,19 @@
       <c r="L25" s="14">
         <v>29832</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="25" t="s">
         <v>177</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="26" t="s">
+      <c r="O25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R25" s="5">
@@ -7626,19 +7613,19 @@
       <c r="L26" s="14">
         <v>30138</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="25" t="s">
         <v>185</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="26" t="s">
+      <c r="O26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R26" s="5">
@@ -7706,19 +7693,19 @@
       <c r="L27" s="14">
         <v>32370</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="25" t="s">
         <v>141</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P27" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="26" t="s">
+      <c r="O27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R27" s="5">
@@ -7786,19 +7773,19 @@
       <c r="L28" s="14">
         <v>22213</v>
       </c>
-      <c r="M28" s="26" t="s">
+      <c r="M28" s="25" t="s">
         <v>192</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="O28" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P28" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="26" t="s">
+      <c r="O28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R28" s="5">
@@ -7866,19 +7853,19 @@
       <c r="L29" s="14">
         <v>33939</v>
       </c>
-      <c r="M29" s="26" t="s">
+      <c r="M29" s="25" t="s">
         <v>197</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="O29" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P29" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="26" t="s">
+      <c r="O29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P29" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R29" s="5">
@@ -7946,19 +7933,19 @@
       <c r="L30" s="14">
         <v>31248</v>
       </c>
-      <c r="M30" s="26" t="s">
+      <c r="M30" s="25" t="s">
         <v>203</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="O30" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="26" t="s">
+      <c r="O30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R30" s="5">
@@ -8026,19 +8013,19 @@
       <c r="L31" s="14">
         <v>30110</v>
       </c>
-      <c r="M31" s="26" t="s">
+      <c r="M31" s="25" t="s">
         <v>209</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="O31" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="26" t="s">
+      <c r="O31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R31" s="5">
@@ -8106,19 +8093,19 @@
       <c r="L32" s="14">
         <v>33662</v>
       </c>
-      <c r="M32" s="26" t="s">
+      <c r="M32" s="25" t="s">
         <v>215</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="O32" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P32" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="26" t="s">
+      <c r="O32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R32" s="5">
@@ -8186,19 +8173,19 @@
       <c r="L33" s="14">
         <v>33820</v>
       </c>
-      <c r="M33" s="26" t="s">
+      <c r="M33" s="25" t="s">
         <v>221</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="O33" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P33" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="26" t="s">
+      <c r="O33" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R33" s="5">
@@ -8266,19 +8253,19 @@
       <c r="L34" s="14">
         <v>35880</v>
       </c>
-      <c r="M34" s="26" t="s">
+      <c r="M34" s="25" t="s">
         <v>227</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="O34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q34" s="26" t="s">
+      <c r="O34" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P34" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q34" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R34" s="5">
@@ -8346,19 +8333,19 @@
       <c r="L35" s="14">
         <v>32562</v>
       </c>
-      <c r="M35" s="26" t="s">
+      <c r="M35" s="25" t="s">
         <v>236</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="O35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P35" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35" s="26" t="s">
+      <c r="O35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q35" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R35" s="5">
@@ -8426,19 +8413,19 @@
       <c r="L36" s="14">
         <v>33997</v>
       </c>
-      <c r="M36" s="26" t="s">
+      <c r="M36" s="25" t="s">
         <v>242</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="O36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P36" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q36" s="26" t="s">
+      <c r="O36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q36" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R36" s="5">
@@ -8506,19 +8493,19 @@
       <c r="L37" s="14">
         <v>24008</v>
       </c>
-      <c r="M37" s="26" t="s">
+      <c r="M37" s="25" t="s">
         <v>248</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="O37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P37" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37" s="26" t="s">
+      <c r="O37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q37" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R37" s="5">
@@ -8586,19 +8573,19 @@
       <c r="L38" s="14">
         <v>37245</v>
       </c>
-      <c r="M38" s="26" t="s">
+      <c r="M38" s="25" t="s">
         <v>254</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="O38" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P38" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q38" s="26" t="s">
+      <c r="O38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R38" s="5">
@@ -8666,19 +8653,19 @@
       <c r="L39" s="14">
         <v>29663</v>
       </c>
-      <c r="M39" s="26" t="s">
+      <c r="M39" s="25" t="s">
         <v>260</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="O39" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" s="26" t="s">
+      <c r="O39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R39" s="5">
@@ -8746,19 +8733,19 @@
       <c r="L40" s="14">
         <v>34318</v>
       </c>
-      <c r="M40" s="26" t="s">
+      <c r="M40" s="25" t="s">
         <v>268</v>
       </c>
       <c r="N40" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="O40" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P40" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40" s="26" t="s">
+      <c r="O40" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q40" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R40" s="5">
@@ -8826,19 +8813,19 @@
       <c r="L41" s="14">
         <v>34543</v>
       </c>
-      <c r="M41" s="26" t="s">
+      <c r="M41" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="O41" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P41" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q41" s="26" t="s">
+      <c r="O41" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q41" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R41" s="5">
@@ -8906,19 +8893,19 @@
       <c r="L42" s="14">
         <v>32974</v>
       </c>
-      <c r="M42" s="26" t="s">
+      <c r="M42" s="25" t="s">
         <v>281</v>
       </c>
       <c r="N42" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="O42" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P42" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q42" s="26" t="s">
+      <c r="O42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q42" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R42" s="5">
@@ -8986,19 +8973,19 @@
       <c r="L43" s="14">
         <v>34223</v>
       </c>
-      <c r="M43" s="26" t="s">
+      <c r="M43" s="25" t="s">
         <v>286</v>
       </c>
       <c r="N43" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="O43" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P43" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q43" s="26" t="s">
+      <c r="O43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q43" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R43" s="5">
@@ -9066,19 +9053,19 @@
       <c r="L44" s="14">
         <v>25834</v>
       </c>
-      <c r="M44" s="26" t="s">
+      <c r="M44" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N44" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="O44" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P44" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44" s="26" t="s">
+      <c r="O44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q44" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R44" s="5">
@@ -9146,19 +9133,19 @@
       <c r="L45" s="14">
         <v>32899</v>
       </c>
-      <c r="M45" s="26" t="s">
+      <c r="M45" s="25" t="s">
         <v>296</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="O45" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P45" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45" s="26" t="s">
+      <c r="O45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q45" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R45" s="5">
@@ -9226,19 +9213,19 @@
       <c r="L46" s="14">
         <v>33194</v>
       </c>
-      <c r="M46" s="26" t="s">
+      <c r="M46" s="25" t="s">
         <v>303</v>
       </c>
       <c r="N46" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="O46" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P46" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46" s="26" t="s">
+      <c r="O46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q46" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R46" s="5">
@@ -9306,19 +9293,19 @@
       <c r="L47" s="14">
         <v>33536</v>
       </c>
-      <c r="M47" s="26" t="s">
+      <c r="M47" s="25" t="s">
         <v>309</v>
       </c>
       <c r="N47" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="O47" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P47" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q47" s="26" t="s">
+      <c r="O47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q47" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R47" s="5">
@@ -9386,19 +9373,19 @@
       <c r="L48" s="14">
         <v>32758</v>
       </c>
-      <c r="M48" s="26" t="s">
+      <c r="M48" s="25" t="s">
         <v>315</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="O48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P48" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48" s="26" t="s">
+      <c r="O48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R48" s="5">
@@ -9466,19 +9453,19 @@
       <c r="L49" s="14">
         <v>31596</v>
       </c>
-      <c r="M49" s="26" t="s">
+      <c r="M49" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N49" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="O49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P49" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q49" s="26" t="s">
+      <c r="O49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q49" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R49" s="5">
@@ -9546,19 +9533,19 @@
       <c r="L50" s="14">
         <v>35197</v>
       </c>
-      <c r="M50" s="26" t="s">
+      <c r="M50" s="25" t="s">
         <v>325</v>
       </c>
       <c r="N50" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="O50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P50" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q50" s="26" t="s">
+      <c r="O50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q50" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R50" s="5">
@@ -9626,19 +9613,19 @@
       <c r="L51" s="14">
         <v>36606</v>
       </c>
-      <c r="M51" s="26" t="s">
+      <c r="M51" s="25" t="s">
         <v>332</v>
       </c>
       <c r="N51" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="O51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P51" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51" s="26" t="s">
+      <c r="O51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q51" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R51" s="5">
@@ -9706,19 +9693,19 @@
       <c r="L52" s="14">
         <v>37446</v>
       </c>
-      <c r="M52" s="26" t="s">
+      <c r="M52" s="25" t="s">
         <v>340</v>
       </c>
       <c r="N52" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="O52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P52" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q52" s="26" t="s">
+      <c r="O52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q52" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R52" s="5">
@@ -9786,19 +9773,19 @@
       <c r="L53" s="14">
         <v>34318</v>
       </c>
-      <c r="M53" s="26" t="s">
+      <c r="M53" s="25" t="s">
         <v>268</v>
       </c>
       <c r="N53" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="O53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P53" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q53" s="26" t="s">
+      <c r="O53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q53" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R53" s="5">
@@ -9866,19 +9853,19 @@
       <c r="L54" s="14">
         <v>33867</v>
       </c>
-      <c r="M54" s="26" t="s">
+      <c r="M54" s="25" t="s">
         <v>349</v>
       </c>
       <c r="N54" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="O54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P54" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q54" s="26" t="s">
+      <c r="O54" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q54" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R54" s="5">
@@ -9946,19 +9933,19 @@
       <c r="L55" s="14">
         <v>36924</v>
       </c>
-      <c r="M55" s="26" t="s">
+      <c r="M55" s="25" t="s">
         <v>357</v>
       </c>
       <c r="N55" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="O55" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P55" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q55" s="26" t="s">
+      <c r="O55" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q55" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R55" s="5">
@@ -10026,19 +10013,19 @@
       <c r="L56" s="14">
         <v>31587</v>
       </c>
-      <c r="M56" s="26" t="s">
+      <c r="M56" s="25" t="s">
         <v>364</v>
       </c>
       <c r="N56" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="O56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P56" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q56" s="26" t="s">
+      <c r="O56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q56" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R56" s="5">
@@ -10106,19 +10093,19 @@
       <c r="L57" s="14">
         <v>24842</v>
       </c>
-      <c r="M57" s="26" t="s">
+      <c r="M57" s="25" t="s">
         <v>370</v>
       </c>
       <c r="N57" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="O57" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P57" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q57" s="26" t="s">
+      <c r="O57" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q57" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R57" s="5">
@@ -10186,19 +10173,19 @@
       <c r="L58" s="14">
         <v>35761</v>
       </c>
-      <c r="M58" s="26" t="s">
+      <c r="M58" s="25" t="s">
         <v>376</v>
       </c>
       <c r="N58" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="O58" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q58" s="26" t="s">
+      <c r="O58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q58" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R58" s="5">
@@ -10266,19 +10253,19 @@
       <c r="L59" s="14">
         <v>32370</v>
       </c>
-      <c r="M59" s="26" t="s">
+      <c r="M59" s="25" t="s">
         <v>141</v>
       </c>
       <c r="N59" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O59" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P59" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59" s="26" t="s">
+      <c r="O59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R59" s="5">
@@ -10346,19 +10333,19 @@
       <c r="L60" s="14">
         <v>36816</v>
       </c>
-      <c r="M60" s="26" t="s">
+      <c r="M60" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N60" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="O60" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P60" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q60" s="26" t="s">
+      <c r="O60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R60" s="5">
@@ -10426,19 +10413,19 @@
       <c r="L61" s="14">
         <v>30138</v>
       </c>
-      <c r="M61" s="26" t="s">
+      <c r="M61" s="25" t="s">
         <v>185</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O61" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P61" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q61" s="26" t="s">
+      <c r="O61" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R61" s="5">
@@ -10506,19 +10493,19 @@
       <c r="L62" s="14">
         <v>35002</v>
       </c>
-      <c r="M62" s="26" t="s">
+      <c r="M62" s="25" t="s">
         <v>390</v>
       </c>
       <c r="N62" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="O62" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P62" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62" s="26" t="s">
+      <c r="O62" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R62" s="5">
@@ -10586,19 +10573,19 @@
       <c r="L63" s="14">
         <v>35721</v>
       </c>
-      <c r="M63" s="26" t="s">
+      <c r="M63" s="25" t="s">
         <v>396</v>
       </c>
       <c r="N63" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="O63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P63" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q63" s="26" t="s">
+      <c r="O63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q63" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R63" s="5">
@@ -10666,19 +10653,19 @@
       <c r="L64" s="14">
         <v>32713</v>
       </c>
-      <c r="M64" s="26" t="s">
+      <c r="M64" s="25" t="s">
         <v>402</v>
       </c>
       <c r="N64" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="O64" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P64" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q64" s="26" t="s">
+      <c r="O64" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P64" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q64" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R64" s="5">
@@ -10746,19 +10733,19 @@
       <c r="L65" s="14">
         <v>37219</v>
       </c>
-      <c r="M65" s="26" t="s">
+      <c r="M65" s="25" t="s">
         <v>409</v>
       </c>
       <c r="N65" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="O65" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P65" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q65" s="26" t="s">
+      <c r="O65" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P65" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q65" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R65" s="5">
@@ -10826,19 +10813,19 @@
       <c r="L66" s="14">
         <v>37002</v>
       </c>
-      <c r="M66" s="26" t="s">
+      <c r="M66" s="25" t="s">
         <v>415</v>
       </c>
       <c r="N66" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="O66" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P66" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q66" s="26" t="s">
+      <c r="O66" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P66" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q66" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R66" s="5">
@@ -10906,19 +10893,19 @@
       <c r="L67" s="14">
         <v>34957</v>
       </c>
-      <c r="M67" s="26" t="s">
+      <c r="M67" s="25" t="s">
         <v>422</v>
       </c>
       <c r="N67" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="O67" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P67" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q67" s="26" t="s">
+      <c r="O67" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q67" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R67" s="5">
@@ -10986,19 +10973,19 @@
       <c r="L68" s="14">
         <v>29737</v>
       </c>
-      <c r="M68" s="26" t="s">
+      <c r="M68" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N68" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="O68" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P68" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q68" s="26" t="s">
+      <c r="O68" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q68" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R68" s="5">
@@ -11066,19 +11053,19 @@
       <c r="L69" s="14">
         <v>33208</v>
       </c>
-      <c r="M69" s="26" t="s">
+      <c r="M69" s="25" t="s">
         <v>433</v>
       </c>
       <c r="N69" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="O69" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P69" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q69" s="26" t="s">
+      <c r="O69" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q69" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R69" s="5">
@@ -11146,19 +11133,19 @@
       <c r="L70" s="14">
         <v>27564</v>
       </c>
-      <c r="M70" s="26" t="s">
+      <c r="M70" s="25" t="s">
         <v>439</v>
       </c>
       <c r="N70" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="O70" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P70" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q70" s="26" t="s">
+      <c r="O70" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q70" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R70" s="5">
@@ -11226,19 +11213,19 @@
       <c r="L71" s="14">
         <v>32370</v>
       </c>
-      <c r="M71" s="26" t="s">
+      <c r="M71" s="25" t="s">
         <v>141</v>
       </c>
       <c r="N71" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O71" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P71" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q71" s="26" t="s">
+      <c r="O71" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q71" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R71" s="5">
@@ -11306,19 +11293,19 @@
       <c r="L72" s="14">
         <v>33419</v>
       </c>
-      <c r="M72" s="26" t="s">
+      <c r="M72" s="25" t="s">
         <v>447</v>
       </c>
       <c r="N72" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="O72" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P72" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q72" s="26" t="s">
+      <c r="O72" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q72" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R72" s="5">
@@ -11386,19 +11373,19 @@
       <c r="L73" s="14">
         <v>38160</v>
       </c>
-      <c r="M73" s="26" t="s">
+      <c r="M73" s="25" t="s">
         <v>454</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="O73" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P73" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q73" s="26" t="s">
+      <c r="O73" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q73" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R73" s="5">
@@ -11466,19 +11453,19 @@
       <c r="L74" s="14">
         <v>18273</v>
       </c>
-      <c r="M74" s="26" t="s">
+      <c r="M74" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N74" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="O74" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P74" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q74" s="26" t="s">
+      <c r="O74" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q74" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R74" s="5">
@@ -11546,19 +11533,19 @@
       <c r="L75" s="14">
         <v>33997</v>
       </c>
-      <c r="M75" s="26" t="s">
+      <c r="M75" s="25" t="s">
         <v>242</v>
       </c>
       <c r="N75" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="O75" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P75" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q75" s="26" t="s">
+      <c r="O75" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q75" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R75" s="5">
@@ -11626,19 +11613,19 @@
       <c r="L76" s="14">
         <v>35081</v>
       </c>
-      <c r="M76" s="26" t="s">
+      <c r="M76" s="25" t="s">
         <v>468</v>
       </c>
       <c r="N76" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="O76" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P76" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q76" s="26" t="s">
+      <c r="O76" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q76" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R76" s="5">
@@ -11706,19 +11693,19 @@
       <c r="L77" s="14">
         <v>28892</v>
       </c>
-      <c r="M77" s="26" t="s">
+      <c r="M77" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N77" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="O77" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P77" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q77" s="26" t="s">
+      <c r="O77" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P77" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q77" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R77" s="5">
@@ -11786,19 +11773,19 @@
       <c r="L78" s="14">
         <v>37907</v>
       </c>
-      <c r="M78" s="26" t="s">
+      <c r="M78" s="25" t="s">
         <v>480</v>
       </c>
       <c r="N78" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="O78" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P78" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q78" s="26" t="s">
+      <c r="O78" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P78" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q78" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R78" s="5">
@@ -11866,19 +11853,19 @@
       <c r="L79" s="14">
         <v>30524</v>
       </c>
-      <c r="M79" s="26" t="s">
+      <c r="M79" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N79" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="O79" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P79" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q79" s="26" t="s">
+      <c r="O79" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P79" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q79" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R79" s="5">
@@ -11946,19 +11933,19 @@
       <c r="L80" s="14">
         <v>35790</v>
       </c>
-      <c r="M80" s="26" t="s">
+      <c r="M80" s="25" t="s">
         <v>493</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="O80" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P80" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80" s="26" t="s">
+      <c r="O80" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P80" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R80" s="5">
@@ -12026,19 +12013,19 @@
       <c r="L81" s="14">
         <v>35002</v>
       </c>
-      <c r="M81" s="26" t="s">
+      <c r="M81" s="25" t="s">
         <v>390</v>
       </c>
       <c r="N81" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="O81" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P81" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q81" s="26" t="s">
+      <c r="O81" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P81" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q81" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R81" s="5">
@@ -12106,19 +12093,19 @@
       <c r="L82" s="14">
         <v>33574</v>
       </c>
-      <c r="M82" s="26" t="s">
+      <c r="M82" s="25" t="s">
         <v>500</v>
       </c>
       <c r="N82" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="O82" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P82" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q82" s="26" t="s">
+      <c r="O82" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P82" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q82" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R82" s="5">
@@ -12186,19 +12173,19 @@
       <c r="L83" s="14">
         <v>29923</v>
       </c>
-      <c r="M83" s="26" t="s">
+      <c r="M83" s="25" t="s">
         <v>506</v>
       </c>
       <c r="N83" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="O83" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P83" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q83" s="26" t="s">
+      <c r="O83" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q83" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R83" s="5">
@@ -12266,19 +12253,19 @@
       <c r="L84" s="14">
         <v>28487</v>
       </c>
-      <c r="M84" s="26" t="s">
+      <c r="M84" s="25" t="s">
         <v>511</v>
       </c>
       <c r="N84" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="O84" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P84" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q84" s="26" t="s">
+      <c r="O84" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P84" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q84" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R84" s="5">
@@ -12346,19 +12333,19 @@
       <c r="L85" s="14">
         <v>24544</v>
       </c>
-      <c r="M85" s="26" t="s">
+      <c r="M85" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N85" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="O85" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P85" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q85" s="26" t="s">
+      <c r="O85" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P85" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q85" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R85" s="5">
@@ -12426,19 +12413,19 @@
       <c r="L86" s="14">
         <v>27268</v>
       </c>
-      <c r="M86" s="26" t="s">
+      <c r="M86" s="25" t="s">
         <v>526</v>
       </c>
       <c r="N86" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="O86" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P86" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q86" s="26" t="s">
+      <c r="O86" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P86" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R86" s="5">
@@ -12506,19 +12493,19 @@
       <c r="L87" s="14">
         <v>33470</v>
       </c>
-      <c r="M87" s="26" t="s">
+      <c r="M87" s="25" t="s">
         <v>534</v>
       </c>
       <c r="N87" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="O87" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P87" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q87" s="26" t="s">
+      <c r="O87" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P87" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q87" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R87" s="5">
@@ -12586,19 +12573,19 @@
       <c r="L88" s="14">
         <v>29049</v>
       </c>
-      <c r="M88" s="26" t="s">
+      <c r="M88" s="25" t="s">
         <v>541</v>
       </c>
       <c r="N88" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="O88" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P88" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q88" s="26" t="s">
+      <c r="O88" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P88" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q88" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R88" s="5">
@@ -12666,19 +12653,19 @@
       <c r="L89" s="14">
         <v>33618</v>
       </c>
-      <c r="M89" s="26" t="s">
+      <c r="M89" s="25" t="s">
         <v>548</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="O89" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P89" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q89" s="26" t="s">
+      <c r="O89" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P89" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q89" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R89" s="5">
@@ -12746,19 +12733,19 @@
       <c r="L90" s="14">
         <v>32370</v>
       </c>
-      <c r="M90" s="26" t="s">
+      <c r="M90" s="25" t="s">
         <v>141</v>
       </c>
       <c r="N90" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O90" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P90" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q90" s="26" t="s">
+      <c r="O90" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P90" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q90" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R90" s="5">
@@ -12826,19 +12813,19 @@
       <c r="L91" s="14">
         <v>35080</v>
       </c>
-      <c r="M91" s="26" t="s">
+      <c r="M91" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="O91" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P91" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q91" s="26" t="s">
+      <c r="O91" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P91" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q91" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R91" s="5">
@@ -12906,19 +12893,19 @@
       <c r="L92" s="14">
         <v>37196</v>
       </c>
-      <c r="M92" s="26" t="s">
+      <c r="M92" s="25" t="s">
         <v>562</v>
       </c>
       <c r="N92" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="O92" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P92" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q92" s="26" t="s">
+      <c r="O92" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P92" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q92" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R92" s="5">
@@ -12986,19 +12973,19 @@
       <c r="L93" s="14">
         <v>27564</v>
       </c>
-      <c r="M93" s="26" t="s">
+      <c r="M93" s="25" t="s">
         <v>439</v>
       </c>
       <c r="N93" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="O93" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P93" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q93" s="26" t="s">
+      <c r="O93" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P93" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q93" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R93" s="5">
@@ -13066,19 +13053,19 @@
       <c r="L94" s="14">
         <v>31244</v>
       </c>
-      <c r="M94" s="26" t="s">
+      <c r="M94" s="25" t="s">
         <v>569</v>
       </c>
       <c r="N94" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="O94" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P94" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q94" s="26" t="s">
+      <c r="O94" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P94" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q94" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R94" s="5">
@@ -13146,19 +13133,19 @@
       <c r="L95" s="14">
         <v>33775</v>
       </c>
-      <c r="M95" s="26" t="s">
+      <c r="M95" s="25" t="s">
         <v>576</v>
       </c>
       <c r="N95" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="O95" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P95" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q95" s="26" t="s">
+      <c r="O95" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P95" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q95" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R95" s="5">
@@ -13226,19 +13213,19 @@
       <c r="L96" s="14">
         <v>31225</v>
       </c>
-      <c r="M96" s="26" t="s">
+      <c r="M96" s="25" t="s">
         <v>584</v>
       </c>
       <c r="N96" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="O96" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P96" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q96" s="26" t="s">
+      <c r="O96" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P96" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q96" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R96" s="5">
@@ -13306,19 +13293,19 @@
       <c r="L97" s="14">
         <v>20614</v>
       </c>
-      <c r="M97" s="26" t="s">
+      <c r="M97" s="25" t="s">
         <v>589</v>
       </c>
       <c r="N97" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="O97" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P97" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q97" s="26" t="s">
+      <c r="O97" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P97" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q97" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R97" s="5">
@@ -13386,19 +13373,19 @@
       <c r="L98" s="14">
         <v>35440</v>
       </c>
-      <c r="M98" s="26" t="s">
+      <c r="M98" s="25" t="s">
         <v>595</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="O98" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P98" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q98" s="26" t="s">
+      <c r="O98" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P98" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q98" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R98" s="5">
@@ -13466,19 +13453,19 @@
       <c r="L99" s="14">
         <v>37326</v>
       </c>
-      <c r="M99" s="26" t="s">
+      <c r="M99" s="25" t="s">
         <v>601</v>
       </c>
       <c r="N99" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="O99" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P99" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q99" s="26" t="s">
+      <c r="O99" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P99" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q99" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R99" s="5">
@@ -13546,19 +13533,19 @@
       <c r="L100" s="14">
         <v>33206</v>
       </c>
-      <c r="M100" s="26" t="s">
+      <c r="M100" s="25" t="s">
         <v>607</v>
       </c>
       <c r="N100" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="O100" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P100" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q100" s="26" t="s">
+      <c r="O100" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P100" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q100" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R100" s="5">
@@ -13626,19 +13613,19 @@
       <c r="L101" s="14">
         <v>34700</v>
       </c>
-      <c r="M101" s="26" t="s">
+      <c r="M101" s="25" t="s">
         <v>614</v>
       </c>
       <c r="N101" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="O101" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P101" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q101" s="26" t="s">
+      <c r="O101" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P101" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q101" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R101" s="5">
@@ -13706,19 +13693,19 @@
       <c r="L102" s="14">
         <v>31554</v>
       </c>
-      <c r="M102" s="26" t="s">
+      <c r="M102" s="25" t="s">
         <v>620</v>
       </c>
       <c r="N102" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="O102" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P102" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q102" s="26" t="s">
+      <c r="O102" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P102" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q102" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R102" s="5">
@@ -13786,19 +13773,19 @@
       <c r="L103" s="14">
         <v>35997</v>
       </c>
-      <c r="M103" s="26" t="s">
+      <c r="M103" s="25" t="s">
         <v>626</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="O103" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P103" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q103" s="26" t="s">
+      <c r="O103" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P103" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q103" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R103" s="5">
@@ -13866,19 +13853,19 @@
       <c r="L104" s="14">
         <v>34893</v>
       </c>
-      <c r="M104" s="26" t="s">
+      <c r="M104" s="25" t="s">
         <v>633</v>
       </c>
       <c r="N104" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="O104" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P104" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q104" s="26" t="s">
+      <c r="O104" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P104" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q104" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R104" s="5">
@@ -13946,19 +13933,19 @@
       <c r="L105" s="14">
         <v>35901</v>
       </c>
-      <c r="M105" s="26" t="s">
+      <c r="M105" s="25" t="s">
         <v>640</v>
       </c>
       <c r="N105" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="O105" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P105" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q105" s="26" t="s">
+      <c r="O105" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P105" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q105" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R105" s="5">
@@ -14026,19 +14013,19 @@
       <c r="L106" s="14">
         <v>34155</v>
       </c>
-      <c r="M106" s="26" t="s">
+      <c r="M106" s="25" t="s">
         <v>646</v>
       </c>
       <c r="N106" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="O106" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P106" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q106" s="26" t="s">
+      <c r="O106" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P106" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q106" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R106" s="5">
@@ -14106,19 +14093,19 @@
       <c r="L107" s="14">
         <v>27279</v>
       </c>
-      <c r="M107" s="26" t="s">
+      <c r="M107" s="25" t="s">
         <v>652</v>
       </c>
       <c r="N107" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="O107" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P107" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q107" s="26" t="s">
+      <c r="O107" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P107" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q107" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R107" s="5">
@@ -14186,19 +14173,19 @@
       <c r="L108" s="14">
         <v>36316</v>
       </c>
-      <c r="M108" s="26" t="s">
+      <c r="M108" s="25" t="s">
         <v>658</v>
       </c>
       <c r="N108" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="O108" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P108" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q108" s="26" t="s">
+      <c r="O108" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P108" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q108" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R108" s="5">
@@ -14266,19 +14253,19 @@
       <c r="L109" s="14">
         <v>30714</v>
       </c>
-      <c r="M109" s="26" t="s">
+      <c r="M109" s="25" t="s">
         <v>664</v>
       </c>
       <c r="N109" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="O109" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P109" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q109" s="26" t="s">
+      <c r="O109" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P109" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q109" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R109" s="5">
@@ -14346,19 +14333,19 @@
       <c r="L110" s="14">
         <v>26555</v>
       </c>
-      <c r="M110" s="26" t="s">
+      <c r="M110" s="25" t="s">
         <v>670</v>
       </c>
       <c r="N110" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="O110" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P110" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q110" s="26" t="s">
+      <c r="O110" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P110" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q110" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R110" s="5">
@@ -14426,19 +14413,19 @@
       <c r="L111" s="14">
         <v>26555</v>
       </c>
-      <c r="M111" s="26" t="s">
+      <c r="M111" s="25" t="s">
         <v>670</v>
       </c>
       <c r="N111" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="O111" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P111" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q111" s="26" t="s">
+      <c r="O111" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P111" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q111" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R111" s="5">
@@ -14506,19 +14493,19 @@
       <c r="L112" s="14">
         <v>30238</v>
       </c>
-      <c r="M112" s="26" t="s">
+      <c r="M112" s="25" t="s">
         <v>678</v>
       </c>
       <c r="N112" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="O112" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P112" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q112" s="26" t="s">
+      <c r="O112" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P112" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q112" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R112" s="5">
@@ -14586,19 +14573,19 @@
       <c r="L113" s="14">
         <v>36700</v>
       </c>
-      <c r="M113" s="26" t="s">
+      <c r="M113" s="25" t="s">
         <v>686</v>
       </c>
       <c r="N113" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="O113" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P113" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q113" s="26" t="s">
+      <c r="O113" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P113" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q113" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R113" s="5">
@@ -14666,19 +14653,19 @@
       <c r="L114" s="14">
         <v>31894</v>
       </c>
-      <c r="M114" s="26" t="s">
+      <c r="M114" s="25" t="s">
         <v>693</v>
       </c>
       <c r="N114" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="O114" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P114" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q114" s="26" t="s">
+      <c r="O114" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P114" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q114" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R114" s="5">
@@ -14746,19 +14733,19 @@
       <c r="L115" s="14">
         <v>30578</v>
       </c>
-      <c r="M115" s="26" t="s">
+      <c r="M115" s="25" t="s">
         <v>699</v>
       </c>
       <c r="N115" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="O115" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P115" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q115" s="26" t="s">
+      <c r="O115" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P115" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q115" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R115" s="5">
@@ -14826,19 +14813,19 @@
       <c r="L116" s="14">
         <v>31541</v>
       </c>
-      <c r="M116" s="26" t="s">
+      <c r="M116" s="25" t="s">
         <v>706</v>
       </c>
       <c r="N116" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="O116" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P116" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q116" s="26" t="s">
+      <c r="O116" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P116" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q116" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R116" s="5">
@@ -14906,19 +14893,19 @@
       <c r="L117" s="14">
         <v>32030</v>
       </c>
-      <c r="M117" s="26" t="s">
+      <c r="M117" s="25" t="s">
         <v>712</v>
       </c>
       <c r="N117" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="O117" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P117" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q117" s="26" t="s">
+      <c r="O117" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P117" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q117" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R117" s="5">
@@ -14986,19 +14973,19 @@
       <c r="L118" s="14">
         <v>33239</v>
       </c>
-      <c r="M118" s="26" t="s">
+      <c r="M118" s="25" t="s">
         <v>718</v>
       </c>
       <c r="N118" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="O118" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P118" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q118" s="26" t="s">
+      <c r="O118" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P118" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q118" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R118" s="5">
@@ -15066,19 +15053,19 @@
       <c r="L119" s="14">
         <v>33551</v>
       </c>
-      <c r="M119" s="26" t="s">
+      <c r="M119" s="25" t="s">
         <v>724</v>
       </c>
       <c r="N119" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="O119" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P119" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q119" s="26" t="s">
+      <c r="O119" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P119" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q119" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R119" s="5">
@@ -15146,19 +15133,19 @@
       <c r="L120" s="14">
         <v>26555</v>
       </c>
-      <c r="M120" s="26" t="s">
+      <c r="M120" s="25" t="s">
         <v>670</v>
       </c>
       <c r="N120" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="O120" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P120" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q120" s="26" t="s">
+      <c r="O120" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P120" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q120" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R120" s="5">
@@ -15226,19 +15213,19 @@
       <c r="L121" s="14">
         <v>26555</v>
       </c>
-      <c r="M121" s="26" t="s">
+      <c r="M121" s="25" t="s">
         <v>670</v>
       </c>
       <c r="N121" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="O121" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P121" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q121" s="26" t="s">
+      <c r="O121" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P121" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q121" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R121" s="5">
@@ -15306,19 +15293,19 @@
       <c r="L122" s="14">
         <v>36124</v>
       </c>
-      <c r="M122" s="26" t="s">
+      <c r="M122" s="25" t="s">
         <v>733</v>
       </c>
       <c r="N122" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="O122" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P122" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q122" s="26" t="s">
+      <c r="O122" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P122" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q122" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R122" s="5">
@@ -15386,19 +15373,19 @@
       <c r="L123" s="14">
         <v>28785</v>
       </c>
-      <c r="M123" s="26" t="s">
+      <c r="M123" s="25" t="s">
         <v>740</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="O123" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P123" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q123" s="26" t="s">
+      <c r="O123" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P123" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q123" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R123" s="5">
@@ -15466,19 +15453,19 @@
       <c r="L124" s="14">
         <v>27608</v>
       </c>
-      <c r="M124" s="26" t="s">
+      <c r="M124" s="25" t="s">
         <v>746</v>
       </c>
       <c r="N124" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="O124" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P124" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q124" s="26" t="s">
+      <c r="O124" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P124" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q124" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R124" s="5">
@@ -15546,19 +15533,19 @@
       <c r="L125" s="14">
         <v>27369</v>
       </c>
-      <c r="M125" s="26" t="s">
+      <c r="M125" s="25" t="s">
         <v>754</v>
       </c>
       <c r="N125" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="O125" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P125" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q125" s="26" t="s">
+      <c r="O125" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P125" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q125" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R125" s="5">
@@ -15626,19 +15613,19 @@
       <c r="L126" s="14">
         <v>33312</v>
       </c>
-      <c r="M126" s="26" t="s">
+      <c r="M126" s="25" t="s">
         <v>759</v>
       </c>
       <c r="N126" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="O126" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P126" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q126" s="26" t="s">
+      <c r="O126" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P126" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q126" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R126" s="5">
@@ -15706,19 +15693,19 @@
       <c r="L127" s="14">
         <v>33996</v>
       </c>
-      <c r="M127" s="26" t="s">
+      <c r="M127" s="25" t="s">
         <v>766</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="O127" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P127" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q127" s="26" t="s">
+      <c r="O127" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P127" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q127" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R127" s="5">
@@ -15786,19 +15773,19 @@
       <c r="L128" s="14">
         <v>34821</v>
       </c>
-      <c r="M128" s="26" t="s">
+      <c r="M128" s="25" t="s">
         <v>773</v>
       </c>
       <c r="N128" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="O128" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P128" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q128" s="26" t="s">
+      <c r="O128" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P128" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q128" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R128" s="5">
@@ -15866,19 +15853,19 @@
       <c r="L129" s="14">
         <v>29316</v>
       </c>
-      <c r="M129" s="26" t="s">
+      <c r="M129" s="25" t="s">
         <v>779</v>
       </c>
       <c r="N129" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="O129" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P129" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q129" s="26" t="s">
+      <c r="O129" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P129" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q129" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R129" s="5">
@@ -15946,19 +15933,19 @@
       <c r="L130" s="14">
         <v>33997</v>
       </c>
-      <c r="M130" s="26" t="s">
+      <c r="M130" s="25" t="s">
         <v>242</v>
       </c>
       <c r="N130" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="O130" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P130" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q130" s="26" t="s">
+      <c r="O130" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P130" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q130" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R130" s="5">
@@ -16026,19 +16013,19 @@
       <c r="L131" s="14">
         <v>31026</v>
       </c>
-      <c r="M131" s="26" t="s">
+      <c r="M131" s="25" t="s">
         <v>787</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="O131" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P131" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q131" s="26" t="s">
+      <c r="O131" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P131" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q131" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R131" s="5">
@@ -16106,19 +16093,19 @@
       <c r="L132" s="14">
         <v>31901</v>
       </c>
-      <c r="M132" s="26" t="s">
+      <c r="M132" s="25" t="s">
         <v>792</v>
       </c>
       <c r="N132" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="O132" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P132" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q132" s="26" t="s">
+      <c r="O132" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P132" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q132" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R132" s="5">
@@ -16186,19 +16173,19 @@
       <c r="L133" s="14">
         <v>35399</v>
       </c>
-      <c r="M133" s="26" t="s">
+      <c r="M133" s="25" t="s">
         <v>799</v>
       </c>
       <c r="N133" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="O133" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P133" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q133" s="26" t="s">
+      <c r="O133" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P133" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q133" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R133" s="5">
@@ -16266,19 +16253,19 @@
       <c r="L134" s="14">
         <v>35443</v>
       </c>
-      <c r="M134" s="26" t="s">
+      <c r="M134" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N134" s="5" t="s">
         <v>806</v>
       </c>
-      <c r="O134" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P134" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q134" s="26" t="s">
+      <c r="O134" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P134" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q134" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R134" s="5">
@@ -16346,19 +16333,19 @@
       <c r="L135" s="14">
         <v>36083</v>
       </c>
-      <c r="M135" s="26" t="s">
+      <c r="M135" s="25" t="s">
         <v>812</v>
       </c>
       <c r="N135" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="O135" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P135" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q135" s="26" t="s">
+      <c r="O135" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P135" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q135" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R135" s="5">
@@ -16426,19 +16413,19 @@
       <c r="L136" s="14">
         <v>33071</v>
       </c>
-      <c r="M136" s="26" t="s">
+      <c r="M136" s="25" t="s">
         <v>818</v>
       </c>
       <c r="N136" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="O136" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P136" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q136" s="26" t="s">
+      <c r="O136" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P136" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q136" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R136" s="5">
@@ -16506,19 +16493,19 @@
       <c r="L137" s="14">
         <v>35058</v>
       </c>
-      <c r="M137" s="26" t="s">
+      <c r="M137" s="25" t="s">
         <v>824</v>
       </c>
       <c r="N137" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="O137" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P137" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q137" s="26" t="s">
+      <c r="O137" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P137" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q137" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R137" s="5">
@@ -16586,19 +16573,19 @@
       <c r="L138" s="14">
         <v>32716</v>
       </c>
-      <c r="M138" s="26" t="s">
+      <c r="M138" s="25" t="s">
         <v>830</v>
       </c>
       <c r="N138" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="O138" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P138" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q138" s="26" t="s">
+      <c r="O138" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P138" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q138" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R138" s="5">
@@ -16666,19 +16653,19 @@
       <c r="L139" s="14">
         <v>31185</v>
       </c>
-      <c r="M139" s="26" t="s">
+      <c r="M139" s="25" t="s">
         <v>838</v>
       </c>
       <c r="N139" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="O139" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P139" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q139" s="26" t="s">
+      <c r="O139" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P139" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q139" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R139" s="5">
@@ -16746,19 +16733,19 @@
       <c r="L140" s="14">
         <v>37083</v>
       </c>
-      <c r="M140" s="26" t="s">
+      <c r="M140" s="25" t="s">
         <v>844</v>
       </c>
       <c r="N140" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="O140" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P140" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q140" s="26" t="s">
+      <c r="O140" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P140" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q140" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R140" s="5">
@@ -16826,19 +16813,19 @@
       <c r="L141" s="14">
         <v>38327</v>
       </c>
-      <c r="M141" s="26" t="s">
+      <c r="M141" s="25" t="s">
         <v>850</v>
       </c>
       <c r="N141" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="O141" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P141" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q141" s="26" t="s">
+      <c r="O141" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P141" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q141" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R141" s="5">
@@ -16906,19 +16893,19 @@
       <c r="L142" s="14">
         <v>32303</v>
       </c>
-      <c r="M142" s="26" t="s">
+      <c r="M142" s="25" t="s">
         <v>857</v>
       </c>
       <c r="N142" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="O142" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P142" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q142" s="26" t="s">
+      <c r="O142" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P142" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q142" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R142" s="5">
@@ -16986,19 +16973,19 @@
       <c r="L143" s="14">
         <v>38741</v>
       </c>
-      <c r="M143" s="26" t="s">
+      <c r="M143" s="25" t="s">
         <v>864</v>
       </c>
       <c r="N143" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="O143" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P143" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q143" s="26" t="s">
+      <c r="O143" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P143" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q143" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R143" s="5">
@@ -17066,19 +17053,19 @@
       <c r="L144" s="14">
         <v>35763</v>
       </c>
-      <c r="M144" s="26" t="s">
+      <c r="M144" s="25" t="s">
         <v>871</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="O144" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P144" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q144" s="26" t="s">
+      <c r="O144" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P144" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q144" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R144" s="5">
@@ -17146,19 +17133,19 @@
       <c r="L145" s="14">
         <v>30179</v>
       </c>
-      <c r="M145" s="26" t="s">
+      <c r="M145" s="25" t="s">
         <v>878</v>
       </c>
       <c r="N145" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="O145" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P145" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q145" s="26" t="s">
+      <c r="O145" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P145" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q145" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R145" s="5">
@@ -17226,19 +17213,19 @@
       <c r="L146" s="14">
         <v>39077</v>
       </c>
-      <c r="M146" s="26" t="s">
+      <c r="M146" s="25" t="s">
         <v>884</v>
       </c>
       <c r="N146" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="O146" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P146" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q146" s="26" t="s">
+      <c r="O146" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P146" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q146" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R146" s="5">
@@ -17306,19 +17293,19 @@
       <c r="L147" s="14">
         <v>38121</v>
       </c>
-      <c r="M147" s="26" t="s">
+      <c r="M147" s="25" t="s">
         <v>892</v>
       </c>
       <c r="N147" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="O147" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P147" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q147" s="26" t="s">
+      <c r="O147" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P147" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q147" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R147" s="5">
@@ -17386,19 +17373,19 @@
       <c r="L148" s="14">
         <v>34957</v>
       </c>
-      <c r="M148" s="26" t="s">
+      <c r="M148" s="25" t="s">
         <v>900</v>
       </c>
       <c r="N148" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="O148" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P148" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q148" s="26" t="s">
+      <c r="O148" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P148" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q148" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R148" s="5">
@@ -17466,19 +17453,19 @@
       <c r="L149" s="14">
         <v>35150</v>
       </c>
-      <c r="M149" s="26" t="s">
+      <c r="M149" s="25" t="s">
         <v>907</v>
       </c>
       <c r="N149" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="O149" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P149" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q149" s="26" t="s">
+      <c r="O149" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P149" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q149" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R149" s="5">
@@ -17546,19 +17533,19 @@
       <c r="L150" s="14">
         <v>35408</v>
       </c>
-      <c r="M150" s="26" t="s">
+      <c r="M150" s="25" t="s">
         <v>913</v>
       </c>
       <c r="N150" s="5" t="s">
         <v>914</v>
       </c>
-      <c r="O150" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P150" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q150" s="26" t="s">
+      <c r="O150" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P150" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q150" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R150" s="5">
@@ -17626,19 +17613,19 @@
       <c r="L151" s="14">
         <v>33109</v>
       </c>
-      <c r="M151" s="26" t="s">
+      <c r="M151" s="25" t="s">
         <v>919</v>
       </c>
       <c r="N151" s="5" t="s">
         <v>920</v>
       </c>
-      <c r="O151" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P151" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q151" s="26" t="s">
+      <c r="O151" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P151" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q151" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R151" s="5">
@@ -17706,19 +17693,19 @@
       <c r="L152" s="14">
         <v>34068</v>
       </c>
-      <c r="M152" s="26" t="s">
+      <c r="M152" s="25" t="s">
         <v>925</v>
       </c>
       <c r="N152" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="O152" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P152" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q152" s="26" t="s">
+      <c r="O152" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P152" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q152" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R152" s="5">
@@ -17786,19 +17773,19 @@
       <c r="L153" s="14">
         <v>31936</v>
       </c>
-      <c r="M153" s="26" t="s">
+      <c r="M153" s="25" t="s">
         <v>931</v>
       </c>
       <c r="N153" s="5" t="s">
         <v>932</v>
       </c>
-      <c r="O153" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P153" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q153" s="26" t="s">
+      <c r="O153" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P153" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q153" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R153" s="5">
@@ -17866,19 +17853,19 @@
       <c r="L154" s="14">
         <v>34531</v>
       </c>
-      <c r="M154" s="26" t="s">
+      <c r="M154" s="25" t="s">
         <v>89</v>
       </c>
       <c r="N154" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="O154" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P154" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q154" s="26" t="s">
+      <c r="O154" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P154" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q154" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R154" s="5">
@@ -17946,19 +17933,19 @@
       <c r="L155" s="14">
         <v>33349</v>
       </c>
-      <c r="M155" s="26" t="s">
+      <c r="M155" s="25" t="s">
         <v>940</v>
       </c>
       <c r="N155" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="O155" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P155" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q155" s="26" t="s">
+      <c r="O155" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P155" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q155" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R155" s="5">
@@ -18026,19 +18013,19 @@
       <c r="L156" s="14">
         <v>26573</v>
       </c>
-      <c r="M156" s="26" t="s">
+      <c r="M156" s="25" t="s">
         <v>946</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="O156" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P156" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q156" s="26" t="s">
+      <c r="O156" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P156" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q156" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R156" s="5">
@@ -18106,19 +18093,19 @@
       <c r="L157" s="14">
         <v>32529</v>
       </c>
-      <c r="M157" s="26" t="s">
+      <c r="M157" s="25" t="s">
         <v>952</v>
       </c>
       <c r="N157" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="O157" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P157" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q157" s="26" t="s">
+      <c r="O157" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P157" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q157" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R157" s="5">
@@ -18186,19 +18173,19 @@
       <c r="L158" s="14">
         <v>28371</v>
       </c>
-      <c r="M158" s="26" t="s">
+      <c r="M158" s="25" t="s">
         <v>959</v>
       </c>
       <c r="N158" s="5" t="s">
         <v>960</v>
       </c>
-      <c r="O158" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P158" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q158" s="26" t="s">
+      <c r="O158" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P158" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q158" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R158" s="5">
@@ -18266,19 +18253,19 @@
       <c r="L159" s="14">
         <v>20673</v>
       </c>
-      <c r="M159" s="26" t="s">
+      <c r="M159" s="25" t="s">
         <v>965</v>
       </c>
       <c r="N159" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="O159" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P159" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q159" s="26" t="s">
+      <c r="O159" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P159" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q159" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R159" s="5">
@@ -18346,19 +18333,19 @@
       <c r="L160" s="14">
         <v>34835</v>
       </c>
-      <c r="M160" s="26" t="s">
+      <c r="M160" s="25" t="s">
         <v>970</v>
       </c>
       <c r="N160" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="O160" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P160" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q160" s="26" t="s">
+      <c r="O160" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P160" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q160" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R160" s="5">
@@ -18426,19 +18413,19 @@
       <c r="L161" s="14">
         <v>31546</v>
       </c>
-      <c r="M161" s="26" t="s">
+      <c r="M161" s="25" t="s">
         <v>977</v>
       </c>
       <c r="N161" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="O161" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P161" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q161" s="26" t="s">
+      <c r="O161" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P161" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q161" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R161" s="5">
@@ -18506,19 +18493,19 @@
       <c r="L162" s="14">
         <v>32802</v>
       </c>
-      <c r="M162" s="26" t="s">
+      <c r="M162" s="25" t="s">
         <v>982</v>
       </c>
       <c r="N162" s="5" t="s">
         <v>983</v>
       </c>
-      <c r="O162" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P162" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q162" s="26" t="s">
+      <c r="O162" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P162" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q162" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R162" s="5">
@@ -18586,19 +18573,19 @@
       <c r="L163" s="14">
         <v>36618</v>
       </c>
-      <c r="M163" s="26" t="s">
+      <c r="M163" s="25" t="s">
         <v>989</v>
       </c>
       <c r="N163" s="5" t="s">
         <v>990</v>
       </c>
-      <c r="O163" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P163" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q163" s="26" t="s">
+      <c r="O163" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P163" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q163" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R163" s="5">
@@ -18666,19 +18653,19 @@
       <c r="L164" s="14">
         <v>31901</v>
       </c>
-      <c r="M164" s="26" t="s">
+      <c r="M164" s="25" t="s">
         <v>792</v>
       </c>
       <c r="N164" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="O164" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P164" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q164" s="26" t="s">
+      <c r="O164" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P164" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q164" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R164" s="5">
@@ -18746,19 +18733,19 @@
       <c r="L165" s="14">
         <v>31964</v>
       </c>
-      <c r="M165" s="26" t="s">
+      <c r="M165" s="25" t="s">
         <v>998</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>999</v>
       </c>
-      <c r="O165" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P165" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q165" s="26" t="s">
+      <c r="O165" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P165" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q165" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R165" s="5">
@@ -18826,19 +18813,19 @@
       <c r="L166" s="14">
         <v>31008</v>
       </c>
-      <c r="M166" s="26" t="s">
+      <c r="M166" s="25" t="s">
         <v>1004</v>
       </c>
       <c r="N166" s="5" t="s">
         <v>1005</v>
       </c>
-      <c r="O166" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P166" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q166" s="26" t="s">
+      <c r="O166" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P166" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q166" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R166" s="5">
@@ -18906,19 +18893,19 @@
       <c r="L167" s="14">
         <v>36700</v>
       </c>
-      <c r="M167" s="26" t="s">
+      <c r="M167" s="25" t="s">
         <v>686</v>
       </c>
       <c r="N167" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="O167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P167" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q167" s="26" t="s">
+      <c r="O167" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P167" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q167" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R167" s="5">
@@ -18986,19 +18973,19 @@
       <c r="L168" s="14">
         <v>26209</v>
       </c>
-      <c r="M168" s="26" t="s">
+      <c r="M168" s="25" t="s">
         <v>33</v>
       </c>
       <c r="N168" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="O168" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P168" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q168" s="26" t="s">
+      <c r="O168" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P168" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q168" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R168" s="5">
@@ -19066,19 +19053,19 @@
       <c r="L169" s="14">
         <v>33816</v>
       </c>
-      <c r="M169" s="26" t="s">
+      <c r="M169" s="25" t="s">
         <v>103</v>
       </c>
       <c r="N169" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="O169" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P169" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q169" s="26" t="s">
+      <c r="O169" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P169" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q169" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R169" s="5">
@@ -19146,19 +19133,19 @@
       <c r="L170" s="14">
         <v>37148</v>
       </c>
-      <c r="M170" s="26" t="s">
+      <c r="M170" s="25" t="s">
         <v>1017</v>
       </c>
       <c r="N170" s="5" t="s">
         <v>1018</v>
       </c>
-      <c r="O170" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P170" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q170" s="26" t="s">
+      <c r="O170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P170" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q170" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R170" s="5">
@@ -19226,19 +19213,19 @@
       <c r="L171" s="14">
         <v>29193</v>
       </c>
-      <c r="M171" s="26" t="s">
+      <c r="M171" s="25" t="s">
         <v>66</v>
       </c>
       <c r="N171" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O171" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P171" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q171" s="26" t="s">
+      <c r="O171" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P171" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q171" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R171" s="5">
@@ -19306,19 +19293,19 @@
       <c r="L172" s="14">
         <v>35999</v>
       </c>
-      <c r="M172" s="26" t="s">
+      <c r="M172" s="25" t="s">
         <v>1026</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>1027</v>
       </c>
-      <c r="O172" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P172" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q172" s="26" t="s">
+      <c r="O172" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P172" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q172" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R172" s="5">
@@ -19386,19 +19373,19 @@
       <c r="L173" s="14">
         <v>34648</v>
       </c>
-      <c r="M173" s="26" t="s">
+      <c r="M173" s="25" t="s">
         <v>1032</v>
       </c>
       <c r="N173" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="O173" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P173" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q173" s="26" t="s">
+      <c r="O173" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P173" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q173" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R173" s="5">
@@ -19466,19 +19453,19 @@
       <c r="L174" s="14">
         <v>33982</v>
       </c>
-      <c r="M174" s="26" t="s">
+      <c r="M174" s="25" t="s">
         <v>1038</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="O174" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P174" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q174" s="26" t="s">
+      <c r="O174" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P174" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q174" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R174" s="5">
@@ -19546,19 +19533,19 @@
       <c r="L175" s="14">
         <v>34541</v>
       </c>
-      <c r="M175" s="26" t="s">
+      <c r="M175" s="25" t="s">
         <v>1044</v>
       </c>
       <c r="N175" s="5" t="s">
         <v>1045</v>
       </c>
-      <c r="O175" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P175" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q175" s="26" t="s">
+      <c r="O175" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P175" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q175" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R175" s="5">
@@ -19626,19 +19613,19 @@
       <c r="L176" s="14">
         <v>30737</v>
       </c>
-      <c r="M176" s="26" t="s">
+      <c r="M176" s="25" t="s">
         <v>1051</v>
       </c>
       <c r="N176" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="O176" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P176" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q176" s="26" t="s">
+      <c r="O176" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P176" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q176" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R176" s="5">
@@ -19706,19 +19693,19 @@
       <c r="L177" s="14">
         <v>29049</v>
       </c>
-      <c r="M177" s="26" t="s">
+      <c r="M177" s="25" t="s">
         <v>541</v>
       </c>
       <c r="N177" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="O177" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P177" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q177" s="26" t="s">
+      <c r="O177" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P177" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q177" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R177" s="5">
@@ -19786,19 +19773,19 @@
       <c r="L178" s="14">
         <v>31869</v>
       </c>
-      <c r="M178" s="26" t="s">
+      <c r="M178" s="25" t="s">
         <v>1060</v>
       </c>
       <c r="N178" s="5" t="s">
         <v>1061</v>
       </c>
-      <c r="O178" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P178" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q178" s="26" t="s">
+      <c r="O178" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P178" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q178" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R178" s="5">
@@ -19866,19 +19853,19 @@
       <c r="L179" s="14">
         <v>33008</v>
       </c>
-      <c r="M179" s="26" t="s">
+      <c r="M179" s="25" t="s">
         <v>1066</v>
       </c>
       <c r="N179" s="5" t="s">
         <v>1067</v>
       </c>
-      <c r="O179" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P179" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q179" s="26" t="s">
+      <c r="O179" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P179" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q179" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R179" s="5">
@@ -19946,19 +19933,19 @@
       <c r="L180" s="14">
         <v>33646</v>
       </c>
-      <c r="M180" s="26" t="s">
+      <c r="M180" s="25" t="s">
         <v>1072</v>
       </c>
       <c r="N180" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="O180" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P180" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q180" s="26" t="s">
+      <c r="O180" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P180" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q180" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R180" s="5">
@@ -20026,19 +20013,19 @@
       <c r="L181" s="14">
         <v>29216</v>
       </c>
-      <c r="M181" s="26" t="s">
+      <c r="M181" s="25" t="s">
         <v>1079</v>
       </c>
       <c r="N181" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="O181" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P181" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q181" s="26" t="s">
+      <c r="O181" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P181" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q181" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R181" s="5">
@@ -20106,19 +20093,19 @@
       <c r="L182" s="14">
         <v>29216</v>
       </c>
-      <c r="M182" s="26" t="s">
+      <c r="M182" s="25" t="s">
         <v>1079</v>
       </c>
       <c r="N182" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="O182" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P182" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q182" s="26" t="s">
+      <c r="O182" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P182" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q182" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R182" s="5">
@@ -20186,19 +20173,19 @@
       <c r="L183" s="14">
         <v>16530</v>
       </c>
-      <c r="M183" s="26" t="s">
+      <c r="M183" s="25" t="s">
         <v>33</v>
       </c>
       <c r="N183" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="O183" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P183" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q183" s="26" t="s">
+      <c r="O183" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P183" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q183" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R183" s="5">
@@ -20266,19 +20253,19 @@
       <c r="L184" s="14">
         <v>33746</v>
       </c>
-      <c r="M184" s="26" t="s">
+      <c r="M184" s="25" t="s">
         <v>1091</v>
       </c>
       <c r="N184" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="O184" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P184" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q184" s="26" t="s">
+      <c r="O184" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P184" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q184" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R184" s="5">
@@ -20346,19 +20333,19 @@
       <c r="L185" s="14">
         <v>16530</v>
       </c>
-      <c r="M185" s="26" t="s">
+      <c r="M185" s="25" t="s">
         <v>33</v>
       </c>
       <c r="N185" s="5" t="s">
         <v>1085</v>
       </c>
-      <c r="O185" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P185" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q185" s="26" t="s">
+      <c r="O185" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P185" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q185" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R185" s="5">
@@ -20426,19 +20413,19 @@
       <c r="L186" s="14">
         <v>33746</v>
       </c>
-      <c r="M186" s="26" t="s">
+      <c r="M186" s="25" t="s">
         <v>1091</v>
       </c>
       <c r="N186" s="5" t="s">
         <v>1092</v>
       </c>
-      <c r="O186" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P186" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q186" s="26" t="s">
+      <c r="O186" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P186" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q186" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R186" s="5">
@@ -20506,19 +20493,19 @@
       <c r="L187" s="14">
         <v>30959</v>
       </c>
-      <c r="M187" s="26" t="s">
+      <c r="M187" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N187" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="O187" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P187" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q187" s="26" t="s">
+      <c r="O187" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P187" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q187" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R187" s="5">
@@ -20586,19 +20573,19 @@
       <c r="L188" s="14">
         <v>35757</v>
       </c>
-      <c r="M188" s="26" t="s">
+      <c r="M188" s="25" t="s">
         <v>1105</v>
       </c>
       <c r="N188" s="5" t="s">
         <v>1106</v>
       </c>
-      <c r="O188" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P188" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q188" s="26" t="s">
+      <c r="O188" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P188" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q188" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R188" s="5">
@@ -20666,19 +20653,19 @@
       <c r="L189" s="14">
         <v>34618</v>
       </c>
-      <c r="M189" s="26" t="s">
+      <c r="M189" s="25" t="s">
         <v>1111</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>1112</v>
       </c>
-      <c r="O189" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P189" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q189" s="26" t="s">
+      <c r="O189" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P189" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q189" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R189" s="5">
@@ -20746,19 +20733,19 @@
       <c r="L190" s="14">
         <v>36509</v>
       </c>
-      <c r="M190" s="26" t="s">
+      <c r="M190" s="25" t="s">
         <v>1116</v>
       </c>
       <c r="N190" s="5" t="s">
         <v>1117</v>
       </c>
-      <c r="O190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q190" s="26" t="s">
+      <c r="O190" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P190" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q190" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R190" s="5">
@@ -20826,19 +20813,19 @@
       <c r="L191" s="14">
         <v>32755</v>
       </c>
-      <c r="M191" s="26" t="s">
+      <c r="M191" s="25" t="s">
         <v>1122</v>
       </c>
       <c r="N191" s="5" t="s">
         <v>1123</v>
       </c>
-      <c r="O191" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P191" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q191" s="26" t="s">
+      <c r="O191" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P191" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q191" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R191" s="5">
@@ -20906,19 +20893,19 @@
       <c r="L192" s="14">
         <v>33502</v>
       </c>
-      <c r="M192" s="26" t="s">
+      <c r="M192" s="25" t="s">
         <v>1128</v>
       </c>
       <c r="N192" s="5" t="s">
         <v>1129</v>
       </c>
-      <c r="O192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P192" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q192" s="26" t="s">
+      <c r="O192" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P192" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q192" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R192" s="5">
@@ -20986,19 +20973,19 @@
       <c r="L193" s="14">
         <v>33409</v>
       </c>
-      <c r="M193" s="26" t="s">
+      <c r="M193" s="25" t="s">
         <v>1136</v>
       </c>
       <c r="N193" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="O193" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P193" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q193" s="26" t="s">
+      <c r="O193" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P193" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q193" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R193" s="5">
@@ -21066,19 +21053,19 @@
       <c r="L194" s="14">
         <v>35875</v>
       </c>
-      <c r="M194" s="26" t="s">
+      <c r="M194" s="25" t="s">
         <v>1143</v>
       </c>
       <c r="N194" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="O194" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P194" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q194" s="26" t="s">
+      <c r="O194" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P194" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q194" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R194" s="5">
@@ -21146,19 +21133,19 @@
       <c r="L195" s="14">
         <v>28690</v>
       </c>
-      <c r="M195" s="27" t="s">
+      <c r="M195" s="26" t="s">
         <v>1150</v>
       </c>
       <c r="N195" s="5" t="s">
         <v>1151</v>
       </c>
-      <c r="O195" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P195" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q195" s="26" t="s">
+      <c r="O195" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P195" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q195" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R195" s="5">
@@ -21226,19 +21213,19 @@
       <c r="L196" s="14">
         <v>36400</v>
       </c>
-      <c r="M196" s="27" t="s">
+      <c r="M196" s="26" t="s">
         <v>1157</v>
       </c>
       <c r="N196" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="O196" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P196" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q196" s="26" t="s">
+      <c r="O196" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P196" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q196" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R196" s="5">
@@ -21306,19 +21293,19 @@
       <c r="L197" s="14">
         <v>32370</v>
       </c>
-      <c r="M197" s="27" t="s">
+      <c r="M197" s="26" t="s">
         <v>141</v>
       </c>
       <c r="N197" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="O197" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P197" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q197" s="26" t="s">
+      <c r="O197" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P197" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q197" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R197" s="5">
@@ -21386,19 +21373,19 @@
       <c r="L198" s="14">
         <v>35875</v>
       </c>
-      <c r="M198" s="27" t="s">
+      <c r="M198" s="26" t="s">
         <v>1143</v>
       </c>
       <c r="N198" s="5" t="s">
         <v>1144</v>
       </c>
-      <c r="O198" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P198" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q198" s="26" t="s">
+      <c r="O198" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P198" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q198" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R198" s="5">
@@ -21463,22 +21450,22 @@
       <c r="K199" s="13" t="s">
         <v>1166</v>
       </c>
-      <c r="L199" s="14" t="s">
+      <c r="L199" s="14">
+        <v>35278</v>
+      </c>
+      <c r="M199" s="26" t="s">
         <v>1167</v>
       </c>
-      <c r="M199" s="27" t="s">
+      <c r="N199" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="N199" s="5" t="s">
-        <v>1169</v>
-      </c>
-      <c r="O199" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P199" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q199" s="26" t="s">
+      <c r="O199" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P199" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q199" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R199" s="5">
@@ -21520,13 +21507,13 @@
         <v>1</v>
       </c>
       <c r="D200" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E200" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="E200" s="6" t="s">
+      <c r="F200" s="21" t="s">
         <v>1171</v>
-      </c>
-      <c r="F200" s="21" t="s">
-        <v>1172</v>
       </c>
       <c r="G200" s="8" t="s">
         <v>28</v>
@@ -21541,24 +21528,24 @@
         <v>31</v>
       </c>
       <c r="K200" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L200" s="14">
         <v>36290</v>
       </c>
-      <c r="M200" s="27" t="s">
+      <c r="M200" s="26" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N200" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="N200" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="O200" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P200" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q200" s="26" t="s">
+      <c r="O200" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P200" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q200" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R200" s="5">
@@ -21600,7 +21587,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>922</v>
@@ -21626,19 +21613,19 @@
       <c r="L201" s="14">
         <v>34068</v>
       </c>
-      <c r="M201" s="27" t="s">
-        <v>1177</v>
+      <c r="M201" s="26" t="s">
+        <v>1176</v>
       </c>
       <c r="N201" s="5" t="s">
         <v>926</v>
       </c>
-      <c r="O201" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P201" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q201" s="26" t="s">
+      <c r="O201" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P201" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q201" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R201" s="5">
@@ -21680,19 +21667,19 @@
         <v>1</v>
       </c>
       <c r="D202" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E202" s="6" t="s">
         <v>1178</v>
       </c>
-      <c r="E202" s="6" t="s">
+      <c r="F202" s="21" t="s">
         <v>1179</v>
       </c>
-      <c r="F202" s="21" t="s">
+      <c r="G202" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H202" s="19" t="s">
         <v>1180</v>
-      </c>
-      <c r="G202" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H202" s="19" t="s">
-        <v>1181</v>
       </c>
       <c r="I202" s="12" t="s">
         <v>30</v>
@@ -21701,24 +21688,24 @@
         <v>31</v>
       </c>
       <c r="K202" s="13" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="L202" s="14">
         <v>38797</v>
       </c>
-      <c r="M202" s="27" t="s">
+      <c r="M202" s="26" t="s">
+        <v>1182</v>
+      </c>
+      <c r="N202" s="5" t="s">
         <v>1183</v>
       </c>
-      <c r="N202" s="5" t="s">
-        <v>1184</v>
-      </c>
-      <c r="O202" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P202" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q202" s="26" t="s">
+      <c r="O202" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P202" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q202" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R202" s="5">
@@ -21760,13 +21747,13 @@
         <v>1</v>
       </c>
       <c r="D203" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E203" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="E203" s="6" t="s">
+      <c r="F203" s="21" t="s">
         <v>1186</v>
-      </c>
-      <c r="F203" s="21" t="s">
-        <v>1187</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>28</v>
@@ -21781,24 +21768,24 @@
         <v>31</v>
       </c>
       <c r="K203" s="13" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="L203" s="14">
         <v>34083</v>
       </c>
-      <c r="M203" s="27" t="s">
+      <c r="M203" s="26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="N203" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="N203" s="5" t="s">
-        <v>1190</v>
-      </c>
-      <c r="O203" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P203" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q203" s="26" t="s">
+      <c r="O203" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P203" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q203" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R203" s="5">
@@ -21840,13 +21827,13 @@
         <v>1</v>
       </c>
       <c r="D204" s="7" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="F204" s="21" t="s">
         <v>1192</v>
-      </c>
-      <c r="F204" s="21" t="s">
-        <v>1193</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>28</v>
@@ -21861,24 +21848,24 @@
         <v>31</v>
       </c>
       <c r="K204" s="13" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="L204" s="14">
         <v>31638</v>
       </c>
-      <c r="M204" s="27" t="s">
+      <c r="M204" s="26" t="s">
+        <v>1194</v>
+      </c>
+      <c r="N204" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="N204" s="5" t="s">
-        <v>1196</v>
-      </c>
-      <c r="O204" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P204" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q204" s="26" t="s">
+      <c r="O204" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P204" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q204" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R204" s="5">
@@ -21920,13 +21907,13 @@
         <v>1</v>
       </c>
       <c r="D205" s="7" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E205" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="F205" s="21" t="s">
         <v>1198</v>
-      </c>
-      <c r="F205" s="21" t="s">
-        <v>1199</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>28</v>
@@ -21941,24 +21928,24 @@
         <v>72</v>
       </c>
       <c r="K205" s="13" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="L205" s="14">
         <v>33967</v>
       </c>
-      <c r="M205" s="27" t="s">
+      <c r="M205" s="26" t="s">
+        <v>1200</v>
+      </c>
+      <c r="N205" s="5" t="s">
         <v>1201</v>
       </c>
-      <c r="N205" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="O205" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P205" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q205" s="26" t="s">
+      <c r="O205" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P205" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q205" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R205" s="5">
@@ -22000,13 +21987,13 @@
         <v>1</v>
       </c>
       <c r="D206" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>1203</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="F206" s="21" t="s">
         <v>1204</v>
-      </c>
-      <c r="F206" s="21" t="s">
-        <v>1205</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>28</v>
@@ -22021,24 +22008,24 @@
         <v>31</v>
       </c>
       <c r="K206" s="13" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="L206" s="14">
         <v>38154</v>
       </c>
-      <c r="M206" s="27" t="s">
+      <c r="M206" s="26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="N206" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="N206" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="O206" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P206" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q206" s="26" t="s">
+      <c r="O206" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P206" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q206" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R206" s="5">
@@ -22080,13 +22067,13 @@
         <v>1</v>
       </c>
       <c r="D207" s="7" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E207" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="E207" s="6" t="s">
+      <c r="F207" s="21" t="s">
         <v>1210</v>
-      </c>
-      <c r="F207" s="21" t="s">
-        <v>1211</v>
       </c>
       <c r="G207" s="8" t="s">
         <v>28</v>
@@ -22098,27 +22085,27 @@
         <v>30</v>
       </c>
       <c r="J207" s="13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K207" s="13" t="s">
         <v>1212</v>
-      </c>
-      <c r="K207" s="13" t="s">
-        <v>1213</v>
       </c>
       <c r="L207" s="14">
         <v>35602</v>
       </c>
-      <c r="M207" s="27" t="s">
+      <c r="M207" s="26" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N207" s="5" t="s">
         <v>1214</v>
       </c>
-      <c r="N207" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="O207" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P207" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q207" s="26" t="s">
+      <c r="O207" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P207" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q207" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R207" s="5">
@@ -22160,13 +22147,13 @@
         <v>1</v>
       </c>
       <c r="D208" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E208" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="F208" s="21" t="s">
         <v>1217</v>
-      </c>
-      <c r="F208" s="21" t="s">
-        <v>1218</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>28</v>
@@ -22181,24 +22168,24 @@
         <v>31</v>
       </c>
       <c r="K208" s="13" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="L208" s="14">
         <v>28141</v>
       </c>
-      <c r="M208" s="27" t="s">
+      <c r="M208" s="26" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N208" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="N208" s="5" t="s">
-        <v>1221</v>
-      </c>
-      <c r="O208" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P208" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q208" s="26" t="s">
+      <c r="O208" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P208" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q208" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R208" s="5">
@@ -22240,13 +22227,13 @@
         <v>1</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="F209" s="21" t="s">
         <v>1223</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>1224</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>28</v>
@@ -22261,24 +22248,24 @@
         <v>31</v>
       </c>
       <c r="K209" s="13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="L209" s="14">
         <v>35924</v>
       </c>
-      <c r="M209" s="26" t="s">
+      <c r="M209" s="25" t="s">
+        <v>1225</v>
+      </c>
+      <c r="N209" s="5" t="s">
         <v>1226</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O209" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P209" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q209" s="26" t="s">
+      <c r="O209" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P209" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q209" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R209" s="5">
@@ -22320,13 +22307,13 @@
         <v>1</v>
       </c>
       <c r="D210" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="F210" s="21" t="s">
         <v>1229</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>1230</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>28</v>
@@ -22341,24 +22328,24 @@
         <v>31</v>
       </c>
       <c r="K210" s="13" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="L210" s="14">
         <v>37666</v>
       </c>
-      <c r="M210" s="26" t="s">
+      <c r="M210" s="25" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N210" s="5" t="s">
         <v>1232</v>
       </c>
-      <c r="N210" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="O210" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P210" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q210" s="26" t="s">
+      <c r="O210" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P210" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q210" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R210" s="5">
@@ -22400,13 +22387,13 @@
         <v>1</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="E211" s="6" t="s">
         <v>1069</v>
       </c>
       <c r="F211" s="21" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>28</v>
@@ -22426,19 +22413,19 @@
       <c r="L211" s="14">
         <v>33646</v>
       </c>
-      <c r="M211" s="26" t="s">
+      <c r="M211" s="25" t="s">
         <v>1072</v>
       </c>
       <c r="N211" s="5" t="s">
         <v>1073</v>
       </c>
-      <c r="O211" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P211" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q211" s="26" t="s">
+      <c r="O211" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P211" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q211" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R211" s="5">
@@ -22480,13 +22467,13 @@
         <v>1</v>
       </c>
       <c r="D212" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E212" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="E212" s="6" t="s">
+      <c r="F212" s="21" t="s">
         <v>1237</v>
-      </c>
-      <c r="F212" s="21" t="s">
-        <v>1238</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>28</v>
@@ -22501,24 +22488,24 @@
         <v>31</v>
       </c>
       <c r="K212" s="13" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="L212" s="14">
         <v>23406</v>
       </c>
-      <c r="M212" s="26" t="s">
+      <c r="M212" s="25" t="s">
+        <v>1239</v>
+      </c>
+      <c r="N212" s="5" t="s">
         <v>1240</v>
       </c>
-      <c r="N212" s="5" t="s">
-        <v>1241</v>
-      </c>
-      <c r="O212" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P212" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q212" s="26" t="s">
+      <c r="O212" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P212" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q212" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R212" s="5">
@@ -22560,13 +22547,13 @@
         <v>1</v>
       </c>
       <c r="D213" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E213" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="E213" s="6" t="s">
+      <c r="F213" s="21" t="s">
         <v>1243</v>
-      </c>
-      <c r="F213" s="21" t="s">
-        <v>1244</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>28</v>
@@ -22581,24 +22568,24 @@
         <v>31</v>
       </c>
       <c r="K213" s="13" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="L213" s="14">
         <v>26243</v>
       </c>
-      <c r="M213" s="26" t="s">
+      <c r="M213" s="25" t="s">
+        <v>1245</v>
+      </c>
+      <c r="N213" s="5" t="s">
         <v>1246</v>
       </c>
-      <c r="N213" s="5" t="s">
-        <v>1247</v>
-      </c>
-      <c r="O213" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P213" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q213" s="26" t="s">
+      <c r="O213" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P213" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q213" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R213" s="5">
@@ -22640,19 +22627,19 @@
         <v>1</v>
       </c>
       <c r="D214" s="7" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E214" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="F214" s="21" t="s">
         <v>1249</v>
       </c>
-      <c r="F214" s="21" t="s">
+      <c r="G214" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H214" s="19" t="s">
         <v>1250</v>
-      </c>
-      <c r="G214" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H214" s="19" t="s">
-        <v>1251</v>
       </c>
       <c r="I214" s="12" t="s">
         <v>30</v>
@@ -22661,24 +22648,24 @@
         <v>31</v>
       </c>
       <c r="K214" s="13" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="L214" s="14">
         <v>36945</v>
       </c>
-      <c r="M214" s="26" t="s">
+      <c r="M214" s="25" t="s">
+        <v>1252</v>
+      </c>
+      <c r="N214" s="5" t="s">
         <v>1253</v>
       </c>
-      <c r="N214" s="5" t="s">
-        <v>1254</v>
-      </c>
-      <c r="O214" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P214" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q214" s="26" t="s">
+      <c r="O214" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P214" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q214" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R214" s="5">
@@ -22720,13 +22707,13 @@
         <v>1</v>
       </c>
       <c r="D215" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E215" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="F215" s="21" t="s">
         <v>1256</v>
-      </c>
-      <c r="F215" s="21" t="s">
-        <v>1257</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>28</v>
@@ -22741,24 +22728,24 @@
         <v>31</v>
       </c>
       <c r="K215" s="13" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="L215" s="14">
         <v>33287</v>
       </c>
-      <c r="M215" s="26" t="s">
+      <c r="M215" s="25" t="s">
+        <v>1258</v>
+      </c>
+      <c r="N215" s="5" t="s">
         <v>1259</v>
       </c>
-      <c r="N215" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="O215" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P215" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q215" s="26" t="s">
+      <c r="O215" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P215" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q215" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R215" s="5">
@@ -22800,13 +22787,13 @@
         <v>1</v>
       </c>
       <c r="D216" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>1261</v>
       </c>
-      <c r="E216" s="6" t="s">
+      <c r="F216" s="21" t="s">
         <v>1262</v>
-      </c>
-      <c r="F216" s="21" t="s">
-        <v>1263</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>28</v>
@@ -22821,24 +22808,24 @@
         <v>31</v>
       </c>
       <c r="K216" s="13" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="L216" s="14">
         <v>37033</v>
       </c>
-      <c r="M216" s="26" t="s">
+      <c r="M216" s="25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="N216" s="5" t="s">
         <v>1265</v>
       </c>
-      <c r="N216" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="O216" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P216" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q216" s="26" t="s">
+      <c r="O216" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P216" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q216" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R216" s="5">
@@ -22880,13 +22867,13 @@
         <v>1</v>
       </c>
       <c r="D217" s="7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E217" s="6" t="s">
         <v>1267</v>
       </c>
-      <c r="E217" s="6" t="s">
+      <c r="F217" s="21" t="s">
         <v>1268</v>
-      </c>
-      <c r="F217" s="21" t="s">
-        <v>1269</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>28</v>
@@ -22901,24 +22888,24 @@
         <v>31</v>
       </c>
       <c r="K217" s="13" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="L217" s="14">
         <v>26911</v>
       </c>
-      <c r="M217" s="26" t="s">
+      <c r="M217" s="25" t="s">
+        <v>1270</v>
+      </c>
+      <c r="N217" s="5" t="s">
         <v>1271</v>
       </c>
-      <c r="N217" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="O217" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P217" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q217" s="26" t="s">
+      <c r="O217" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P217" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q217" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R217" s="5">
@@ -22960,13 +22947,13 @@
         <v>1</v>
       </c>
       <c r="D218" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E218" s="6" t="s">
         <v>1273</v>
       </c>
-      <c r="E218" s="6" t="s">
+      <c r="F218" s="21" t="s">
         <v>1274</v>
-      </c>
-      <c r="F218" s="21" t="s">
-        <v>1275</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>28</v>
@@ -22981,24 +22968,24 @@
         <v>31</v>
       </c>
       <c r="K218" s="13" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="L218" s="14">
         <v>33129</v>
       </c>
-      <c r="M218" s="26" t="s">
+      <c r="M218" s="25" t="s">
+        <v>1276</v>
+      </c>
+      <c r="N218" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="N218" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O218" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P218" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q218" s="26" t="s">
+      <c r="O218" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P218" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q218" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R218" s="5">
@@ -23040,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>283</v>
@@ -23066,19 +23053,19 @@
       <c r="L219" s="14">
         <v>34282</v>
       </c>
-      <c r="M219" s="26" t="s">
+      <c r="M219" s="25" t="s">
         <v>286</v>
       </c>
       <c r="N219" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="O219" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P219" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q219" s="26" t="s">
+      <c r="O219" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P219" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q219" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R219" s="5">
@@ -23120,13 +23107,13 @@
         <v>1</v>
       </c>
       <c r="D220" s="7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="E220" s="6" t="s">
         <v>1280</v>
       </c>
-      <c r="E220" s="6" t="s">
+      <c r="F220" s="21" t="s">
         <v>1281</v>
-      </c>
-      <c r="F220" s="21" t="s">
-        <v>1282</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>28</v>
@@ -23138,27 +23125,27 @@
         <v>30</v>
       </c>
       <c r="J220" s="13" t="s">
+        <v>1282</v>
+      </c>
+      <c r="K220" s="13" t="s">
         <v>1283</v>
-      </c>
-      <c r="K220" s="13" t="s">
-        <v>1284</v>
       </c>
       <c r="L220" s="14">
         <v>34570</v>
       </c>
-      <c r="M220" s="26" t="s">
+      <c r="M220" s="25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="N220" s="5" t="s">
         <v>1285</v>
       </c>
-      <c r="N220" s="5" t="s">
-        <v>1286</v>
-      </c>
-      <c r="O220" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P220" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q220" s="26" t="s">
+      <c r="O220" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P220" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q220" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R220" s="5">
@@ -23200,13 +23187,13 @@
         <v>1</v>
       </c>
       <c r="D221" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>1287</v>
       </c>
-      <c r="E221" s="6" t="s">
+      <c r="F221" s="21" t="s">
         <v>1288</v>
-      </c>
-      <c r="F221" s="21" t="s">
-        <v>1289</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>28</v>
@@ -23221,24 +23208,24 @@
         <v>31</v>
       </c>
       <c r="K221" s="13" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="L221" s="14">
         <v>31818</v>
       </c>
-      <c r="M221" s="26" t="s">
+      <c r="M221" s="25" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N221" s="5" t="s">
         <v>1291</v>
       </c>
-      <c r="N221" s="5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="O221" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P221" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q221" s="26" t="s">
+      <c r="O221" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P221" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q221" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R221" s="5">
@@ -23280,13 +23267,13 @@
         <v>1</v>
       </c>
       <c r="D222" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E222" s="6" t="s">
         <v>1293</v>
       </c>
-      <c r="E222" s="6" t="s">
+      <c r="F222" s="21" t="s">
         <v>1294</v>
-      </c>
-      <c r="F222" s="21" t="s">
-        <v>1295</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>28</v>
@@ -23301,24 +23288,24 @@
         <v>31</v>
       </c>
       <c r="K222" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L222" s="14">
         <v>33679</v>
       </c>
-      <c r="M222" s="26" t="s">
+      <c r="M222" s="25" t="s">
+        <v>1296</v>
+      </c>
+      <c r="N222" s="5" t="s">
         <v>1297</v>
       </c>
-      <c r="N222" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="O222" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P222" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q222" s="26" t="s">
+      <c r="O222" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P222" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q222" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R222" s="5">
@@ -23360,13 +23347,13 @@
         <v>1</v>
       </c>
       <c r="D223" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E223" s="6" t="s">
         <v>1299</v>
       </c>
-      <c r="E223" s="6" t="s">
+      <c r="F223" s="21" t="s">
         <v>1300</v>
-      </c>
-      <c r="F223" s="21" t="s">
-        <v>1301</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>28</v>
@@ -23378,27 +23365,27 @@
         <v>30</v>
       </c>
       <c r="J223" s="13" t="s">
+        <v>1301</v>
+      </c>
+      <c r="K223" s="13" t="s">
         <v>1302</v>
-      </c>
-      <c r="K223" s="13" t="s">
-        <v>1303</v>
       </c>
       <c r="L223" s="14">
         <v>32775</v>
       </c>
-      <c r="M223" s="26" t="s">
+      <c r="M223" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="O223" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P223" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q223" s="26" t="s">
+        <v>1303</v>
+      </c>
+      <c r="O223" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P223" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q223" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R223" s="5">
@@ -23440,13 +23427,13 @@
         <v>1</v>
       </c>
       <c r="D224" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E224" s="6" t="s">
         <v>1305</v>
       </c>
-      <c r="E224" s="6" t="s">
+      <c r="F224" s="21" t="s">
         <v>1306</v>
-      </c>
-      <c r="F224" s="21" t="s">
-        <v>1307</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>28</v>
@@ -23461,24 +23448,24 @@
         <v>31</v>
       </c>
       <c r="K224" s="13" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="L224" s="14">
         <v>32937</v>
       </c>
-      <c r="M224" s="26" t="s">
+      <c r="M224" s="25" t="s">
+        <v>1308</v>
+      </c>
+      <c r="N224" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="N224" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="O224" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P224" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q224" s="26" t="s">
+      <c r="O224" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P224" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q224" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R224" s="5">
@@ -23520,13 +23507,13 @@
         <v>1</v>
       </c>
       <c r="D225" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E225" s="6" t="s">
         <v>1311</v>
       </c>
-      <c r="E225" s="6" t="s">
+      <c r="F225" s="21" t="s">
         <v>1312</v>
-      </c>
-      <c r="F225" s="21" t="s">
-        <v>1313</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>28</v>
@@ -23541,24 +23528,24 @@
         <v>31</v>
       </c>
       <c r="K225" s="13" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="L225" s="14">
         <v>38576</v>
       </c>
-      <c r="M225" s="26" t="s">
+      <c r="M225" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N225" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="O225" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P225" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q225" s="26" t="s">
+        <v>1314</v>
+      </c>
+      <c r="O225" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P225" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q225" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R225" s="5">
@@ -23600,13 +23587,13 @@
         <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E226" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="E226" s="6" t="s">
+      <c r="F226" s="21" t="s">
         <v>1317</v>
-      </c>
-      <c r="F226" s="21" t="s">
-        <v>1318</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>28</v>
@@ -23621,24 +23608,24 @@
         <v>31</v>
       </c>
       <c r="K226" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="L226" s="14">
         <v>36888</v>
       </c>
-      <c r="M226" s="26" t="s">
+      <c r="M226" s="25" t="s">
+        <v>1319</v>
+      </c>
+      <c r="N226" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="N226" s="5" t="s">
-        <v>1321</v>
-      </c>
-      <c r="O226" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P226" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q226" s="26" t="s">
+      <c r="O226" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P226" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q226" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R226" s="5">
@@ -23680,13 +23667,13 @@
         <v>1</v>
       </c>
       <c r="D227" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E227" s="6" t="s">
         <v>1322</v>
       </c>
-      <c r="E227" s="6" t="s">
+      <c r="F227" s="21" t="s">
         <v>1323</v>
-      </c>
-      <c r="F227" s="21" t="s">
-        <v>1324</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>28</v>
@@ -23698,27 +23685,27 @@
         <v>30</v>
       </c>
       <c r="J227" s="13" t="s">
+        <v>1324</v>
+      </c>
+      <c r="K227" s="13" t="s">
         <v>1325</v>
-      </c>
-      <c r="K227" s="13" t="s">
-        <v>1326</v>
       </c>
       <c r="L227" s="14">
         <v>30094</v>
       </c>
-      <c r="M227" s="26" t="s">
+      <c r="M227" s="25" t="s">
         <v>28</v>
       </c>
       <c r="N227" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="O227" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P227" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q227" s="26" t="s">
+        <v>1326</v>
+      </c>
+      <c r="O227" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P227" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q227" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R227" s="5">
@@ -23760,13 +23747,13 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E228" s="6" t="s">
         <v>1328</v>
       </c>
-      <c r="E228" s="6" t="s">
+      <c r="F228" s="21" t="s">
         <v>1329</v>
-      </c>
-      <c r="F228" s="21" t="s">
-        <v>1330</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>28</v>
@@ -23781,24 +23768,24 @@
         <v>31</v>
       </c>
       <c r="K228" s="13" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="L228" s="14">
         <v>37290</v>
       </c>
-      <c r="M228" s="26" t="s">
+      <c r="M228" s="25" t="s">
+        <v>1331</v>
+      </c>
+      <c r="N228" s="5" t="s">
         <v>1332</v>
       </c>
-      <c r="N228" s="5" t="s">
-        <v>1333</v>
-      </c>
-      <c r="O228" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P228" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q228" s="26" t="s">
+      <c r="O228" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P228" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q228" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R228" s="5">
@@ -23840,7 +23827,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="E229" s="6" t="s">
         <v>1035</v>
@@ -23872,13 +23859,13 @@
       <c r="N229" s="5" t="s">
         <v>1039</v>
       </c>
-      <c r="O229" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P229" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q229" s="26" t="s">
+      <c r="O229" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P229" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q229" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R229" s="5">
@@ -23920,13 +23907,13 @@
         <v>1</v>
       </c>
       <c r="D230" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E230" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="E230" s="6" t="s">
+      <c r="F230" s="21" t="s">
         <v>1336</v>
-      </c>
-      <c r="F230" s="21" t="s">
-        <v>1337</v>
       </c>
       <c r="G230" s="8" t="s">
         <v>28</v>
@@ -23941,24 +23928,24 @@
         <v>31</v>
       </c>
       <c r="K230" s="13" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="L230" s="14">
         <v>33544</v>
       </c>
       <c r="M230" s="23" t="s">
+        <v>1338</v>
+      </c>
+      <c r="N230" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="N230" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="O230" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P230" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q230" s="26" t="s">
+      <c r="O230" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P230" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q230" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R230" s="5">
@@ -24000,13 +23987,13 @@
         <v>1</v>
       </c>
       <c r="D231" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E231" s="6" t="s">
         <v>1341</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="F231" s="21" t="s">
         <v>1342</v>
-      </c>
-      <c r="F231" s="21" t="s">
-        <v>1343</v>
       </c>
       <c r="G231" s="8" t="s">
         <v>28</v>
@@ -24021,24 +24008,24 @@
         <v>31</v>
       </c>
       <c r="K231" s="13" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="L231" s="14">
         <v>37018</v>
       </c>
       <c r="M231" s="23" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N231" s="5" t="s">
         <v>1345</v>
       </c>
-      <c r="N231" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="O231" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P231" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q231" s="26" t="s">
+      <c r="O231" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P231" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q231" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R231" s="5">
@@ -24112,13 +24099,13 @@
       <c r="N232" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="O232" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P232" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q232" s="26" t="s">
+      <c r="O232" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P232" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q232" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R232" s="5">
@@ -24160,7 +24147,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E233" s="6" t="s">
         <v>1075</v>
@@ -24178,7 +24165,7 @@
         <v>30</v>
       </c>
       <c r="J233" s="13" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="K233" s="13" t="s">
         <v>1078</v>
@@ -24187,18 +24174,18 @@
         <v>29216</v>
       </c>
       <c r="M233" s="24" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="N233" s="5" t="s">
         <v>1080</v>
       </c>
-      <c r="O233" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P233" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q233" s="26" t="s">
+      <c r="O233" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P233" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q233" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R233" s="5">
@@ -24240,13 +24227,13 @@
         <v>1</v>
       </c>
       <c r="D234" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E234" s="6" t="s">
         <v>1349</v>
       </c>
-      <c r="E234" s="6" t="s">
+      <c r="F234" s="21" t="s">
         <v>1350</v>
-      </c>
-      <c r="F234" s="21" t="s">
-        <v>1351</v>
       </c>
       <c r="G234" s="8" t="s">
         <v>28</v>
@@ -24258,27 +24245,27 @@
         <v>30</v>
       </c>
       <c r="J234" s="13" t="s">
+        <v>1351</v>
+      </c>
+      <c r="K234" s="13" t="s">
         <v>1352</v>
-      </c>
-      <c r="K234" s="13" t="s">
-        <v>1353</v>
       </c>
       <c r="L234" s="14">
         <v>37026</v>
       </c>
       <c r="M234" s="23" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N234" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="N234" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="O234" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P234" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q234" s="26" t="s">
+      <c r="O234" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P234" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q234" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R234" s="5">
@@ -24320,13 +24307,13 @@
         <v>1</v>
       </c>
       <c r="D235" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E235" s="6" t="s">
         <v>1356</v>
       </c>
-      <c r="E235" s="6" t="s">
+      <c r="F235" s="21" t="s">
         <v>1357</v>
-      </c>
-      <c r="F235" s="21" t="s">
-        <v>1358</v>
       </c>
       <c r="G235" s="8" t="s">
         <v>28</v>
@@ -24341,24 +24328,24 @@
         <v>31</v>
       </c>
       <c r="K235" s="13" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="L235" s="14">
         <v>37599</v>
       </c>
       <c r="M235" s="23" t="s">
+        <v>1359</v>
+      </c>
+      <c r="N235" s="5" t="s">
         <v>1360</v>
       </c>
-      <c r="N235" s="5" t="s">
-        <v>1361</v>
-      </c>
-      <c r="O235" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P235" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q235" s="26" t="s">
+      <c r="O235" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P235" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q235" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R235" s="5">
@@ -24403,10 +24390,10 @@
         <v>281</v>
       </c>
       <c r="E236" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="F236" s="21" t="s">
         <v>1362</v>
-      </c>
-      <c r="F236" s="21" t="s">
-        <v>1363</v>
       </c>
       <c r="G236" s="8" t="s">
         <v>28</v>
@@ -24421,24 +24408,24 @@
         <v>31</v>
       </c>
       <c r="K236" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="L236" s="14">
         <v>19485</v>
       </c>
       <c r="M236" s="23" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N236" s="5" t="s">
         <v>1365</v>
       </c>
-      <c r="N236" s="5" t="s">
-        <v>1366</v>
-      </c>
-      <c r="O236" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P236" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q236" s="26" t="s">
+      <c r="O236" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P236" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q236" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R236" s="5">
@@ -24480,13 +24467,13 @@
         <v>1</v>
       </c>
       <c r="D237" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E237" s="6" t="s">
         <v>1367</v>
       </c>
-      <c r="E237" s="6" t="s">
+      <c r="F237" s="21" t="s">
         <v>1368</v>
-      </c>
-      <c r="F237" s="21" t="s">
-        <v>1369</v>
       </c>
       <c r="G237" s="8" t="s">
         <v>28</v>
@@ -24501,24 +24488,24 @@
         <v>31</v>
       </c>
       <c r="K237" s="13" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="L237" s="14">
         <v>33374</v>
       </c>
       <c r="M237" s="23" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N237" s="5" t="s">
         <v>1371</v>
       </c>
-      <c r="N237" s="5" t="s">
-        <v>1372</v>
-      </c>
-      <c r="O237" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P237" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q237" s="26" t="s">
+      <c r="O237" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P237" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q237" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R237" s="5">
@@ -24563,10 +24550,10 @@
         <v>283</v>
       </c>
       <c r="E238" s="6" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F238" s="21" t="s">
         <v>1373</v>
-      </c>
-      <c r="F238" s="21" t="s">
-        <v>1374</v>
       </c>
       <c r="G238" s="8" t="s">
         <v>28</v>
@@ -24581,24 +24568,24 @@
         <v>31</v>
       </c>
       <c r="K238" s="13" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="L238" s="14">
         <v>26597</v>
       </c>
       <c r="M238" s="23" t="s">
+        <v>1375</v>
+      </c>
+      <c r="N238" s="5" t="s">
         <v>1376</v>
       </c>
-      <c r="N238" s="5" t="s">
-        <v>1377</v>
-      </c>
-      <c r="O238" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P238" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q238" s="26" t="s">
+      <c r="O238" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P238" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q238" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R238" s="5">
@@ -24640,13 +24627,13 @@
         <v>1</v>
       </c>
       <c r="D239" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E239" s="6" t="s">
         <v>1378</v>
       </c>
-      <c r="E239" s="6" t="s">
+      <c r="F239" s="21" t="s">
         <v>1379</v>
-      </c>
-      <c r="F239" s="21" t="s">
-        <v>1380</v>
       </c>
       <c r="G239" s="8" t="s">
         <v>28</v>
@@ -24661,24 +24648,24 @@
         <v>31</v>
       </c>
       <c r="K239" s="13" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L239" s="14">
+        <v>29209</v>
+      </c>
+      <c r="M239" s="23" t="s">
         <v>1381</v>
       </c>
-      <c r="L239" s="25">
-        <v>29209</v>
-      </c>
-      <c r="M239" s="23" t="s">
+      <c r="N239" s="5" t="s">
         <v>1382</v>
       </c>
-      <c r="N239" s="5" t="s">
-        <v>1383</v>
-      </c>
-      <c r="O239" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P239" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q239" s="26" t="s">
+      <c r="O239" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P239" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q239" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R239" s="5">
@@ -24720,13 +24707,13 @@
         <v>1</v>
       </c>
       <c r="D240" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E240" s="6" t="s">
         <v>1384</v>
       </c>
-      <c r="E240" s="6" t="s">
+      <c r="F240" s="21" t="s">
         <v>1385</v>
-      </c>
-      <c r="F240" s="21" t="s">
-        <v>1386</v>
       </c>
       <c r="G240" s="8" t="s">
         <v>28</v>
@@ -24738,27 +24725,27 @@
         <v>30</v>
       </c>
       <c r="J240" s="13" t="s">
+        <v>1386</v>
+      </c>
+      <c r="K240" s="13" t="s">
         <v>1387</v>
       </c>
-      <c r="K240" s="13" t="s">
+      <c r="L240" s="14">
+        <v>35835</v>
+      </c>
+      <c r="M240" s="23" t="s">
         <v>1388</v>
       </c>
-      <c r="L240" s="25">
-        <v>35835</v>
-      </c>
-      <c r="M240" s="23" t="s">
+      <c r="N240" s="5" t="s">
         <v>1389</v>
       </c>
-      <c r="N240" s="5" t="s">
-        <v>1390</v>
-      </c>
-      <c r="O240" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P240" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q240" s="26" t="s">
+      <c r="O240" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P240" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q240" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R240" s="5">
@@ -24800,13 +24787,13 @@
         <v>1</v>
       </c>
       <c r="D241" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E241" s="6" t="s">
         <v>1391</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="F241" s="21" t="s">
         <v>1392</v>
-      </c>
-      <c r="F241" s="21" t="s">
-        <v>1393</v>
       </c>
       <c r="G241" s="8" t="s">
         <v>28</v>
@@ -24818,27 +24805,27 @@
         <v>30</v>
       </c>
       <c r="J241" s="13" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K241" s="13" t="s">
         <v>1394</v>
       </c>
-      <c r="K241" s="13" t="s">
+      <c r="L241" s="14">
+        <v>36721</v>
+      </c>
+      <c r="M241" s="23" t="s">
         <v>1395</v>
       </c>
-      <c r="L241" s="25">
-        <v>36721</v>
-      </c>
-      <c r="M241" s="23" t="s">
+      <c r="N241" s="5" t="s">
         <v>1396</v>
       </c>
-      <c r="N241" s="5" t="s">
-        <v>1397</v>
-      </c>
-      <c r="O241" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="P241" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q241" s="26" t="s">
+      <c r="O241" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="P241" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q241" s="25" t="s">
         <v>33</v>
       </c>
       <c r="R241" s="5">

--- a/ImportContract.xlsx
+++ b/ImportContract.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3446" uniqueCount="1373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="1362">
   <si>
     <t>Կնքման Ամսաթիվ</t>
   </si>
@@ -3214,9 +3214,6 @@
     <t>Շահումյան փ. 98 բն</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08.01.1996</t>
-  </si>
-  <si>
     <t>marut96@mail.ru</t>
   </si>
   <si>
@@ -3706,7 +3703,7 @@
     <t>Նորաշեն թղմ. 26շ,  բն.43</t>
   </si>
   <si>
-    <t>13.06.1983</t>
+    <t>13/06/1983</t>
   </si>
   <si>
     <t>kastepanyan084@gmail.com</t>
@@ -3718,7 +3715,7 @@
     <t>Ա1991</t>
   </si>
   <si>
-    <t>22.11.1984</t>
+    <t>22/11/1984</t>
   </si>
   <si>
     <t>Ա1992</t>
@@ -3733,7 +3730,7 @@
     <t>Յոհաննես Լեփսիուսի փ. շ. 21 բն 18</t>
   </si>
   <si>
-    <t>14.02.1999</t>
+    <t>14/02/1999</t>
   </si>
   <si>
     <t>innulik.baziyan@mail.ru</t>
@@ -3754,7 +3751,7 @@
     <t>Շիրակի փ., 2-րդ նրբ, 13 բն.</t>
   </si>
   <si>
-    <t>21.03.2001</t>
+    <t>21/03/2001</t>
   </si>
   <si>
     <t>zaycevarm@mail.com</t>
@@ -3775,9 +3772,6 @@
     <t>Օրբելի եղբ. փ.4շ 13բն</t>
   </si>
   <si>
-    <t>06.12.1995</t>
-  </si>
-  <si>
     <t>armen.grigoryan1995@gmail.com</t>
   </si>
   <si>
@@ -3796,7 +3790,7 @@
     <t>Ֆրունզեի փ., շ.6 բն.25/2</t>
   </si>
   <si>
-    <t>25.07.1997</t>
+    <t>25/07/1997</t>
   </si>
   <si>
     <t>gev.manasyan1@gmail.com</t>
@@ -3817,7 +3811,7 @@
     <t>Տիգրան Մեծի փ. 53շ., բն. 76</t>
   </si>
   <si>
-    <t>20.05.1989</t>
+    <t>20/05/1989</t>
   </si>
   <si>
     <t>davojan.1989@mail.ru</t>
@@ -3841,9 +3835,6 @@
     <t>գ. Մալիշկա 14փ., 1 նրբ., տ. 1</t>
   </si>
   <si>
-    <t>03.10.2004</t>
-  </si>
-  <si>
     <t>karapetyan2004@gmail.com</t>
   </si>
   <si>
@@ -3856,9 +3847,6 @@
     <t>AT0485718</t>
   </si>
   <si>
-    <t>04.12.1979</t>
-  </si>
-  <si>
     <t>Ա2005</t>
   </si>
   <si>
@@ -3880,7 +3868,7 @@
     <t>Շիրակի 2շ, 27 բն.</t>
   </si>
   <si>
-    <t>30.04.1988</t>
+    <t>30/04/1988</t>
   </si>
   <si>
     <t>artsafaryab88@mail.ru</t>
@@ -3904,9 +3892,6 @@
     <t xml:space="preserve"> Պռոշյան փ 24շ  բն 21</t>
   </si>
   <si>
-    <t>07.12.2002</t>
-  </si>
-  <si>
     <t>robnazaryann02@icloud.com</t>
   </si>
   <si>
@@ -3928,9 +3913,6 @@
     <t>Դավիթաշեն  1 թաղամաս 4շ. 40բն.</t>
   </si>
   <si>
-    <t>04.05.1986</t>
-  </si>
-  <si>
     <t>vahag567@gmail.com</t>
   </si>
   <si>
@@ -3949,7 +3931,7 @@
     <t>Բրյուսովի 28/11</t>
   </si>
   <si>
-    <t>17.06.1980</t>
+    <t>17/06/1980</t>
   </si>
   <si>
     <t>sth_vm@hatnoil.com</t>
@@ -3970,9 +3952,6 @@
     <t>Լուկաշինի 2փ. տ.11</t>
   </si>
   <si>
-    <t>03.02.1984</t>
-  </si>
-  <si>
     <t>meline_8484@mail.ru</t>
   </si>
   <si>
@@ -3988,9 +3967,6 @@
     <t>Ն. Շենգավիթ, 12փ. 1 նրբ. տ 1/2</t>
   </si>
   <si>
-    <t>04.11.1985</t>
-  </si>
-  <si>
     <t>operator7773@gmail.com</t>
   </si>
   <si>
@@ -4012,7 +3988,7 @@
     <t>Արբաթ 2փ. տ.4</t>
   </si>
   <si>
-    <t>28.03.2006</t>
+    <t>28/03/2006</t>
   </si>
   <si>
     <t>hakobyanvach1561@gmail.com</t>
@@ -4033,7 +4009,7 @@
     <t>Սարի թաղ. 16փ. 22/1տ.</t>
   </si>
   <si>
-    <t>24.04.1993</t>
+    <t>24/04/1993</t>
   </si>
   <si>
     <t>hrantzalibekyan93@gmail.com</t>
@@ -4054,9 +4030,6 @@
     <t>Նորաշեն թղմ. շ47 բն 6</t>
   </si>
   <si>
-    <t>05.06.2003</t>
-  </si>
-  <si>
     <t>gor.sargsyan.2003@internet.ru</t>
   </si>
   <si>
@@ -4078,7 +4051,7 @@
     <t>Դավթաշեն Պարիս Հերունու փողոց, տ. 57</t>
   </si>
   <si>
-    <t>17.09.1996</t>
+    <t>17/09/1996</t>
   </si>
   <si>
     <t>petrosyanharut2001@mail.ru</t>
@@ -4105,9 +4078,6 @@
     <t>Կնունյանց փ. 14 տ.</t>
   </si>
   <si>
-    <t>10.04.2001</t>
-  </si>
-  <si>
     <t>77 83 81 33, 93 00 86 00</t>
   </si>
   <si>
@@ -4129,7 +4099,7 @@
     <t xml:space="preserve"> Վարդան Ստեփանյան փ. 2 փկղ տ. 2</t>
   </si>
   <si>
-    <t>17.12.2002</t>
+    <t>17/12/2002</t>
   </si>
   <si>
     <t>silvigrigoryan73@gmail.com</t>
@@ -4139,9 +4109,6 @@
   </si>
   <si>
     <t>Ա2025</t>
-  </si>
-  <si>
-    <t>02.03.2002</t>
   </si>
   <si>
     <t>Ա2028</t>
@@ -4181,7 +4148,7 @@
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4383,13 +4350,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -5498,8 +5458,8 @@
   <sheetPr/>
   <dimension ref="A1:Z230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B225" workbookViewId="0">
+      <selection activeCell="M229" sqref="M229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -19623,14 +19583,14 @@
       <c r="K177" s="13" t="s">
         <v>1054</v>
       </c>
-      <c r="L177" s="14" t="s">
+      <c r="L177" s="14">
+        <v>35278</v>
+      </c>
+      <c r="M177" s="25" t="s">
         <v>1055</v>
       </c>
-      <c r="M177" s="25" t="s">
+      <c r="N177" s="5" t="s">
         <v>1056</v>
-      </c>
-      <c r="N177" s="5" t="s">
-        <v>1057</v>
       </c>
       <c r="O177" s="24" t="s">
         <v>33</v>
@@ -19680,13 +19640,13 @@
         <v>1</v>
       </c>
       <c r="D178" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E178" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="E178" s="6" t="s">
+      <c r="F178" s="21" t="s">
         <v>1059</v>
-      </c>
-      <c r="F178" s="21" t="s">
-        <v>1060</v>
       </c>
       <c r="G178" s="8" t="s">
         <v>28</v>
@@ -19701,16 +19661,16 @@
         <v>31</v>
       </c>
       <c r="K178" s="13" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="L178" s="14">
         <v>36290</v>
       </c>
       <c r="M178" s="25" t="s">
+        <v>1061</v>
+      </c>
+      <c r="N178" s="5" t="s">
         <v>1062</v>
-      </c>
-      <c r="N178" s="5" t="s">
-        <v>1063</v>
       </c>
       <c r="O178" s="24" t="s">
         <v>33</v>
@@ -19760,13 +19720,13 @@
         <v>1</v>
       </c>
       <c r="D179" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E179" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="E179" s="6" t="s">
+      <c r="F179" s="21" t="s">
         <v>1065</v>
-      </c>
-      <c r="F179" s="21" t="s">
-        <v>1066</v>
       </c>
       <c r="G179" s="8" t="s">
         <v>28</v>
@@ -19781,16 +19741,16 @@
         <v>31</v>
       </c>
       <c r="K179" s="13" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="L179" s="14">
         <v>34083</v>
       </c>
       <c r="M179" s="25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N179" s="5" t="s">
         <v>1068</v>
-      </c>
-      <c r="N179" s="5" t="s">
-        <v>1069</v>
       </c>
       <c r="O179" s="24" t="s">
         <v>33</v>
@@ -19840,13 +19800,13 @@
         <v>1</v>
       </c>
       <c r="D180" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E180" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="E180" s="6" t="s">
+      <c r="F180" s="21" t="s">
         <v>1071</v>
-      </c>
-      <c r="F180" s="21" t="s">
-        <v>1072</v>
       </c>
       <c r="G180" s="8" t="s">
         <v>28</v>
@@ -19861,16 +19821,16 @@
         <v>31</v>
       </c>
       <c r="K180" s="13" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L180" s="14">
         <v>31638</v>
       </c>
       <c r="M180" s="25" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N180" s="5" t="s">
         <v>1074</v>
-      </c>
-      <c r="N180" s="5" t="s">
-        <v>1075</v>
       </c>
       <c r="O180" s="24" t="s">
         <v>33</v>
@@ -19920,13 +19880,13 @@
         <v>1</v>
       </c>
       <c r="D181" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E181" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="E181" s="6" t="s">
+      <c r="F181" s="21" t="s">
         <v>1077</v>
-      </c>
-      <c r="F181" s="21" t="s">
-        <v>1078</v>
       </c>
       <c r="G181" s="8" t="s">
         <v>28</v>
@@ -19941,16 +19901,16 @@
         <v>65</v>
       </c>
       <c r="K181" s="13" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L181" s="14">
         <v>33967</v>
       </c>
       <c r="M181" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="N181" s="5" t="s">
         <v>1080</v>
-      </c>
-      <c r="N181" s="5" t="s">
-        <v>1081</v>
       </c>
       <c r="O181" s="24" t="s">
         <v>33</v>
@@ -20000,13 +19960,13 @@
         <v>1</v>
       </c>
       <c r="D182" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E182" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="F182" s="21" t="s">
         <v>1083</v>
-      </c>
-      <c r="F182" s="21" t="s">
-        <v>1084</v>
       </c>
       <c r="G182" s="8" t="s">
         <v>28</v>
@@ -20021,16 +19981,16 @@
         <v>31</v>
       </c>
       <c r="K182" s="13" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="L182" s="14">
         <v>28141</v>
       </c>
       <c r="M182" s="25" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N182" s="5" t="s">
         <v>1086</v>
-      </c>
-      <c r="N182" s="5" t="s">
-        <v>1087</v>
       </c>
       <c r="O182" s="24" t="s">
         <v>33</v>
@@ -20080,13 +20040,13 @@
         <v>1</v>
       </c>
       <c r="D183" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E183" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="E183" s="6" t="s">
+      <c r="F183" s="21" t="s">
         <v>1089</v>
-      </c>
-      <c r="F183" s="21" t="s">
-        <v>1090</v>
       </c>
       <c r="G183" s="8" t="s">
         <v>28</v>
@@ -20101,16 +20061,16 @@
         <v>31</v>
       </c>
       <c r="K183" s="13" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L183" s="14">
         <v>37666</v>
       </c>
       <c r="M183" s="24" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N183" s="5" t="s">
         <v>1092</v>
-      </c>
-      <c r="N183" s="5" t="s">
-        <v>1093</v>
       </c>
       <c r="O183" s="24" t="s">
         <v>33</v>
@@ -20160,13 +20120,13 @@
         <v>1</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E184" s="6" t="s">
         <v>966</v>
       </c>
       <c r="F184" s="21" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G184" s="8" t="s">
         <v>28</v>
@@ -20240,13 +20200,13 @@
         <v>1</v>
       </c>
       <c r="D185" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E185" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="E185" s="6" t="s">
+      <c r="F185" s="21" t="s">
         <v>1097</v>
-      </c>
-      <c r="F185" s="21" t="s">
-        <v>1098</v>
       </c>
       <c r="G185" s="8" t="s">
         <v>28</v>
@@ -20261,16 +20221,16 @@
         <v>31</v>
       </c>
       <c r="K185" s="13" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="L185" s="14">
         <v>23406</v>
       </c>
       <c r="M185" s="24" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N185" s="5" t="s">
         <v>1100</v>
-      </c>
-      <c r="N185" s="5" t="s">
-        <v>1101</v>
       </c>
       <c r="O185" s="24" t="s">
         <v>33</v>
@@ -20320,13 +20280,13 @@
         <v>1</v>
       </c>
       <c r="D186" s="7" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E186" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="E186" s="6" t="s">
+      <c r="F186" s="21" t="s">
         <v>1103</v>
-      </c>
-      <c r="F186" s="21" t="s">
-        <v>1104</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>28</v>
@@ -20341,16 +20301,16 @@
         <v>31</v>
       </c>
       <c r="K186" s="13" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="L186" s="14">
         <v>26243</v>
       </c>
       <c r="M186" s="24" t="s">
+        <v>1105</v>
+      </c>
+      <c r="N186" s="5" t="s">
         <v>1106</v>
-      </c>
-      <c r="N186" s="5" t="s">
-        <v>1107</v>
       </c>
       <c r="O186" s="24" t="s">
         <v>33</v>
@@ -20400,19 +20360,19 @@
         <v>1</v>
       </c>
       <c r="D187" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E187" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="E187" s="6" t="s">
+      <c r="F187" s="21" t="s">
         <v>1109</v>
       </c>
-      <c r="F187" s="21" t="s">
+      <c r="G187" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H187" s="19" t="s">
         <v>1110</v>
-      </c>
-      <c r="G187" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H187" s="19" t="s">
-        <v>1111</v>
       </c>
       <c r="I187" s="12" t="s">
         <v>30</v>
@@ -20421,16 +20381,16 @@
         <v>31</v>
       </c>
       <c r="K187" s="13" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="L187" s="14">
         <v>36945</v>
       </c>
       <c r="M187" s="24" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N187" s="5" t="s">
         <v>1113</v>
-      </c>
-      <c r="N187" s="5" t="s">
-        <v>1114</v>
       </c>
       <c r="O187" s="24" t="s">
         <v>33</v>
@@ -20480,13 +20440,13 @@
         <v>1</v>
       </c>
       <c r="D188" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E188" s="6" t="s">
         <v>1115</v>
       </c>
-      <c r="E188" s="6" t="s">
+      <c r="F188" s="21" t="s">
         <v>1116</v>
-      </c>
-      <c r="F188" s="21" t="s">
-        <v>1117</v>
       </c>
       <c r="G188" s="8" t="s">
         <v>28</v>
@@ -20501,16 +20461,16 @@
         <v>31</v>
       </c>
       <c r="K188" s="13" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="L188" s="14">
         <v>33287</v>
       </c>
       <c r="M188" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="N188" s="5" t="s">
         <v>1119</v>
-      </c>
-      <c r="N188" s="5" t="s">
-        <v>1120</v>
       </c>
       <c r="O188" s="24" t="s">
         <v>33</v>
@@ -20560,13 +20520,13 @@
         <v>1</v>
       </c>
       <c r="D189" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="E189" s="6" t="s">
+      <c r="F189" s="21" t="s">
         <v>1122</v>
-      </c>
-      <c r="F189" s="21" t="s">
-        <v>1123</v>
       </c>
       <c r="G189" s="8" t="s">
         <v>28</v>
@@ -20581,16 +20541,16 @@
         <v>31</v>
       </c>
       <c r="K189" s="13" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="L189" s="14">
         <v>37033</v>
       </c>
       <c r="M189" s="24" t="s">
+        <v>1124</v>
+      </c>
+      <c r="N189" s="5" t="s">
         <v>1125</v>
-      </c>
-      <c r="N189" s="5" t="s">
-        <v>1126</v>
       </c>
       <c r="O189" s="24" t="s">
         <v>33</v>
@@ -20640,13 +20600,13 @@
         <v>1</v>
       </c>
       <c r="D190" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E190" s="6" t="s">
         <v>1127</v>
       </c>
-      <c r="E190" s="6" t="s">
+      <c r="F190" s="21" t="s">
         <v>1128</v>
-      </c>
-      <c r="F190" s="21" t="s">
-        <v>1129</v>
       </c>
       <c r="G190" s="8" t="s">
         <v>28</v>
@@ -20661,16 +20621,16 @@
         <v>31</v>
       </c>
       <c r="K190" s="13" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L190" s="14">
         <v>26911</v>
       </c>
       <c r="M190" s="24" t="s">
+        <v>1130</v>
+      </c>
+      <c r="N190" s="5" t="s">
         <v>1131</v>
-      </c>
-      <c r="N190" s="5" t="s">
-        <v>1132</v>
       </c>
       <c r="O190" s="24" t="s">
         <v>33</v>
@@ -20720,13 +20680,13 @@
         <v>1</v>
       </c>
       <c r="D191" s="7" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E191" s="6" t="s">
         <v>1133</v>
       </c>
-      <c r="E191" s="6" t="s">
+      <c r="F191" s="21" t="s">
         <v>1134</v>
-      </c>
-      <c r="F191" s="21" t="s">
-        <v>1135</v>
       </c>
       <c r="G191" s="8" t="s">
         <v>28</v>
@@ -20741,16 +20701,16 @@
         <v>31</v>
       </c>
       <c r="K191" s="13" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="L191" s="14">
         <v>33129</v>
       </c>
       <c r="M191" s="24" t="s">
+        <v>1136</v>
+      </c>
+      <c r="N191" s="5" t="s">
         <v>1137</v>
-      </c>
-      <c r="N191" s="5" t="s">
-        <v>1138</v>
       </c>
       <c r="O191" s="24" t="s">
         <v>33</v>
@@ -20800,7 +20760,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E192" s="6" t="s">
         <v>260</v>
@@ -20880,13 +20840,13 @@
         <v>1</v>
       </c>
       <c r="D193" s="7" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E193" s="6" t="s">
         <v>1140</v>
       </c>
-      <c r="E193" s="6" t="s">
+      <c r="F193" s="21" t="s">
         <v>1141</v>
-      </c>
-      <c r="F193" s="21" t="s">
-        <v>1142</v>
       </c>
       <c r="G193" s="8" t="s">
         <v>28</v>
@@ -20898,19 +20858,19 @@
         <v>30</v>
       </c>
       <c r="J193" s="13" t="s">
+        <v>1142</v>
+      </c>
+      <c r="K193" s="13" t="s">
         <v>1143</v>
-      </c>
-      <c r="K193" s="13" t="s">
-        <v>1144</v>
       </c>
       <c r="L193" s="14">
         <v>34570</v>
       </c>
       <c r="M193" s="24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="N193" s="5" t="s">
         <v>1145</v>
-      </c>
-      <c r="N193" s="5" t="s">
-        <v>1146</v>
       </c>
       <c r="O193" s="24" t="s">
         <v>33</v>
@@ -20960,13 +20920,13 @@
         <v>1</v>
       </c>
       <c r="D194" s="7" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E194" s="6" t="s">
         <v>1147</v>
       </c>
-      <c r="E194" s="6" t="s">
+      <c r="F194" s="21" t="s">
         <v>1148</v>
-      </c>
-      <c r="F194" s="21" t="s">
-        <v>1149</v>
       </c>
       <c r="G194" s="8" t="s">
         <v>28</v>
@@ -20981,16 +20941,16 @@
         <v>31</v>
       </c>
       <c r="K194" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="L194" s="14">
         <v>33679</v>
       </c>
       <c r="M194" s="24" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N194" s="5" t="s">
         <v>1151</v>
-      </c>
-      <c r="N194" s="5" t="s">
-        <v>1152</v>
       </c>
       <c r="O194" s="24" t="s">
         <v>33</v>
@@ -21040,13 +21000,13 @@
         <v>1</v>
       </c>
       <c r="D195" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E195" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="E195" s="6" t="s">
+      <c r="F195" s="21" t="s">
         <v>1154</v>
-      </c>
-      <c r="F195" s="21" t="s">
-        <v>1155</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>28</v>
@@ -21058,10 +21018,10 @@
         <v>30</v>
       </c>
       <c r="J195" s="13" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K195" s="13" t="s">
         <v>1156</v>
-      </c>
-      <c r="K195" s="13" t="s">
-        <v>1157</v>
       </c>
       <c r="L195" s="14">
         <v>32775</v>
@@ -21070,7 +21030,7 @@
         <v>28</v>
       </c>
       <c r="N195" s="5" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="O195" s="24" t="s">
         <v>33</v>
@@ -21120,13 +21080,13 @@
         <v>1</v>
       </c>
       <c r="D196" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E196" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="E196" s="6" t="s">
+      <c r="F196" s="21" t="s">
         <v>1160</v>
-      </c>
-      <c r="F196" s="21" t="s">
-        <v>1161</v>
       </c>
       <c r="G196" s="8" t="s">
         <v>28</v>
@@ -21141,16 +21101,16 @@
         <v>31</v>
       </c>
       <c r="K196" s="13" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="L196" s="14">
         <v>32937</v>
       </c>
       <c r="M196" s="24" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N196" s="5" t="s">
         <v>1163</v>
-      </c>
-      <c r="N196" s="5" t="s">
-        <v>1164</v>
       </c>
       <c r="O196" s="24" t="s">
         <v>33</v>
@@ -21200,13 +21160,13 @@
         <v>1</v>
       </c>
       <c r="D197" s="7" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="E197" s="6" t="s">
+      <c r="F197" s="21" t="s">
         <v>1166</v>
-      </c>
-      <c r="F197" s="21" t="s">
-        <v>1167</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>28</v>
@@ -21221,7 +21181,7 @@
         <v>31</v>
       </c>
       <c r="K197" s="13" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L197" s="14">
         <v>38576</v>
@@ -21230,7 +21190,7 @@
         <v>28</v>
       </c>
       <c r="N197" s="5" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O197" s="24" t="s">
         <v>33</v>
@@ -21280,13 +21240,13 @@
         <v>1</v>
       </c>
       <c r="D198" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E198" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="E198" s="6" t="s">
+      <c r="F198" s="21" t="s">
         <v>1171</v>
-      </c>
-      <c r="F198" s="21" t="s">
-        <v>1172</v>
       </c>
       <c r="G198" s="8" t="s">
         <v>28</v>
@@ -21301,16 +21261,16 @@
         <v>31</v>
       </c>
       <c r="K198" s="13" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="L198" s="14">
         <v>37290</v>
       </c>
       <c r="M198" s="24" t="s">
+        <v>1173</v>
+      </c>
+      <c r="N198" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="N198" s="5" t="s">
-        <v>1175</v>
       </c>
       <c r="O198" s="24" t="s">
         <v>33</v>
@@ -21360,13 +21320,13 @@
         <v>1</v>
       </c>
       <c r="D199" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>1176</v>
       </c>
-      <c r="E199" s="6" t="s">
+      <c r="F199" s="21" t="s">
         <v>1177</v>
-      </c>
-      <c r="F199" s="21" t="s">
-        <v>1178</v>
       </c>
       <c r="G199" s="8" t="s">
         <v>28</v>
@@ -21381,16 +21341,16 @@
         <v>31</v>
       </c>
       <c r="K199" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="L199" s="14">
         <v>37018</v>
       </c>
       <c r="M199" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="N199" s="5" t="s">
         <v>1180</v>
-      </c>
-      <c r="N199" s="5" t="s">
-        <v>1181</v>
       </c>
       <c r="O199" s="24" t="s">
         <v>33</v>
@@ -21440,7 +21400,7 @@
         <v>1</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="E200" s="6" t="s">
         <v>972</v>
@@ -21458,7 +21418,7 @@
         <v>30</v>
       </c>
       <c r="J200" s="13" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K200" s="13" t="s">
         <v>975</v>
@@ -21467,7 +21427,7 @@
         <v>29216</v>
       </c>
       <c r="M200" s="24" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="N200" s="5" t="s">
         <v>977</v>
@@ -21520,13 +21480,13 @@
         <v>1</v>
       </c>
       <c r="D201" s="7" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E201" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="E201" s="6" t="s">
+      <c r="F201" s="21" t="s">
         <v>1185</v>
-      </c>
-      <c r="F201" s="21" t="s">
-        <v>1186</v>
       </c>
       <c r="G201" s="8" t="s">
         <v>28</v>
@@ -21538,19 +21498,19 @@
         <v>30</v>
       </c>
       <c r="J201" s="13" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K201" s="13" t="s">
         <v>1187</v>
-      </c>
-      <c r="K201" s="13" t="s">
-        <v>1188</v>
       </c>
       <c r="L201" s="14">
         <v>37026</v>
       </c>
       <c r="M201" s="24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="N201" s="5" t="s">
         <v>1189</v>
-      </c>
-      <c r="N201" s="5" t="s">
-        <v>1190</v>
       </c>
       <c r="O201" s="24" t="s">
         <v>33</v>
@@ -21603,10 +21563,10 @@
         <v>281</v>
       </c>
       <c r="E202" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F202" s="21" t="s">
         <v>1191</v>
-      </c>
-      <c r="F202" s="21" t="s">
-        <v>1192</v>
       </c>
       <c r="G202" s="8" t="s">
         <v>28</v>
@@ -21621,16 +21581,16 @@
         <v>31</v>
       </c>
       <c r="K202" s="13" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="L202" s="14">
         <v>19485</v>
       </c>
       <c r="M202" s="24" t="s">
+        <v>1193</v>
+      </c>
+      <c r="N202" s="5" t="s">
         <v>1194</v>
-      </c>
-      <c r="N202" s="5" t="s">
-        <v>1195</v>
       </c>
       <c r="O202" s="24" t="s">
         <v>33</v>
@@ -21683,10 +21643,10 @@
         <v>283</v>
       </c>
       <c r="E203" s="6" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F203" s="21" t="s">
         <v>1196</v>
-      </c>
-      <c r="F203" s="21" t="s">
-        <v>1197</v>
       </c>
       <c r="G203" s="8" t="s">
         <v>28</v>
@@ -21701,16 +21661,16 @@
         <v>31</v>
       </c>
       <c r="K203" s="13" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="L203" s="14">
         <v>26597</v>
       </c>
       <c r="M203" s="24" t="s">
+        <v>1198</v>
+      </c>
+      <c r="N203" s="5" t="s">
         <v>1199</v>
-      </c>
-      <c r="N203" s="5" t="s">
-        <v>1200</v>
       </c>
       <c r="O203" s="24" t="s">
         <v>33</v>
@@ -21760,13 +21720,13 @@
         <v>1</v>
       </c>
       <c r="D204" s="7" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E204" s="6" t="s">
         <v>1201</v>
       </c>
-      <c r="E204" s="6" t="s">
+      <c r="F204" s="21" t="s">
         <v>1202</v>
-      </c>
-      <c r="F204" s="21" t="s">
-        <v>1203</v>
       </c>
       <c r="G204" s="8" t="s">
         <v>28</v>
@@ -21778,19 +21738,19 @@
         <v>30</v>
       </c>
       <c r="J204" s="13" t="s">
+        <v>1203</v>
+      </c>
+      <c r="K204" s="13" t="s">
         <v>1204</v>
-      </c>
-      <c r="K204" s="13" t="s">
-        <v>1205</v>
       </c>
       <c r="L204" s="23">
         <v>35835</v>
       </c>
       <c r="M204" s="24" t="s">
+        <v>1205</v>
+      </c>
+      <c r="N204" s="5" t="s">
         <v>1206</v>
-      </c>
-      <c r="N204" s="5" t="s">
-        <v>1207</v>
       </c>
       <c r="O204" s="24" t="s">
         <v>33</v>
@@ -21840,13 +21800,13 @@
         <v>1</v>
       </c>
       <c r="D205" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E205" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="E205" s="6" t="s">
+      <c r="F205" s="21" t="s">
         <v>1209</v>
-      </c>
-      <c r="F205" s="21" t="s">
-        <v>1210</v>
       </c>
       <c r="G205" s="8" t="s">
         <v>28</v>
@@ -21858,19 +21818,19 @@
         <v>30</v>
       </c>
       <c r="J205" s="13" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K205" s="13" t="s">
         <v>1211</v>
-      </c>
-      <c r="K205" s="13" t="s">
-        <v>1212</v>
       </c>
       <c r="L205" s="23">
         <v>36721</v>
       </c>
       <c r="M205" s="24" t="s">
+        <v>1212</v>
+      </c>
+      <c r="N205" s="5" t="s">
         <v>1213</v>
-      </c>
-      <c r="N205" s="5" t="s">
-        <v>1214</v>
       </c>
       <c r="O205" s="24" t="s">
         <v>33</v>
@@ -21920,13 +21880,13 @@
         <v>1</v>
       </c>
       <c r="D206" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E206" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="E206" s="6" t="s">
+      <c r="F206" s="21" t="s">
         <v>1216</v>
-      </c>
-      <c r="F206" s="21" t="s">
-        <v>1217</v>
       </c>
       <c r="G206" s="8" t="s">
         <v>28</v>
@@ -21941,16 +21901,16 @@
         <v>31</v>
       </c>
       <c r="K206" s="13" t="s">
+        <v>1217</v>
+      </c>
+      <c r="L206" s="23" t="s">
         <v>1218</v>
       </c>
-      <c r="L206" s="23" t="s">
+      <c r="M206" s="24" t="s">
         <v>1219</v>
       </c>
-      <c r="M206" s="24" t="s">
+      <c r="N206" s="5" t="s">
         <v>1220</v>
-      </c>
-      <c r="N206" s="5" t="s">
-        <v>1221</v>
       </c>
       <c r="O206" s="24" t="s">
         <v>33</v>
@@ -22000,7 +21960,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="7" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E207" s="6" t="s">
         <v>913</v>
@@ -22024,7 +21984,7 @@
         <v>915</v>
       </c>
       <c r="L207" s="23" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="M207" s="24" t="s">
         <v>916</v>
@@ -22080,13 +22040,13 @@
         <v>1</v>
       </c>
       <c r="D208" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E208" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="E208" s="6" t="s">
+      <c r="F208" s="21" t="s">
         <v>1225</v>
-      </c>
-      <c r="F208" s="21" t="s">
-        <v>1226</v>
       </c>
       <c r="G208" s="8" t="s">
         <v>28</v>
@@ -22101,16 +22061,16 @@
         <v>31</v>
       </c>
       <c r="K208" s="13" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L208" s="23" t="s">
         <v>1227</v>
       </c>
-      <c r="L208" s="23" t="s">
+      <c r="M208" s="24" t="s">
         <v>1228</v>
       </c>
-      <c r="M208" s="24" t="s">
+      <c r="N208" s="5" t="s">
         <v>1229</v>
-      </c>
-      <c r="N208" s="5" t="s">
-        <v>1230</v>
       </c>
       <c r="O208" s="24" t="s">
         <v>33</v>
@@ -22160,13 +22120,13 @@
         <v>1</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E209" s="6" t="s">
         <v>1231</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="F209" s="21" t="s">
         <v>1232</v>
-      </c>
-      <c r="F209" s="21" t="s">
-        <v>1233</v>
       </c>
       <c r="G209" s="8" t="s">
         <v>28</v>
@@ -22181,16 +22141,16 @@
         <v>31</v>
       </c>
       <c r="K209" s="13" t="s">
+        <v>1233</v>
+      </c>
+      <c r="L209" s="23" t="s">
         <v>1234</v>
       </c>
-      <c r="L209" s="23" t="s">
+      <c r="M209" s="24" t="s">
         <v>1235</v>
       </c>
-      <c r="M209" s="24" t="s">
+      <c r="N209" s="5" t="s">
         <v>1236</v>
-      </c>
-      <c r="N209" s="5" t="s">
-        <v>1237</v>
       </c>
       <c r="O209" s="24" t="s">
         <v>33</v>
@@ -22240,13 +22200,13 @@
         <v>1</v>
       </c>
       <c r="D210" s="7" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E210" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="E210" s="6" t="s">
+      <c r="F210" s="21" t="s">
         <v>1239</v>
-      </c>
-      <c r="F210" s="21" t="s">
-        <v>1240</v>
       </c>
       <c r="G210" s="8" t="s">
         <v>28</v>
@@ -22261,16 +22221,16 @@
         <v>31</v>
       </c>
       <c r="K210" s="13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="L210" s="23">
+        <v>34862</v>
+      </c>
+      <c r="M210" s="24" t="s">
         <v>1241</v>
       </c>
-      <c r="L210" s="23" t="s">
+      <c r="N210" s="5" t="s">
         <v>1242</v>
-      </c>
-      <c r="M210" s="24" t="s">
-        <v>1243</v>
-      </c>
-      <c r="N210" s="5" t="s">
-        <v>1244</v>
       </c>
       <c r="O210" s="24" t="s">
         <v>33</v>
@@ -22320,13 +22280,13 @@
         <v>1</v>
       </c>
       <c r="D211" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F211" s="21" t="s">
         <v>1245</v>
-      </c>
-      <c r="E211" s="6" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F211" s="21" t="s">
-        <v>1247</v>
       </c>
       <c r="G211" s="8" t="s">
         <v>28</v>
@@ -22341,16 +22301,16 @@
         <v>31</v>
       </c>
       <c r="K211" s="13" t="s">
+        <v>1246</v>
+      </c>
+      <c r="L211" s="23" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M211" s="24" t="s">
         <v>1248</v>
       </c>
-      <c r="L211" s="23" t="s">
+      <c r="N211" s="5" t="s">
         <v>1249</v>
-      </c>
-      <c r="M211" s="24" t="s">
-        <v>1250</v>
-      </c>
-      <c r="N211" s="5" t="s">
-        <v>1251</v>
       </c>
       <c r="O211" s="24" t="s">
         <v>33</v>
@@ -22400,13 +22360,13 @@
         <v>1</v>
       </c>
       <c r="D212" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E212" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F212" s="21" t="s">
         <v>1252</v>
-      </c>
-      <c r="E212" s="6" t="s">
-        <v>1253</v>
-      </c>
-      <c r="F212" s="21" t="s">
-        <v>1254</v>
       </c>
       <c r="G212" s="8" t="s">
         <v>28</v>
@@ -22421,16 +22381,16 @@
         <v>31</v>
       </c>
       <c r="K212" s="13" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L212" s="23" t="s">
+        <v>1254</v>
+      </c>
+      <c r="M212" s="24" t="s">
         <v>1255</v>
       </c>
-      <c r="L212" s="23" t="s">
+      <c r="N212" s="5" t="s">
         <v>1256</v>
-      </c>
-      <c r="M212" s="24" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N212" s="5" t="s">
-        <v>1258</v>
       </c>
       <c r="O212" s="24" t="s">
         <v>33</v>
@@ -22480,13 +22440,13 @@
         <v>1</v>
       </c>
       <c r="D213" s="7" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F213" s="21" t="s">
         <v>1259</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>1260</v>
-      </c>
-      <c r="F213" s="21" t="s">
-        <v>1261</v>
       </c>
       <c r="G213" s="8" t="s">
         <v>28</v>
@@ -22498,19 +22458,19 @@
         <v>30</v>
       </c>
       <c r="J213" s="13" t="s">
+        <v>1260</v>
+      </c>
+      <c r="K213" s="13" t="s">
+        <v>1261</v>
+      </c>
+      <c r="L213" s="23">
+        <v>38056</v>
+      </c>
+      <c r="M213" s="24" t="s">
         <v>1262</v>
       </c>
-      <c r="K213" s="13" t="s">
+      <c r="N213" s="5" t="s">
         <v>1263</v>
-      </c>
-      <c r="L213" s="23" t="s">
-        <v>1264</v>
-      </c>
-      <c r="M213" s="24" t="s">
-        <v>1265</v>
-      </c>
-      <c r="N213" s="5" t="s">
-        <v>1266</v>
       </c>
       <c r="O213" s="24" t="s">
         <v>33</v>
@@ -22560,13 +22520,13 @@
         <v>1</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="E214" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F214" s="21" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="G214" s="8" t="s">
         <v>28</v>
@@ -22583,8 +22543,8 @@
       <c r="K214" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L214" s="23" t="s">
-        <v>1269</v>
+      <c r="L214" s="23">
+        <v>28957</v>
       </c>
       <c r="M214" s="24" t="s">
         <v>96</v>
@@ -22640,13 +22600,13 @@
         <v>1</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="E215" s="6" t="s">
         <v>93</v>
       </c>
       <c r="F215" s="21" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>28</v>
@@ -22663,11 +22623,11 @@
       <c r="K215" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="L215" s="23" t="s">
-        <v>1269</v>
+      <c r="L215" s="23">
+        <v>28957</v>
       </c>
       <c r="M215" s="24" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="N215" s="5" t="s">
         <v>97</v>
@@ -22703,7 +22663,7 @@
         <v>45864</v>
       </c>
       <c r="Y215" s="7" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Z215" s="18" t="s">
         <v>36</v>
@@ -22720,13 +22680,13 @@
         <v>1</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="F216" s="21" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="G216" s="8" t="s">
         <v>28</v>
@@ -22741,16 +22701,16 @@
         <v>31</v>
       </c>
       <c r="K216" s="13" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="L216" s="23" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="M216" s="24" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="N216" s="5" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="O216" s="24" t="s">
         <v>33</v>
@@ -22800,13 +22760,13 @@
         <v>1</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="F217" s="21" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>28</v>
@@ -22818,19 +22778,19 @@
         <v>30</v>
       </c>
       <c r="J217" s="13" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="K217" s="13" t="s">
-        <v>1284</v>
-      </c>
-      <c r="L217" s="23" t="s">
-        <v>1285</v>
+        <v>1280</v>
+      </c>
+      <c r="L217" s="23">
+        <v>37449</v>
       </c>
       <c r="M217" s="24" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="N217" s="5" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="O217" s="24" t="s">
         <v>33</v>
@@ -22880,19 +22840,19 @@
         <v>1</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="F218" s="21" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="G218" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H218" s="19" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="I218" s="12" t="s">
         <v>30</v>
@@ -22901,16 +22861,16 @@
         <v>31</v>
       </c>
       <c r="K218" s="13" t="s">
-        <v>1292</v>
-      </c>
-      <c r="L218" s="23" t="s">
-        <v>1293</v>
+        <v>1287</v>
+      </c>
+      <c r="L218" s="23">
+        <v>31507</v>
       </c>
       <c r="M218" s="24" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="N218" s="5" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="O218" s="24" t="s">
         <v>33</v>
@@ -22960,13 +22920,13 @@
         <v>1</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="E219" s="6" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="F219" s="21" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>28</v>
@@ -22981,16 +22941,16 @@
         <v>31</v>
       </c>
       <c r="K219" s="13" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="L219" s="23" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="M219" s="24" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="N219" s="5" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="O219" s="24" t="s">
         <v>33</v>
@@ -23040,13 +23000,13 @@
         <v>1</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="F220" s="21" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>28</v>
@@ -23061,16 +23021,16 @@
         <v>31</v>
       </c>
       <c r="K220" s="13" t="s">
-        <v>1306</v>
-      </c>
-      <c r="L220" s="23" t="s">
-        <v>1307</v>
+        <v>1300</v>
+      </c>
+      <c r="L220" s="23">
+        <v>30743</v>
       </c>
       <c r="M220" s="24" t="s">
-        <v>1308</v>
+        <v>1301</v>
       </c>
       <c r="N220" s="5" t="s">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="O220" s="24" t="s">
         <v>33</v>
@@ -23123,10 +23083,10 @@
         <v>316</v>
       </c>
       <c r="E221" s="6" t="s">
-        <v>1310</v>
+        <v>1303</v>
       </c>
       <c r="F221" s="21" t="s">
-        <v>1311</v>
+        <v>1304</v>
       </c>
       <c r="G221" s="8" t="s">
         <v>28</v>
@@ -23141,16 +23101,16 @@
         <v>31</v>
       </c>
       <c r="K221" s="13" t="s">
-        <v>1312</v>
-      </c>
-      <c r="L221" s="23" t="s">
-        <v>1313</v>
+        <v>1305</v>
+      </c>
+      <c r="L221" s="23">
+        <v>31148</v>
       </c>
       <c r="M221" s="24" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="N221" s="5" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="O221" s="24" t="s">
         <v>33</v>
@@ -23200,13 +23160,13 @@
         <v>1</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="E222" s="6" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="F222" s="21" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="G222" s="8" t="s">
         <v>28</v>
@@ -23218,19 +23178,19 @@
         <v>30</v>
       </c>
       <c r="J222" s="13" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="K222" s="13" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="L222" s="23" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="M222" s="24" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="N222" s="5" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="O222" s="24" t="s">
         <v>33</v>
@@ -23280,13 +23240,13 @@
         <v>1</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="F223" s="21" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="G223" s="8" t="s">
         <v>28</v>
@@ -23301,16 +23261,16 @@
         <v>31</v>
       </c>
       <c r="K223" s="13" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="L223" s="23" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="M223" s="24" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="N223" s="5" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="O223" s="24" t="s">
         <v>33</v>
@@ -23360,13 +23320,13 @@
         <v>1</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="F224" s="21" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="G224" s="8" t="s">
         <v>28</v>
@@ -23381,16 +23341,16 @@
         <v>31</v>
       </c>
       <c r="K224" s="13" t="s">
-        <v>1334</v>
-      </c>
-      <c r="L224" s="23" t="s">
-        <v>1335</v>
+        <v>1326</v>
+      </c>
+      <c r="L224" s="23">
+        <v>37747</v>
       </c>
       <c r="M224" s="24" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="N224" s="5" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="O224" s="24" t="s">
         <v>33</v>
@@ -23440,19 +23400,19 @@
         <v>1</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="F225" s="21" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="G225" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H225" s="19" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="I225" s="12" t="s">
         <v>30</v>
@@ -23461,16 +23421,16 @@
         <v>31</v>
       </c>
       <c r="K225" s="13" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
       <c r="L225" s="23" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="M225" s="24" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="N225" s="5" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="O225" s="24" t="s">
         <v>33</v>
@@ -23520,37 +23480,37 @@
         <v>1</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="E226" s="6" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="F226" s="21" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="G226" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H226" s="19" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="I226" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J226" s="13" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="K226" s="13" t="s">
-        <v>1351</v>
-      </c>
-      <c r="L226" s="23" t="s">
-        <v>1352</v>
+        <v>1342</v>
+      </c>
+      <c r="L226" s="23">
+        <v>37168</v>
       </c>
       <c r="M226" s="24" t="s">
         <v>28</v>
       </c>
       <c r="N226" s="5" t="s">
-        <v>1353</v>
+        <v>1343</v>
       </c>
       <c r="O226" s="24" t="s">
         <v>33</v>
@@ -23600,37 +23560,37 @@
         <v>1</v>
       </c>
       <c r="D227" s="7" t="s">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="E227" s="6" t="s">
-        <v>1355</v>
+        <v>1345</v>
       </c>
       <c r="F227" s="21" t="s">
-        <v>1356</v>
+        <v>1346</v>
       </c>
       <c r="G227" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H227" s="19" t="s">
-        <v>1357</v>
+        <v>1347</v>
       </c>
       <c r="I227" s="12" t="s">
         <v>30</v>
       </c>
       <c r="J227" s="13" t="s">
-        <v>1358</v>
+        <v>1348</v>
       </c>
       <c r="K227" s="13" t="s">
-        <v>1359</v>
+        <v>1349</v>
       </c>
       <c r="L227" s="23" t="s">
-        <v>1360</v>
+        <v>1350</v>
       </c>
       <c r="M227" s="24" t="s">
-        <v>1361</v>
+        <v>1351</v>
       </c>
       <c r="N227" s="5" t="s">
-        <v>1362</v>
+        <v>1352</v>
       </c>
       <c r="O227" s="24" t="s">
         <v>33</v>
@@ -23680,13 +23640,13 @@
         <v>1</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>1363</v>
+        <v>1353</v>
       </c>
       <c r="E228" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F228" s="21" t="s">
         <v>1171</v>
-      </c>
-      <c r="F228" s="21" t="s">
-        <v>1172</v>
       </c>
       <c r="G228" s="8" t="s">
         <v>28</v>
@@ -23701,16 +23661,16 @@
         <v>31</v>
       </c>
       <c r="K228" s="13" t="s">
+        <v>1172</v>
+      </c>
+      <c r="L228" s="23">
+        <v>37290</v>
+      </c>
+      <c r="M228" s="24" t="s">
         <v>1173</v>
       </c>
-      <c r="L228" s="23" t="s">
-        <v>1364</v>
-      </c>
-      <c r="M228" s="24" t="s">
+      <c r="N228" s="5" t="s">
         <v>1174</v>
-      </c>
-      <c r="N228" s="5" t="s">
-        <v>1175</v>
       </c>
       <c r="O228" s="24" t="s">
         <v>33</v>
@@ -23760,13 +23720,13 @@
         <v>1</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="E229" s="6" t="s">
-        <v>1366</v>
+        <v>1355</v>
       </c>
       <c r="F229" s="21" t="s">
-        <v>1367</v>
+        <v>1356</v>
       </c>
       <c r="G229" s="8" t="s">
         <v>28</v>
@@ -23781,16 +23741,16 @@
         <v>31</v>
       </c>
       <c r="K229" s="13" t="s">
-        <v>1368</v>
+        <v>1357</v>
       </c>
       <c r="L229" s="23">
         <v>31346</v>
       </c>
       <c r="M229" s="24" t="s">
-        <v>1369</v>
+        <v>1358</v>
       </c>
       <c r="N229" s="5" t="s">
-        <v>1370</v>
+        <v>1359</v>
       </c>
       <c r="O229" s="24" t="s">
         <v>33</v>
@@ -23823,7 +23783,7 @@
         <v>45871</v>
       </c>
       <c r="Y229" s="7" t="s">
-        <v>1371</v>
+        <v>1360</v>
       </c>
       <c r="Z229" s="18" t="s">
         <v>36</v>
@@ -23840,7 +23800,7 @@
         <v>1</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>1372</v>
+        <v>1361</v>
       </c>
       <c r="E230" s="6" t="s">
         <v>114</v>

--- a/ImportContract.xlsx
+++ b/ImportContract.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3207" uniqueCount="1661">
   <si>
     <t>Կնքման Ամսաթիվ</t>
   </si>
@@ -3217,27 +3217,6 @@
     <t>94 47 08 71, 93 47 08 71</t>
   </si>
   <si>
-    <t>Ա2158</t>
-  </si>
-  <si>
-    <t>Դավիթ Գևորգյան Արայիկի</t>
-  </si>
-  <si>
-    <t>AL0634872</t>
-  </si>
-  <si>
-    <t>Արարատի մ., գ.Այնթապ, փ.6, տ.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  davgevorgyan646@mail.ru</t>
-  </si>
-  <si>
-    <t>44 64 54 64,93 34 13 00</t>
-  </si>
-  <si>
-    <t>վ,davgevorgyan646@mail.ru</t>
-  </si>
-  <si>
     <t>Ա2159</t>
   </si>
   <si>
@@ -4189,13 +4168,16 @@
     <t>Արին Բերդի 2 նրբ. 42․1 տ.</t>
   </si>
   <si>
+    <t>21.09.1991</t>
+  </si>
+  <si>
     <t>95 83 99 00․ 94 47 13 40</t>
   </si>
   <si>
     <t>4318 2900 1147 4471</t>
   </si>
   <si>
-    <t>14/09/2025</t>
+    <t>14.09.2025</t>
   </si>
   <si>
     <t>Ազատ Աղինյան Սամվելի</t>
@@ -5003,6 +4985,51 @@
   </si>
   <si>
     <t>95 79 71 70, 93 86 48 15</t>
+  </si>
+  <si>
+    <t>Հովհաննես Քոսյան Արթուրի</t>
+  </si>
+  <si>
+    <t>AP0470383</t>
+  </si>
+  <si>
+    <t>Ավան 4-րդ փող. 2-րդ նրբ 29տ</t>
+  </si>
+  <si>
+    <t>95 05 05 45, 99 35 16 68</t>
+  </si>
+  <si>
+    <t>5501 0400 1081 2090</t>
+  </si>
+  <si>
+    <t>Արուսյակ Մանուկյան Գրիգորի</t>
+  </si>
+  <si>
+    <t>02939031</t>
+  </si>
+  <si>
+    <t>էրեբունի փ.․ 28շ.․ 3 բն.</t>
+  </si>
+  <si>
+    <t>99 68 76 86, 41 32 99 99</t>
+  </si>
+  <si>
+    <t>4355 0539 2483 5340</t>
+  </si>
+  <si>
+    <t>Սուսաննա Բաղյան Կարապետի</t>
+  </si>
+  <si>
+    <t>011986254</t>
+  </si>
+  <si>
+    <t>Մինսկ 17 բն . 27</t>
+  </si>
+  <si>
+    <t>96 31 06 06, 91 91 90 20</t>
+  </si>
+  <si>
+    <t>4318 2900 9271 5487</t>
   </si>
 </sst>
 </file>
@@ -5018,7 +5045,7 @@
     <numFmt numFmtId="179" formatCode="0.0"/>
     <numFmt numFmtId="180" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5104,6 +5131,12 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -5258,6 +5291,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -5621,16 +5661,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5639,120 +5676,123 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5765,17 +5805,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5808,13 +5848,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5858,18 +5898,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6416,10 +6463,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z272"/>
+  <dimension ref="A1:Z274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" topLeftCell="C226" workbookViewId="0">
-      <selection activeCell="X226" sqref="X226"/>
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="G266" sqref="G266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6621,7 +6668,7 @@
       <c r="K3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="44" t="s">
+      <c r="L3" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M3" s="19"/>
@@ -6691,7 +6738,7 @@
       <c r="K4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="44" t="s">
+      <c r="L4" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M4" s="19"/>
@@ -6761,7 +6808,7 @@
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M5" s="19"/>
@@ -6831,7 +6878,7 @@
       <c r="K6" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M6" s="19"/>
@@ -6901,7 +6948,7 @@
       <c r="K7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L7" s="44" t="s">
+      <c r="L7" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M7" s="19"/>
@@ -6971,7 +7018,7 @@
       <c r="K8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="44" t="s">
+      <c r="L8" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="19"/>
@@ -7041,7 +7088,7 @@
       <c r="K9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="44" t="s">
+      <c r="L9" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M9" s="19"/>
@@ -7111,7 +7158,7 @@
       <c r="K10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="44" t="s">
+      <c r="L10" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M10" s="19"/>
@@ -7181,7 +7228,7 @@
       <c r="K11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L11" s="44" t="s">
+      <c r="L11" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M11" s="19"/>
@@ -7251,7 +7298,7 @@
       <c r="K12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M12" s="19"/>
@@ -7321,7 +7368,7 @@
       <c r="K13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="44" t="s">
+      <c r="L13" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M13" s="19"/>
@@ -7391,7 +7438,7 @@
       <c r="K14" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="44" t="s">
+      <c r="L14" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M14" s="19"/>
@@ -7461,7 +7508,7 @@
       <c r="K15" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M15" s="19"/>
@@ -7531,7 +7578,7 @@
       <c r="K16" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M16" s="19"/>
@@ -7599,7 +7646,7 @@
       <c r="K17" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L17" s="44" t="s">
+      <c r="L17" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M17" s="19"/>
@@ -7669,7 +7716,7 @@
       <c r="K18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L18" s="44" t="s">
+      <c r="L18" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M18" s="19"/>
@@ -7739,7 +7786,7 @@
       <c r="K19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L19" s="44" t="s">
+      <c r="L19" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="19"/>
@@ -7809,7 +7856,7 @@
       <c r="K20" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="44" t="s">
+      <c r="L20" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="19"/>
@@ -7879,7 +7926,7 @@
       <c r="K21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="44" t="s">
+      <c r="L21" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M21" s="19"/>
@@ -7949,7 +7996,7 @@
       <c r="K22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M22" s="19"/>
@@ -8019,7 +8066,7 @@
       <c r="K23" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M23" s="19"/>
@@ -8089,7 +8136,7 @@
       <c r="K24" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="L24" s="44" t="s">
+      <c r="L24" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M24" s="19"/>
@@ -8159,7 +8206,7 @@
       <c r="K25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="44" t="s">
+      <c r="L25" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M25" s="19"/>
@@ -8229,7 +8276,7 @@
       <c r="K26" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="L26" s="44" t="s">
+      <c r="L26" s="46" t="s">
         <v>32</v>
       </c>
       <c r="M26" s="19"/>
@@ -19710,7 +19757,7 @@
         <v>45738</v>
       </c>
       <c r="B186" s="8">
-        <v>17054</v>
+        <v>17055</v>
       </c>
       <c r="C186" s="6">
         <v>1</v>
@@ -19726,34 +19773,34 @@
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="10" t="s">
-        <v>968</v>
+        <v>57</v>
       </c>
       <c r="I186" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J186" s="17" t="s">
-        <v>30</v>
+        <v>1059</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="L186" s="26">
-        <v>31654</v>
+        <v>38318</v>
       </c>
       <c r="M186" s="19" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="N186" s="9" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
       <c r="Q186" s="8"/>
       <c r="R186" s="21">
-        <v>66000</v>
+        <v>45000</v>
       </c>
       <c r="S186" s="21">
-        <v>66000</v>
+        <v>45000</v>
       </c>
       <c r="T186" s="21">
         <v>0.4</v>
@@ -19771,7 +19818,7 @@
         <v>45891</v>
       </c>
       <c r="Y186" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="Z186" s="23" t="s">
         <v>92</v>
@@ -19782,7 +19829,7 @@
         <v>45738</v>
       </c>
       <c r="B187" s="8">
-        <v>17055</v>
+        <v>17056</v>
       </c>
       <c r="C187" s="6">
         <v>1</v>
@@ -19798,34 +19845,34 @@
       </c>
       <c r="G187" s="8"/>
       <c r="H187" s="10" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="I187" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J187" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K187" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="K187" s="9" t="s">
+      <c r="L187" s="26">
+        <v>38937</v>
+      </c>
+      <c r="M187" s="19" t="s">
         <v>1067</v>
       </c>
-      <c r="L187" s="26">
-        <v>38318</v>
-      </c>
-      <c r="M187" s="19" t="s">
-        <v>1068</v>
-      </c>
       <c r="N187" s="9" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="O187" s="8"/>
       <c r="P187" s="8"/>
       <c r="Q187" s="8"/>
       <c r="R187" s="21">
-        <v>45000</v>
+        <v>103000</v>
       </c>
       <c r="S187" s="21">
-        <v>45000</v>
+        <v>103000</v>
       </c>
       <c r="T187" s="21">
         <v>0.4</v>
@@ -19843,7 +19890,7 @@
         <v>45891</v>
       </c>
       <c r="Y187" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Z187" s="23" t="s">
         <v>92</v>
@@ -19851,53 +19898,53 @@
     </row>
     <row r="188" ht="75" spans="1:26">
       <c r="A188" s="4">
-        <v>45738</v>
+        <v>45740</v>
       </c>
       <c r="B188" s="8">
-        <v>17056</v>
+        <v>17058</v>
       </c>
       <c r="C188" s="6">
         <v>1</v>
       </c>
       <c r="D188" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F188" s="11" t="s">
         <v>1070</v>
-      </c>
-      <c r="E188" s="8" t="s">
-        <v>1071</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>1072</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="10" t="s">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="I188" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J188" s="17" t="s">
-        <v>30</v>
+        <v>1052</v>
       </c>
       <c r="K188" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L188" s="26">
+        <v>37179</v>
+      </c>
+      <c r="M188" s="19" t="s">
+        <v>1072</v>
+      </c>
+      <c r="N188" s="9" t="s">
         <v>1073</v>
-      </c>
-      <c r="L188" s="26">
-        <v>38937</v>
-      </c>
-      <c r="M188" s="19" t="s">
-        <v>1074</v>
-      </c>
-      <c r="N188" s="9" t="s">
-        <v>1069</v>
       </c>
       <c r="O188" s="8"/>
       <c r="P188" s="8"/>
       <c r="Q188" s="8"/>
       <c r="R188" s="21">
-        <v>103000</v>
+        <v>158000</v>
       </c>
       <c r="S188" s="21">
-        <v>103000</v>
+        <v>158000</v>
       </c>
       <c r="T188" s="21">
         <v>0.4</v>
@@ -19912,7 +19959,7 @@
         <v>153</v>
       </c>
       <c r="X188" s="4">
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="Y188" s="8" t="s">
         <v>1074</v>
@@ -19921,12 +19968,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="189" ht="75" spans="1:26">
+    <row r="189" ht="60" spans="1:26">
       <c r="A189" s="4">
-        <v>45740</v>
+        <v>45741</v>
       </c>
       <c r="B189" s="8">
-        <v>17058</v>
+        <v>17063</v>
       </c>
       <c r="C189" s="6">
         <v>1</v>
@@ -19942,19 +19989,19 @@
       </c>
       <c r="G189" s="8"/>
       <c r="H189" s="10" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="I189" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J189" s="17" t="s">
-        <v>1052</v>
+        <v>30</v>
       </c>
       <c r="K189" s="9" t="s">
         <v>1078</v>
       </c>
       <c r="L189" s="26">
-        <v>37179</v>
+        <v>30480</v>
       </c>
       <c r="M189" s="19" t="s">
         <v>1079</v>
@@ -19966,13 +20013,13 @@
       <c r="P189" s="8"/>
       <c r="Q189" s="8"/>
       <c r="R189" s="21">
-        <v>158000</v>
+        <v>58000</v>
       </c>
       <c r="S189" s="21">
-        <v>158000</v>
+        <v>58000</v>
       </c>
       <c r="T189" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U189" s="21">
         <v>0.13</v>
@@ -19984,37 +20031,37 @@
         <v>153</v>
       </c>
       <c r="X189" s="4">
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="Y189" s="8" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="Z189" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="190" ht="60" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="190" ht="75" spans="1:26">
       <c r="A190" s="4">
         <v>45741</v>
       </c>
       <c r="B190" s="8">
-        <v>17063</v>
+        <v>17065</v>
       </c>
       <c r="C190" s="6">
         <v>1</v>
       </c>
       <c r="D190" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F190" s="11" t="s">
         <v>1082</v>
-      </c>
-      <c r="E190" s="8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>1084</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="10" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="I190" s="16" t="s">
         <v>29</v>
@@ -20023,25 +20070,25 @@
         <v>30</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>1085</v>
+        <v>525</v>
       </c>
       <c r="L190" s="26">
-        <v>30480</v>
+        <v>33375</v>
       </c>
       <c r="M190" s="19" t="s">
-        <v>1086</v>
+        <v>526</v>
       </c>
       <c r="N190" s="9" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="O190" s="8"/>
       <c r="P190" s="8"/>
       <c r="Q190" s="8"/>
       <c r="R190" s="21">
-        <v>58000</v>
+        <v>77000</v>
       </c>
       <c r="S190" s="21">
-        <v>58000</v>
+        <v>77000</v>
       </c>
       <c r="T190" s="21">
         <v>0.18</v>
@@ -20059,7 +20106,7 @@
         <v>45894</v>
       </c>
       <c r="Y190" s="8" t="s">
-        <v>1086</v>
+        <v>526</v>
       </c>
       <c r="Z190" s="23" t="s">
         <v>34</v>
@@ -20070,53 +20117,53 @@
         <v>45741</v>
       </c>
       <c r="B191" s="8">
-        <v>17065</v>
+        <v>17066</v>
       </c>
       <c r="C191" s="6">
         <v>1</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="E191" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>1089</v>
+        <v>1085</v>
+      </c>
+      <c r="F191" s="11">
+        <v>14256861</v>
       </c>
       <c r="G191" s="8"/>
       <c r="H191" s="10" t="s">
-        <v>147</v>
+        <v>531</v>
       </c>
       <c r="I191" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J191" s="17" t="s">
-        <v>30</v>
+        <v>532</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="L191" s="26">
-        <v>33375</v>
+        <v>1086</v>
+      </c>
+      <c r="L191" s="11" t="s">
+        <v>1087</v>
       </c>
       <c r="M191" s="19" t="s">
-        <v>526</v>
+        <v>1088</v>
       </c>
       <c r="N191" s="9" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
       <c r="Q191" s="8"/>
       <c r="R191" s="21">
-        <v>77000</v>
+        <v>247000</v>
       </c>
       <c r="S191" s="21">
-        <v>77000</v>
+        <v>247000</v>
       </c>
       <c r="T191" s="21">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="U191" s="21">
         <v>0.13</v>
@@ -20131,10 +20178,10 @@
         <v>45894</v>
       </c>
       <c r="Y191" s="8" t="s">
-        <v>526</v>
+        <v>1088</v>
       </c>
       <c r="Z191" s="23" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" ht="75" spans="1:26">
@@ -20142,53 +20189,53 @@
         <v>45741</v>
       </c>
       <c r="B192" s="8">
-        <v>17066</v>
+        <v>17068</v>
       </c>
       <c r="C192" s="6">
         <v>1</v>
       </c>
       <c r="D192" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E192" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="E192" s="8" t="s">
+      <c r="F192" s="11" t="s">
         <v>1092</v>
-      </c>
-      <c r="F192" s="11">
-        <v>14256861</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="10" t="s">
-        <v>531</v>
+        <v>342</v>
       </c>
       <c r="I192" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J192" s="17" t="s">
-        <v>532</v>
+        <v>1093</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="L192" s="11" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M192" s="19" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="N192" s="9" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
       <c r="Q192" s="8"/>
       <c r="R192" s="21">
-        <v>247000</v>
+        <v>30000</v>
       </c>
       <c r="S192" s="21">
-        <v>247000</v>
+        <v>30000</v>
       </c>
       <c r="T192" s="21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U192" s="21">
         <v>0.13</v>
@@ -20203,46 +20250,46 @@
         <v>45894</v>
       </c>
       <c r="Y192" s="8" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="Z192" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="193" ht="75" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="193" ht="120" spans="1:26">
       <c r="A193" s="4">
         <v>45741</v>
       </c>
       <c r="B193" s="8">
-        <v>17068</v>
+        <v>17070</v>
       </c>
       <c r="C193" s="6">
         <v>1</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="G193" s="8"/>
       <c r="H193" s="10" t="s">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="I193" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J193" s="17" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L193" s="11" t="s">
         <v>1102</v>
+      </c>
+      <c r="L193" s="26">
+        <v>37925</v>
       </c>
       <c r="M193" s="19" t="s">
         <v>1103</v>
@@ -20254,13 +20301,13 @@
       <c r="P193" s="8"/>
       <c r="Q193" s="8"/>
       <c r="R193" s="21">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="S193" s="21">
-        <v>30000</v>
+        <v>80000</v>
       </c>
       <c r="T193" s="21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U193" s="21">
         <v>0.13</v>
@@ -20278,15 +20325,15 @@
         <v>1103</v>
       </c>
       <c r="Z193" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="194" ht="120" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="194" ht="75" spans="1:26">
       <c r="A194" s="4">
-        <v>45741</v>
+        <v>45742</v>
       </c>
       <c r="B194" s="8">
-        <v>17070</v>
+        <v>17072</v>
       </c>
       <c r="C194" s="6">
         <v>1</v>
@@ -20297,24 +20344,24 @@
       <c r="E194" s="8" t="s">
         <v>1106</v>
       </c>
-      <c r="F194" s="11" t="s">
-        <v>1107</v>
+      <c r="F194" s="11">
+        <v>13039060</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="10" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="I194" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J194" s="17" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K194" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="K194" s="9" t="s">
+      <c r="L194" s="11" t="s">
         <v>1109</v>
-      </c>
-      <c r="L194" s="26">
-        <v>37925</v>
       </c>
       <c r="M194" s="19" t="s">
         <v>1110</v>
@@ -20326,10 +20373,10 @@
       <c r="P194" s="8"/>
       <c r="Q194" s="8"/>
       <c r="R194" s="21">
-        <v>80000</v>
+        <v>41000</v>
       </c>
       <c r="S194" s="21">
-        <v>80000</v>
+        <v>41000</v>
       </c>
       <c r="T194" s="21">
         <v>0.4</v>
@@ -20344,7 +20391,7 @@
         <v>153</v>
       </c>
       <c r="X194" s="4">
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="Y194" s="8" t="s">
         <v>1110</v>
@@ -20353,12 +20400,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" ht="75" spans="1:26">
+    <row r="195" ht="90" spans="1:26">
       <c r="A195" s="4">
         <v>45742</v>
       </c>
       <c r="B195" s="8">
-        <v>17072</v>
+        <v>17073</v>
       </c>
       <c r="C195" s="6">
         <v>1</v>
@@ -20369,24 +20416,24 @@
       <c r="E195" s="8" t="s">
         <v>1113</v>
       </c>
-      <c r="F195" s="11">
-        <v>13039060</v>
+      <c r="F195" s="11" t="s">
+        <v>1114</v>
       </c>
       <c r="G195" s="8"/>
       <c r="H195" s="10" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="I195" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J195" s="17" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>1115</v>
-      </c>
-      <c r="L195" s="11" t="s">
         <v>1116</v>
+      </c>
+      <c r="L195" s="26">
+        <v>34272</v>
       </c>
       <c r="M195" s="19" t="s">
         <v>1117</v>
@@ -20398,13 +20445,13 @@
       <c r="P195" s="8"/>
       <c r="Q195" s="8"/>
       <c r="R195" s="21">
-        <v>41000</v>
+        <v>80000</v>
       </c>
       <c r="S195" s="21">
-        <v>41000</v>
+        <v>80000</v>
       </c>
       <c r="T195" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U195" s="21">
         <v>0.13</v>
@@ -20422,15 +20469,15 @@
         <v>1117</v>
       </c>
       <c r="Z195" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="196" ht="90" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="196" ht="75" spans="1:26">
       <c r="A196" s="4">
         <v>45742</v>
       </c>
       <c r="B196" s="8">
-        <v>17073</v>
+        <v>17074</v>
       </c>
       <c r="C196" s="6">
         <v>1</v>
@@ -20446,7 +20493,7 @@
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="10" t="s">
-        <v>162</v>
+        <v>342</v>
       </c>
       <c r="I196" s="16" t="s">
         <v>29</v>
@@ -20458,7 +20505,7 @@
         <v>1123</v>
       </c>
       <c r="L196" s="26">
-        <v>34272</v>
+        <v>33592</v>
       </c>
       <c r="M196" s="19" t="s">
         <v>1124</v>
@@ -20470,13 +20517,13 @@
       <c r="P196" s="8"/>
       <c r="Q196" s="8"/>
       <c r="R196" s="21">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="S196" s="21">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="T196" s="21">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="U196" s="21">
         <v>0.13</v>
@@ -20494,15 +20541,15 @@
         <v>1124</v>
       </c>
       <c r="Z196" s="23" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" ht="75" spans="1:26">
       <c r="A197" s="4">
-        <v>45742</v>
+        <v>45743</v>
       </c>
       <c r="B197" s="8">
-        <v>17074</v>
+        <v>17077</v>
       </c>
       <c r="C197" s="6">
         <v>1</v>
@@ -20511,44 +20558,44 @@
         <v>1126</v>
       </c>
       <c r="E197" s="8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F197" s="11" t="s">
-        <v>1128</v>
+        <v>901</v>
+      </c>
+      <c r="F197" s="11">
+        <v>2956985</v>
       </c>
       <c r="G197" s="8"/>
       <c r="H197" s="10" t="s">
-        <v>342</v>
+        <v>130</v>
       </c>
       <c r="I197" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J197" s="17" t="s">
-        <v>1129</v>
+        <v>595</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>1130</v>
-      </c>
-      <c r="L197" s="26">
-        <v>33592</v>
+        <v>903</v>
+      </c>
+      <c r="L197" s="11" t="s">
+        <v>1127</v>
       </c>
       <c r="M197" s="19" t="s">
-        <v>1131</v>
+        <v>904</v>
       </c>
       <c r="N197" s="9" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
       <c r="Q197" s="8"/>
       <c r="R197" s="21">
-        <v>60000</v>
+        <v>53000</v>
       </c>
       <c r="S197" s="21">
-        <v>60000</v>
+        <v>53000</v>
       </c>
       <c r="T197" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U197" s="21">
         <v>0.13</v>
@@ -20560,67 +20607,67 @@
         <v>153</v>
       </c>
       <c r="X197" s="4">
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="Y197" s="8" t="s">
-        <v>1131</v>
+        <v>906</v>
       </c>
       <c r="Z197" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="198" ht="75" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" ht="60" spans="1:26">
       <c r="A198" s="4">
         <v>45743</v>
       </c>
       <c r="B198" s="8">
-        <v>17077</v>
+        <v>17078</v>
       </c>
       <c r="C198" s="6">
         <v>1</v>
       </c>
-      <c r="D198" s="7" t="s">
-        <v>1133</v>
+      <c r="D198" s="7">
+        <v>437</v>
       </c>
       <c r="E198" s="8" t="s">
-        <v>901</v>
-      </c>
-      <c r="F198" s="11">
-        <v>2956985</v>
+        <v>1129</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>1130</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="10" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I198" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J198" s="17" t="s">
-        <v>595</v>
+        <v>1115</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>903</v>
+        <v>1131</v>
       </c>
       <c r="L198" s="11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="M198" s="19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="N198" s="9" t="s">
         <v>1134</v>
-      </c>
-      <c r="M198" s="19" t="s">
-        <v>904</v>
-      </c>
-      <c r="N198" s="9" t="s">
-        <v>1135</v>
       </c>
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
       <c r="Q198" s="8"/>
       <c r="R198" s="21">
-        <v>53000</v>
+        <v>17000</v>
       </c>
       <c r="S198" s="21">
-        <v>53000</v>
+        <v>17000</v>
       </c>
       <c r="T198" s="21">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="U198" s="21">
         <v>0.13</v>
@@ -20635,24 +20682,24 @@
         <v>45896</v>
       </c>
       <c r="Y198" s="8" t="s">
-        <v>906</v>
+        <v>1133</v>
       </c>
       <c r="Z198" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="199" ht="60" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="199" ht="90" spans="1:26">
       <c r="A199" s="4">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="B199" s="8">
-        <v>17078</v>
+        <v>17081</v>
       </c>
       <c r="C199" s="6">
         <v>1</v>
       </c>
-      <c r="D199" s="7">
-        <v>437</v>
+      <c r="D199" s="7" t="s">
+        <v>1135</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>1136</v>
@@ -20662,37 +20709,37 @@
       </c>
       <c r="G199" s="8"/>
       <c r="H199" s="10" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="I199" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J199" s="17" t="s">
-        <v>1122</v>
+        <v>1115</v>
       </c>
       <c r="K199" s="9" t="s">
         <v>1138</v>
       </c>
-      <c r="L199" s="11" t="s">
+      <c r="L199" s="26">
+        <v>36509</v>
+      </c>
+      <c r="M199" s="19" t="s">
         <v>1139</v>
       </c>
-      <c r="M199" s="19" t="s">
+      <c r="N199" s="9" t="s">
         <v>1140</v>
-      </c>
-      <c r="N199" s="9" t="s">
-        <v>1141</v>
       </c>
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
       <c r="Q199" s="8"/>
       <c r="R199" s="21">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="S199" s="21">
-        <v>17000</v>
+        <v>100000</v>
       </c>
       <c r="T199" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U199" s="21">
         <v>0.13</v>
@@ -20704,67 +20751,67 @@
         <v>153</v>
       </c>
       <c r="X199" s="4">
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="Y199" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="Z199" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="200" ht="90" spans="1:26">
+    <row r="200" ht="75" spans="1:26">
       <c r="A200" s="4">
-        <v>45744</v>
+        <v>45745</v>
       </c>
       <c r="B200" s="8">
-        <v>17081</v>
+        <v>17085</v>
       </c>
       <c r="C200" s="6">
         <v>1</v>
       </c>
       <c r="D200" s="7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E200" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="E200" s="8" t="s">
+      <c r="F200" s="11" t="s">
         <v>1143</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>1144</v>
       </c>
       <c r="G200" s="8"/>
       <c r="H200" s="10" t="s">
-        <v>261</v>
+        <v>130</v>
       </c>
       <c r="I200" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J200" s="17" t="s">
-        <v>1122</v>
+        <v>1144</v>
       </c>
       <c r="K200" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="L200" s="26">
-        <v>36509</v>
+      <c r="L200" s="11" t="s">
+        <v>1146</v>
       </c>
       <c r="M200" s="19" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="N200" s="9" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
       <c r="Q200" s="8"/>
       <c r="R200" s="21">
-        <v>100000</v>
+        <v>31000</v>
       </c>
       <c r="S200" s="21">
-        <v>100000</v>
+        <v>31000</v>
       </c>
       <c r="T200" s="21">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="U200" s="21">
         <v>0.13</v>
@@ -20776,64 +20823,64 @@
         <v>153</v>
       </c>
       <c r="X200" s="4">
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="Y200" s="8" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="Z200" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="201" ht="75" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" ht="60" spans="1:26">
       <c r="A201" s="4">
         <v>45745</v>
       </c>
       <c r="B201" s="8">
-        <v>17085</v>
+        <v>17086</v>
       </c>
       <c r="C201" s="6">
         <v>1</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="10" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I201" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J201" s="17" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="K201" s="9" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="L201" s="11" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="M201" s="19" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="N201" s="9" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
       <c r="Q201" s="8"/>
       <c r="R201" s="21">
-        <v>31000</v>
+        <v>80000</v>
       </c>
       <c r="S201" s="21">
-        <v>31000</v>
+        <v>80000</v>
       </c>
       <c r="T201" s="21">
         <v>0.4</v>
@@ -20851,30 +20898,30 @@
         <v>45898</v>
       </c>
       <c r="Y201" s="8" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="Z201" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="202" ht="60" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="202" ht="75" spans="1:26">
       <c r="A202" s="4">
         <v>45745</v>
       </c>
       <c r="B202" s="8">
-        <v>17086</v>
+        <v>17087</v>
       </c>
       <c r="C202" s="6">
         <v>1</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="10" t="s">
@@ -20884,13 +20931,13 @@
         <v>29</v>
       </c>
       <c r="J202" s="17" t="s">
-        <v>1160</v>
+        <v>372</v>
       </c>
       <c r="K202" s="9" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L202" s="11" t="s">
         <v>1162</v>
+      </c>
+      <c r="L202" s="26">
+        <v>30366</v>
       </c>
       <c r="M202" s="19" t="s">
         <v>1163</v>
@@ -20902,10 +20949,10 @@
       <c r="P202" s="8"/>
       <c r="Q202" s="8"/>
       <c r="R202" s="21">
-        <v>80000</v>
+        <v>33000</v>
       </c>
       <c r="S202" s="21">
-        <v>80000</v>
+        <v>33000</v>
       </c>
       <c r="T202" s="21">
         <v>0.4</v>
@@ -20931,10 +20978,10 @@
     </row>
     <row r="203" ht="75" spans="1:26">
       <c r="A203" s="4">
-        <v>45745</v>
+        <v>45746</v>
       </c>
       <c r="B203" s="8">
-        <v>17087</v>
+        <v>17090</v>
       </c>
       <c r="C203" s="6">
         <v>1</v>
@@ -20950,19 +20997,19 @@
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="10" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="I203" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J203" s="17" t="s">
-        <v>372</v>
+        <v>595</v>
       </c>
       <c r="K203" s="9" t="s">
         <v>1169</v>
       </c>
       <c r="L203" s="26">
-        <v>30366</v>
+        <v>35995</v>
       </c>
       <c r="M203" s="19" t="s">
         <v>1170</v>
@@ -20974,13 +21021,13 @@
       <c r="P203" s="8"/>
       <c r="Q203" s="8"/>
       <c r="R203" s="21">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="S203" s="21">
-        <v>33000</v>
+        <v>75000</v>
       </c>
       <c r="T203" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U203" s="21">
         <v>0.13</v>
@@ -20992,37 +21039,37 @@
         <v>153</v>
       </c>
       <c r="X203" s="4">
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="Y203" s="8" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="Z203" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="204" ht="75" spans="1:26">
+    <row r="204" ht="120" spans="1:26">
       <c r="A204" s="4">
         <v>45746</v>
       </c>
       <c r="B204" s="8">
-        <v>17090</v>
+        <v>17091</v>
       </c>
       <c r="C204" s="6">
         <v>1</v>
       </c>
       <c r="D204" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F204" s="11" t="s">
         <v>1173</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>1175</v>
       </c>
       <c r="G204" s="8"/>
       <c r="H204" s="10" t="s">
-        <v>364</v>
+        <v>62</v>
       </c>
       <c r="I204" s="16" t="s">
         <v>29</v>
@@ -21031,28 +21078,28 @@
         <v>595</v>
       </c>
       <c r="K204" s="9" t="s">
-        <v>1176</v>
-      </c>
-      <c r="L204" s="26">
-        <v>35995</v>
+        <v>445</v>
+      </c>
+      <c r="L204" s="11" t="s">
+        <v>1174</v>
       </c>
       <c r="M204" s="19" t="s">
-        <v>1177</v>
+        <v>446</v>
       </c>
       <c r="N204" s="9" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="O204" s="8"/>
       <c r="P204" s="8"/>
       <c r="Q204" s="8"/>
       <c r="R204" s="21">
-        <v>75000</v>
+        <v>42000</v>
       </c>
       <c r="S204" s="21">
-        <v>75000</v>
+        <v>42000</v>
       </c>
       <c r="T204" s="21">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="U204" s="21">
         <v>0.13</v>
@@ -21067,49 +21114,49 @@
         <v>45899</v>
       </c>
       <c r="Y204" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z204" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" ht="75" spans="1:26">
+      <c r="A205" s="4">
+        <v>45747</v>
+      </c>
+      <c r="B205" s="8">
+        <v>17093</v>
+      </c>
+      <c r="C205" s="6">
+        <v>1</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E205" s="8" t="s">
         <v>1177</v>
       </c>
-      <c r="Z204" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="205" ht="120" spans="1:26">
-      <c r="A205" s="4">
-        <v>45746</v>
-      </c>
-      <c r="B205" s="8">
-        <v>17091</v>
-      </c>
-      <c r="C205" s="6">
-        <v>1</v>
-      </c>
-      <c r="D205" s="7" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E205" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="F205" s="11" t="s">
-        <v>1180</v>
+      <c r="F205" s="11">
+        <v>10710440</v>
       </c>
       <c r="G205" s="8"/>
       <c r="H205" s="10" t="s">
-        <v>62</v>
+        <v>371</v>
       </c>
       <c r="I205" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J205" s="17" t="s">
-        <v>595</v>
+        <v>1178</v>
       </c>
       <c r="K205" s="9" t="s">
-        <v>445</v>
+        <v>1179</v>
       </c>
       <c r="L205" s="11" t="s">
+        <v>1180</v>
+      </c>
+      <c r="M205" s="19" t="s">
         <v>1181</v>
-      </c>
-      <c r="M205" s="19" t="s">
-        <v>446</v>
       </c>
       <c r="N205" s="9" t="s">
         <v>1182</v>
@@ -21118,13 +21165,13 @@
       <c r="P205" s="8"/>
       <c r="Q205" s="8"/>
       <c r="R205" s="21">
-        <v>42000</v>
+        <v>186000</v>
       </c>
       <c r="S205" s="21">
-        <v>42000</v>
+        <v>186000</v>
       </c>
       <c r="T205" s="21">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U205" s="21">
         <v>0.13</v>
@@ -21133,13 +21180,13 @@
         <v>2.5</v>
       </c>
       <c r="W205" s="21">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="X205" s="4">
         <v>45899</v>
       </c>
       <c r="Y205" s="8" t="s">
-        <v>448</v>
+        <v>1181</v>
       </c>
       <c r="Z205" s="23" t="s">
         <v>34</v>
@@ -21150,7 +21197,7 @@
         <v>45747</v>
       </c>
       <c r="B206" s="8">
-        <v>17093</v>
+        <v>17094</v>
       </c>
       <c r="C206" s="6">
         <v>1</v>
@@ -21162,38 +21209,38 @@
         <v>1184</v>
       </c>
       <c r="F206" s="11">
-        <v>10710440</v>
+        <v>2411403</v>
       </c>
       <c r="G206" s="8"/>
       <c r="H206" s="10" t="s">
-        <v>371</v>
+        <v>62</v>
       </c>
       <c r="I206" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J206" s="17" t="s">
+        <v>452</v>
+      </c>
+      <c r="K206" s="9" t="s">
         <v>1185</v>
       </c>
-      <c r="K206" s="9" t="s">
+      <c r="L206" s="11" t="s">
         <v>1186</v>
       </c>
-      <c r="L206" s="11" t="s">
+      <c r="M206" s="19" t="s">
         <v>1187</v>
       </c>
-      <c r="M206" s="19" t="s">
+      <c r="N206" s="9" t="s">
         <v>1188</v>
-      </c>
-      <c r="N206" s="9" t="s">
-        <v>1189</v>
       </c>
       <c r="O206" s="8"/>
       <c r="P206" s="8"/>
       <c r="Q206" s="8"/>
       <c r="R206" s="21">
-        <v>186000</v>
+        <v>31000</v>
       </c>
       <c r="S206" s="21">
-        <v>186000</v>
+        <v>31000</v>
       </c>
       <c r="T206" s="21">
         <v>0.4</v>
@@ -21211,40 +21258,40 @@
         <v>45899</v>
       </c>
       <c r="Y206" s="8" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="Z206" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="207" ht="75" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" ht="60" spans="1:26">
       <c r="A207" s="4">
         <v>45747</v>
       </c>
       <c r="B207" s="8">
-        <v>17094</v>
+        <v>17095</v>
       </c>
       <c r="C207" s="6">
         <v>1</v>
       </c>
       <c r="D207" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E207" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="E207" s="8" t="s">
-        <v>1191</v>
-      </c>
       <c r="F207" s="11">
-        <v>2411403</v>
+        <v>9916529</v>
       </c>
       <c r="G207" s="8"/>
       <c r="H207" s="10" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I207" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J207" s="17" t="s">
-        <v>452</v>
+        <v>1191</v>
       </c>
       <c r="K207" s="9" t="s">
         <v>1192</v>
@@ -21262,10 +21309,10 @@
       <c r="P207" s="8"/>
       <c r="Q207" s="8"/>
       <c r="R207" s="21">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="S207" s="21">
-        <v>31000</v>
+        <v>40000</v>
       </c>
       <c r="T207" s="21">
         <v>0.4</v>
@@ -21289,12 +21336,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="208" ht="60" spans="1:26">
+    <row r="208" ht="90" spans="1:26">
       <c r="A208" s="4">
-        <v>45747</v>
+        <v>45748</v>
       </c>
       <c r="B208" s="8">
-        <v>17095</v>
+        <v>17096</v>
       </c>
       <c r="C208" s="6">
         <v>1</v>
@@ -21305,39 +21352,39 @@
       <c r="E208" s="8" t="s">
         <v>1197</v>
       </c>
-      <c r="F208" s="11">
-        <v>9916529</v>
+      <c r="F208" s="11" t="s">
+        <v>1198</v>
       </c>
       <c r="G208" s="8"/>
       <c r="H208" s="10" t="s">
-        <v>44</v>
+        <v>872</v>
       </c>
       <c r="I208" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J208" s="17" t="s">
-        <v>1198</v>
+        <v>30</v>
       </c>
       <c r="K208" s="9" t="s">
         <v>1199</v>
       </c>
-      <c r="L208" s="11" t="s">
+      <c r="L208" s="26">
+        <v>35474</v>
+      </c>
+      <c r="M208" s="19" t="s">
         <v>1200</v>
       </c>
-      <c r="M208" s="19" t="s">
+      <c r="N208" s="9" t="s">
         <v>1201</v>
-      </c>
-      <c r="N208" s="9" t="s">
-        <v>1202</v>
       </c>
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
       <c r="Q208" s="8"/>
       <c r="R208" s="21">
-        <v>40000</v>
+        <v>94000</v>
       </c>
       <c r="S208" s="21">
-        <v>40000</v>
+        <v>94000</v>
       </c>
       <c r="T208" s="21">
         <v>0.4</v>
@@ -21349,70 +21396,70 @@
         <v>2.5</v>
       </c>
       <c r="W208" s="21">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="X208" s="4">
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="Y208" s="8" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="Z208" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="209" ht="90" spans="1:26">
+    <row r="209" ht="105" spans="1:26">
       <c r="A209" s="4">
-        <v>45748</v>
+        <v>45750</v>
       </c>
       <c r="B209" s="8">
-        <v>17096</v>
+        <v>17102</v>
       </c>
       <c r="C209" s="6">
         <v>1</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E209" s="8" t="s">
         <v>1203</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="F209" s="13" t="s">
         <v>1204</v>
-      </c>
-      <c r="F209" s="11" t="s">
-        <v>1205</v>
       </c>
       <c r="G209" s="8"/>
       <c r="H209" s="10" t="s">
-        <v>872</v>
+        <v>531</v>
       </c>
       <c r="I209" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J209" s="17" t="s">
-        <v>30</v>
+        <v>1205</v>
       </c>
       <c r="K209" s="9" t="s">
         <v>1206</v>
       </c>
-      <c r="L209" s="26">
-        <v>35474</v>
+      <c r="L209" s="11" t="s">
+        <v>1207</v>
       </c>
       <c r="M209" s="19" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="N209" s="9" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
       <c r="Q209" s="8"/>
       <c r="R209" s="21">
-        <v>94000</v>
+        <v>130000</v>
       </c>
       <c r="S209" s="21">
-        <v>94000</v>
+        <v>130000</v>
       </c>
       <c r="T209" s="21">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="U209" s="21">
         <v>0.13</v>
@@ -21424,67 +21471,67 @@
         <v>153</v>
       </c>
       <c r="X209" s="4">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="Y209" s="8" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="Z209" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="210" ht="105" spans="1:26">
+    <row r="210" ht="60" spans="1:26">
       <c r="A210" s="4">
         <v>45750</v>
       </c>
       <c r="B210" s="8">
-        <v>17102</v>
+        <v>17104</v>
       </c>
       <c r="C210" s="6">
         <v>1</v>
       </c>
       <c r="D210" s="7" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="G210" s="8"/>
       <c r="H210" s="10" t="s">
-        <v>531</v>
+        <v>62</v>
       </c>
       <c r="I210" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J210" s="17" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="K210" s="9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="L210" s="11" t="s">
-        <v>1214</v>
+        <v>1215</v>
+      </c>
+      <c r="L210" s="26">
+        <v>31546</v>
       </c>
       <c r="M210" s="19" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="N210" s="9" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
       <c r="Q210" s="8"/>
       <c r="R210" s="21">
-        <v>130000</v>
+        <v>172000</v>
       </c>
       <c r="S210" s="21">
-        <v>130000</v>
+        <v>172000</v>
       </c>
       <c r="T210" s="21">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="U210" s="21">
         <v>0.13</v>
@@ -21499,18 +21546,18 @@
         <v>45903</v>
       </c>
       <c r="Y210" s="8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="Z210" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="211" ht="60" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" ht="75" spans="1:26">
       <c r="A211" s="4">
         <v>45750</v>
       </c>
       <c r="B211" s="8">
-        <v>17104</v>
+        <v>17105</v>
       </c>
       <c r="C211" s="6">
         <v>1</v>
@@ -21537,8 +21584,8 @@
       <c r="K211" s="9" t="s">
         <v>1222</v>
       </c>
-      <c r="L211" s="26">
-        <v>31546</v>
+      <c r="L211" s="20">
+        <v>34318</v>
       </c>
       <c r="M211" s="19" t="s">
         <v>1223</v>
@@ -21550,10 +21597,10 @@
       <c r="P211" s="8"/>
       <c r="Q211" s="8"/>
       <c r="R211" s="21">
-        <v>172000</v>
+        <v>94000</v>
       </c>
       <c r="S211" s="21">
-        <v>172000</v>
+        <v>94000</v>
       </c>
       <c r="T211" s="21">
         <v>0.4</v>
@@ -21571,61 +21618,61 @@
         <v>45903</v>
       </c>
       <c r="Y211" s="8" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="Z211" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="212" ht="75" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" ht="105" spans="1:26">
       <c r="A212" s="4">
         <v>45750</v>
       </c>
       <c r="B212" s="8">
-        <v>17105</v>
+        <v>17109</v>
       </c>
       <c r="C212" s="6">
         <v>1</v>
       </c>
       <c r="D212" s="7" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="F212" s="13" t="s">
         <v>1227</v>
+      </c>
+      <c r="F212" s="13">
+        <v>15063167</v>
       </c>
       <c r="G212" s="8"/>
       <c r="H212" s="10" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="I212" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J212" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K212" s="9" t="s">
         <v>1228</v>
       </c>
-      <c r="K212" s="9" t="s">
+      <c r="L212" s="20">
+        <v>35636</v>
+      </c>
+      <c r="M212" s="19" t="s">
         <v>1229</v>
       </c>
-      <c r="L212" s="20">
-        <v>34318</v>
-      </c>
-      <c r="M212" s="19" t="s">
+      <c r="N212" s="9" t="s">
         <v>1230</v>
-      </c>
-      <c r="N212" s="9" t="s">
-        <v>1231</v>
       </c>
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
       <c r="Q212" s="8"/>
       <c r="R212" s="21">
-        <v>94000</v>
+        <v>138000</v>
       </c>
       <c r="S212" s="21">
-        <v>94000</v>
+        <v>138000</v>
       </c>
       <c r="T212" s="21">
         <v>0.4</v>
@@ -21643,34 +21690,34 @@
         <v>45903</v>
       </c>
       <c r="Y212" s="8" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="Z212" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="213" ht="105" spans="1:26">
+    <row r="213" ht="120" spans="1:26">
       <c r="A213" s="4">
         <v>45750</v>
       </c>
       <c r="B213" s="8">
-        <v>17109</v>
+        <v>17110</v>
       </c>
       <c r="C213" s="6">
         <v>1</v>
       </c>
       <c r="D213" s="7" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F213" s="13" t="s">
         <v>1233</v>
-      </c>
-      <c r="E213" s="8" t="s">
-        <v>1234</v>
-      </c>
-      <c r="F213" s="13">
-        <v>15063167</v>
       </c>
       <c r="G213" s="8"/>
       <c r="H213" s="10" t="s">
-        <v>364</v>
+        <v>1234</v>
       </c>
       <c r="I213" s="16" t="s">
         <v>29</v>
@@ -21682,7 +21729,7 @@
         <v>1235</v>
       </c>
       <c r="L213" s="20">
-        <v>35636</v>
+        <v>37182</v>
       </c>
       <c r="M213" s="19" t="s">
         <v>1236</v>
@@ -21694,10 +21741,10 @@
       <c r="P213" s="8"/>
       <c r="Q213" s="8"/>
       <c r="R213" s="21">
-        <v>138000</v>
+        <v>33000</v>
       </c>
       <c r="S213" s="21">
-        <v>138000</v>
+        <v>33000</v>
       </c>
       <c r="T213" s="21">
         <v>0.4</v>
@@ -21715,61 +21762,61 @@
         <v>45903</v>
       </c>
       <c r="Y213" s="8" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="Z213" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="214" ht="120" spans="1:26">
+    <row r="214" ht="105" spans="1:26">
       <c r="A214" s="4">
-        <v>45750</v>
+        <v>45751</v>
       </c>
       <c r="B214" s="8">
-        <v>17110</v>
+        <v>17112</v>
       </c>
       <c r="C214" s="6">
         <v>1</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F214" s="13" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G214" s="8"/>
       <c r="H214" s="10" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="I214" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J214" s="17" t="s">
-        <v>30</v>
+        <v>1243</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="L214" s="20">
-        <v>37182</v>
+        <v>37607</v>
       </c>
       <c r="M214" s="19" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="N214" s="9" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
       <c r="Q214" s="8"/>
       <c r="R214" s="21">
-        <v>33000</v>
+        <v>110000</v>
       </c>
       <c r="S214" s="21">
-        <v>33000</v>
+        <v>110000</v>
       </c>
       <c r="T214" s="21">
         <v>0.4</v>
@@ -21784,7 +21831,7 @@
         <v>153</v>
       </c>
       <c r="X214" s="4">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="Y214" s="8" t="s">
         <v>1245</v>
@@ -21793,58 +21840,58 @@
         <v>92</v>
       </c>
     </row>
-    <row r="215" ht="105" spans="1:26">
+    <row r="215" ht="75" spans="1:26">
       <c r="A215" s="4">
         <v>45751</v>
       </c>
       <c r="B215" s="8">
-        <v>17112</v>
+        <v>17114</v>
       </c>
       <c r="C215" s="6">
         <v>1</v>
       </c>
-      <c r="D215" s="7" t="s">
-        <v>1246</v>
+      <c r="D215" s="7">
+        <v>491</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>1247</v>
+        <v>305</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>1248</v>
+        <v>306</v>
       </c>
       <c r="G215" s="8"/>
       <c r="H215" s="10" t="s">
-        <v>1249</v>
+        <v>62</v>
       </c>
       <c r="I215" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J215" s="17" t="s">
-        <v>1250</v>
+        <v>30</v>
       </c>
       <c r="K215" s="9" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L215" s="20">
-        <v>37607</v>
+        <v>308</v>
+      </c>
+      <c r="L215" s="33">
+        <v>37161</v>
       </c>
       <c r="M215" s="19" t="s">
-        <v>1252</v>
+        <v>309</v>
       </c>
       <c r="N215" s="9" t="s">
-        <v>1253</v>
+        <v>310</v>
       </c>
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
       <c r="Q215" s="8"/>
       <c r="R215" s="21">
-        <v>110000</v>
+        <v>20000</v>
       </c>
       <c r="S215" s="21">
-        <v>110000</v>
+        <v>20000</v>
       </c>
       <c r="T215" s="21">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="U215" s="21">
         <v>0.13</v>
@@ -21859,7 +21906,7 @@
         <v>45904</v>
       </c>
       <c r="Y215" s="8" t="s">
-        <v>1252</v>
+        <v>311</v>
       </c>
       <c r="Z215" s="23" t="s">
         <v>92</v>
@@ -21867,22 +21914,22 @@
     </row>
     <row r="216" ht="75" spans="1:26">
       <c r="A216" s="4">
-        <v>45751</v>
+        <v>45752</v>
       </c>
       <c r="B216" s="8">
-        <v>17114</v>
+        <v>17115</v>
       </c>
       <c r="C216" s="6">
         <v>1</v>
       </c>
-      <c r="D216" s="7">
-        <v>491</v>
+      <c r="D216" s="7" t="s">
+        <v>1247</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>305</v>
+        <v>675</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>306</v>
+        <v>1248</v>
       </c>
       <c r="G216" s="8"/>
       <c r="H216" s="10" t="s">
@@ -21895,28 +21942,28 @@
         <v>30</v>
       </c>
       <c r="K216" s="9" t="s">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="L216" s="33">
-        <v>37161</v>
+        <v>33129</v>
       </c>
       <c r="M216" s="19" t="s">
-        <v>309</v>
+        <v>678</v>
       </c>
       <c r="N216" s="9" t="s">
-        <v>310</v>
+        <v>679</v>
       </c>
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
       <c r="Q216" s="8"/>
       <c r="R216" s="21">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="S216" s="21">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="T216" s="21">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="U216" s="21">
         <v>0.13</v>
@@ -21928,33 +21975,33 @@
         <v>153</v>
       </c>
       <c r="X216" s="4">
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="Y216" s="8" t="s">
-        <v>311</v>
+        <v>680</v>
       </c>
       <c r="Z216" s="23" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="217" ht="75" spans="1:26">
       <c r="A217" s="4">
-        <v>45752</v>
+        <v>45753</v>
       </c>
       <c r="B217" s="8">
-        <v>17115</v>
+        <v>17118</v>
       </c>
       <c r="C217" s="6">
         <v>1</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>675</v>
-      </c>
-      <c r="F217" s="13" t="s">
-        <v>1255</v>
+        <v>253</v>
+      </c>
+      <c r="F217" s="10">
+        <v>15379704</v>
       </c>
       <c r="G217" s="8"/>
       <c r="H217" s="10" t="s">
@@ -21967,28 +22014,28 @@
         <v>30</v>
       </c>
       <c r="K217" s="9" t="s">
-        <v>677</v>
+        <v>255</v>
       </c>
       <c r="L217" s="33">
-        <v>33129</v>
+        <v>28213</v>
       </c>
       <c r="M217" s="19" t="s">
-        <v>678</v>
+        <v>897</v>
       </c>
       <c r="N217" s="9" t="s">
-        <v>679</v>
+        <v>257</v>
       </c>
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
       <c r="Q217" s="8"/>
       <c r="R217" s="21">
-        <v>30000</v>
+        <v>52000</v>
       </c>
       <c r="S217" s="21">
-        <v>30000</v>
+        <v>52000</v>
       </c>
       <c r="T217" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U217" s="21">
         <v>0.13</v>
@@ -22000,13 +22047,13 @@
         <v>153</v>
       </c>
       <c r="X217" s="4">
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="Y217" s="8" t="s">
-        <v>680</v>
+        <v>897</v>
       </c>
       <c r="Z217" s="23" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="218" ht="75" spans="1:26">
@@ -22014,23 +22061,23 @@
         <v>45753</v>
       </c>
       <c r="B218" s="8">
-        <v>17118</v>
+        <v>17120</v>
       </c>
       <c r="C218" s="6">
         <v>1</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>253</v>
+        <v>1251</v>
       </c>
       <c r="F218" s="10">
-        <v>15379704</v>
+        <v>14601611</v>
       </c>
       <c r="G218" s="8"/>
       <c r="H218" s="10" t="s">
-        <v>62</v>
+        <v>240</v>
       </c>
       <c r="I218" s="16" t="s">
         <v>29</v>
@@ -22039,25 +22086,25 @@
         <v>30</v>
       </c>
       <c r="K218" s="9" t="s">
-        <v>255</v>
+        <v>1252</v>
       </c>
       <c r="L218" s="33">
-        <v>28213</v>
+        <v>32370</v>
       </c>
       <c r="M218" s="19" t="s">
-        <v>897</v>
+        <v>1253</v>
       </c>
       <c r="N218" s="9" t="s">
-        <v>257</v>
+        <v>1254</v>
       </c>
       <c r="O218" s="8"/>
       <c r="P218" s="8"/>
       <c r="Q218" s="8"/>
       <c r="R218" s="21">
-        <v>52000</v>
+        <v>56000</v>
       </c>
       <c r="S218" s="21">
-        <v>52000</v>
+        <v>56000</v>
       </c>
       <c r="T218" s="21">
         <v>0.18</v>
@@ -22075,34 +22122,34 @@
         <v>45906</v>
       </c>
       <c r="Y218" s="8" t="s">
-        <v>897</v>
+        <v>1255</v>
       </c>
       <c r="Z218" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="219" ht="75" spans="1:26">
+    <row r="219" ht="135" spans="1:26">
       <c r="A219" s="4">
         <v>45753</v>
       </c>
       <c r="B219" s="8">
-        <v>17120</v>
+        <v>17122</v>
       </c>
       <c r="C219" s="6">
         <v>1</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D219" s="7">
+        <v>492</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F219" s="10" t="s">
         <v>1257</v>
-      </c>
-      <c r="E219" s="8" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F219" s="10">
-        <v>14601611</v>
       </c>
       <c r="G219" s="8"/>
       <c r="H219" s="10" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="I219" s="16" t="s">
         <v>29</v>
@@ -22111,28 +22158,28 @@
         <v>30</v>
       </c>
       <c r="K219" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L219" s="33">
+        <v>26582</v>
+      </c>
+      <c r="M219" s="19" t="s">
         <v>1259</v>
       </c>
-      <c r="L219" s="33">
-        <v>32370</v>
-      </c>
-      <c r="M219" s="19" t="s">
+      <c r="N219" s="9" t="s">
         <v>1260</v>
-      </c>
-      <c r="N219" s="9" t="s">
-        <v>1261</v>
       </c>
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
       <c r="Q219" s="8"/>
       <c r="R219" s="21">
-        <v>56000</v>
+        <v>8000</v>
       </c>
       <c r="S219" s="21">
-        <v>56000</v>
+        <v>8000</v>
       </c>
       <c r="T219" s="21">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="U219" s="21">
         <v>0.13</v>
@@ -22147,24 +22194,24 @@
         <v>45906</v>
       </c>
       <c r="Y219" s="8" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Z219" s="23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="220" ht="135" spans="1:26">
+    <row r="220" ht="60" spans="1:26">
       <c r="A220" s="4">
-        <v>45753</v>
+        <v>45754</v>
       </c>
       <c r="B220" s="8">
-        <v>17122</v>
+        <v>17124</v>
       </c>
       <c r="C220" s="6">
         <v>1</v>
       </c>
-      <c r="D220" s="7">
-        <v>492</v>
+      <c r="D220" s="7" t="s">
+        <v>1262</v>
       </c>
       <c r="E220" s="8" t="s">
         <v>1263</v>
@@ -22174,7 +22221,7 @@
       </c>
       <c r="G220" s="8"/>
       <c r="H220" s="10" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="I220" s="16" t="s">
         <v>29</v>
@@ -22186,7 +22233,7 @@
         <v>1265</v>
       </c>
       <c r="L220" s="33">
-        <v>26582</v>
+        <v>33172</v>
       </c>
       <c r="M220" s="19" t="s">
         <v>1266</v>
@@ -22198,13 +22245,13 @@
       <c r="P220" s="8"/>
       <c r="Q220" s="8"/>
       <c r="R220" s="21">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="S220" s="21">
-        <v>8000</v>
+        <v>23000</v>
       </c>
       <c r="T220" s="21">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="U220" s="21">
         <v>0.13</v>
@@ -22216,33 +22263,33 @@
         <v>153</v>
       </c>
       <c r="X220" s="4">
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="Y220" s="8" t="s">
+        <v>1266</v>
+      </c>
+      <c r="Z220" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" ht="75" spans="1:26">
+      <c r="A221" s="4">
+        <v>45755</v>
+      </c>
+      <c r="B221" s="8">
+        <v>17129</v>
+      </c>
+      <c r="C221" s="6">
+        <v>1</v>
+      </c>
+      <c r="D221" s="7">
+        <v>495</v>
+      </c>
+      <c r="E221" s="8" t="s">
         <v>1268</v>
       </c>
-      <c r="Z220" s="23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="221" ht="60" spans="1:26">
-      <c r="A221" s="4">
-        <v>45754</v>
-      </c>
-      <c r="B221" s="8">
-        <v>17124</v>
-      </c>
-      <c r="C221" s="6">
-        <v>1</v>
-      </c>
-      <c r="D221" s="7" t="s">
+      <c r="F221" s="10" t="s">
         <v>1269</v>
-      </c>
-      <c r="E221" s="8" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F221" s="10" t="s">
-        <v>1271</v>
       </c>
       <c r="G221" s="8"/>
       <c r="H221" s="10" t="s">
@@ -22252,28 +22299,28 @@
         <v>29</v>
       </c>
       <c r="J221" s="17" t="s">
-        <v>30</v>
+        <v>1270</v>
       </c>
       <c r="K221" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L221" s="33">
+        <v>36353</v>
+      </c>
+      <c r="M221" s="19" t="s">
         <v>1272</v>
       </c>
-      <c r="L221" s="33">
-        <v>33172</v>
-      </c>
-      <c r="M221" s="19" t="s">
+      <c r="N221" s="9" t="s">
         <v>1273</v>
-      </c>
-      <c r="N221" s="9" t="s">
-        <v>1274</v>
       </c>
       <c r="O221" s="8"/>
       <c r="P221" s="8"/>
       <c r="Q221" s="8"/>
       <c r="R221" s="21">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="S221" s="21">
-        <v>23000</v>
+        <v>18000</v>
       </c>
       <c r="T221" s="21">
         <v>0.4</v>
@@ -22288,13 +22335,13 @@
         <v>153</v>
       </c>
       <c r="X221" s="4">
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="Y221" s="8" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="Z221" s="23" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="222" ht="75" spans="1:26">
@@ -22302,53 +22349,53 @@
         <v>45755</v>
       </c>
       <c r="B222" s="8">
-        <v>17129</v>
+        <v>17130</v>
       </c>
       <c r="C222" s="6">
         <v>1</v>
       </c>
-      <c r="D222" s="7">
-        <v>495</v>
+      <c r="D222" s="7" t="s">
+        <v>1275</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>1275</v>
+        <v>458</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>1276</v>
+        <v>459</v>
       </c>
       <c r="G222" s="8"/>
       <c r="H222" s="10" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="I222" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J222" s="17" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="K222" s="9" t="s">
-        <v>1278</v>
+        <v>461</v>
       </c>
       <c r="L222" s="33">
-        <v>36353</v>
+        <v>38793</v>
       </c>
       <c r="M222" s="19" t="s">
-        <v>1279</v>
+        <v>462</v>
       </c>
       <c r="N222" s="9" t="s">
-        <v>1280</v>
+        <v>463</v>
       </c>
       <c r="O222" s="8"/>
       <c r="P222" s="8"/>
       <c r="Q222" s="8"/>
       <c r="R222" s="21">
-        <v>18000</v>
+        <v>75000</v>
       </c>
       <c r="S222" s="21">
-        <v>18000</v>
+        <v>75000</v>
       </c>
       <c r="T222" s="21">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U222" s="21">
         <v>0.13</v>
@@ -22363,7 +22410,7 @@
         <v>45908</v>
       </c>
       <c r="Y222" s="8" t="s">
-        <v>1281</v>
+        <v>464</v>
       </c>
       <c r="Z222" s="23" t="s">
         <v>92</v>
@@ -22374,50 +22421,50 @@
         <v>45755</v>
       </c>
       <c r="B223" s="8">
-        <v>17130</v>
+        <v>17131</v>
       </c>
       <c r="C223" s="6">
         <v>1</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>458</v>
+        <v>1278</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>459</v>
+        <v>1279</v>
       </c>
       <c r="G223" s="8"/>
       <c r="H223" s="10" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="I223" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J223" s="17" t="s">
-        <v>1283</v>
+        <v>30</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>461</v>
+        <v>1280</v>
       </c>
       <c r="L223" s="33">
-        <v>38793</v>
+        <v>27608</v>
       </c>
       <c r="M223" s="19" t="s">
-        <v>462</v>
+        <v>1281</v>
       </c>
       <c r="N223" s="9" t="s">
-        <v>463</v>
+        <v>1282</v>
       </c>
       <c r="O223" s="8"/>
       <c r="P223" s="8"/>
       <c r="Q223" s="8"/>
       <c r="R223" s="21">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="S223" s="21">
-        <v>75000</v>
+        <v>93000</v>
       </c>
       <c r="T223" s="21">
         <v>0.18</v>
@@ -22435,10 +22482,10 @@
         <v>45908</v>
       </c>
       <c r="Y223" s="8" t="s">
-        <v>464</v>
+        <v>1283</v>
       </c>
       <c r="Z223" s="23" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="224" ht="75" spans="1:26">
@@ -22446,23 +22493,21 @@
         <v>45755</v>
       </c>
       <c r="B224" s="8">
-        <v>17131</v>
+        <v>17132</v>
       </c>
       <c r="C224" s="6">
         <v>1</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D224" s="7"/>
+      <c r="E224" s="8" t="s">
         <v>1284</v>
       </c>
-      <c r="E224" s="8" t="s">
+      <c r="F224" s="10" t="s">
         <v>1285</v>
-      </c>
-      <c r="F224" s="10" t="s">
-        <v>1286</v>
       </c>
       <c r="G224" s="8"/>
       <c r="H224" s="10" t="s">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="I224" s="16" t="s">
         <v>29</v>
@@ -22471,28 +22516,28 @@
         <v>30</v>
       </c>
       <c r="K224" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="L224" s="33">
+        <v>29316</v>
+      </c>
+      <c r="M224" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N224" s="9" t="s">
         <v>1287</v>
-      </c>
-      <c r="L224" s="33">
-        <v>27608</v>
-      </c>
-      <c r="M224" s="19" t="s">
-        <v>1288</v>
-      </c>
-      <c r="N224" s="9" t="s">
-        <v>1289</v>
       </c>
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
       <c r="Q224" s="8"/>
       <c r="R224" s="21">
-        <v>93000</v>
+        <v>1000000</v>
       </c>
       <c r="S224" s="21">
-        <v>93000</v>
+        <v>1000000</v>
       </c>
       <c r="T224" s="21">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="U224" s="21">
         <v>0.13</v>
@@ -22501,94 +22546,94 @@
         <v>2.5</v>
       </c>
       <c r="W224" s="21">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="X224" s="4">
-        <v>45908</v>
+        <v>45934</v>
       </c>
       <c r="Y224" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z224" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="225" ht="60" spans="1:26">
+      <c r="A225" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B225" s="29">
+        <v>17136</v>
+      </c>
+      <c r="C225" s="29">
+        <v>1</v>
+      </c>
+      <c r="D225" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E225" s="8" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F225" s="31" t="s">
         <v>1290</v>
       </c>
-      <c r="Z224" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="225" ht="75" spans="1:26">
-      <c r="A225" s="4">
-        <v>45755</v>
-      </c>
-      <c r="B225" s="8">
-        <v>17132</v>
-      </c>
-      <c r="C225" s="6">
-        <v>1</v>
-      </c>
-      <c r="D225" s="7"/>
-      <c r="E225" s="8" t="s">
+      <c r="G225" s="29" t="s">
         <v>1291</v>
       </c>
-      <c r="F225" s="10" t="s">
+      <c r="H225" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I225" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J225" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K225" s="34" t="s">
         <v>1292</v>
       </c>
-      <c r="G225" s="8"/>
-      <c r="H225" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I225" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J225" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K225" s="9" t="s">
+      <c r="L225" s="35" t="s">
         <v>1293</v>
       </c>
-      <c r="L225" s="33">
-        <v>29316</v>
-      </c>
-      <c r="M225" s="19" t="s">
-        <v>41</v>
-      </c>
+      <c r="M225" s="29"/>
       <c r="N225" s="9" t="s">
         <v>1294</v>
       </c>
-      <c r="O225" s="8"/>
-      <c r="P225" s="8"/>
-      <c r="Q225" s="8"/>
-      <c r="R225" s="21">
-        <v>1000000</v>
-      </c>
-      <c r="S225" s="21">
-        <v>1000000</v>
-      </c>
-      <c r="T225" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="U225" s="21">
+      <c r="O225" s="29"/>
+      <c r="P225" s="29"/>
+      <c r="Q225" s="29"/>
+      <c r="R225" s="29">
+        <v>17000</v>
+      </c>
+      <c r="S225" s="29">
+        <v>17000</v>
+      </c>
+      <c r="T225" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="U225" s="29">
         <v>0.13</v>
       </c>
-      <c r="V225" s="9">
+      <c r="V225" s="29">
         <v>2.5</v>
       </c>
-      <c r="W225" s="21">
-        <v>179</v>
-      </c>
-      <c r="X225" s="4">
-        <v>45934</v>
-      </c>
-      <c r="Y225" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z225" s="23" t="s">
-        <v>113</v>
+      <c r="W225" s="29">
+        <v>153</v>
+      </c>
+      <c r="X225" s="30" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Y225" s="29"/>
+      <c r="Z225" s="38" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="226" ht="60" spans="1:26">
       <c r="A226" s="4" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B226" s="29">
-        <v>17136</v>
+        <v>17137</v>
       </c>
       <c r="C226" s="29">
         <v>1</v>
@@ -22597,16 +22642,16 @@
         <v>32</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="F226" s="31" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="G226" s="29" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="H226" s="31" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="I226" s="29" t="s">
         <v>29</v>
@@ -22615,26 +22660,30 @@
         <v>30</v>
       </c>
       <c r="K226" s="34" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="L226" s="35" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="M226" s="29"/>
-      <c r="N226" s="34" t="s">
-        <v>1301</v>
-      </c>
-      <c r="O226" s="29"/>
-      <c r="P226" s="29"/>
+      <c r="N226" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="O226" s="29" t="s">
+        <v>1303</v>
+      </c>
+      <c r="P226" s="46" t="s">
+        <v>1304</v>
+      </c>
       <c r="Q226" s="29"/>
       <c r="R226" s="29">
-        <v>17000</v>
+        <v>110000</v>
       </c>
       <c r="S226" s="29">
-        <v>17000</v>
+        <v>110000</v>
       </c>
       <c r="T226" s="29">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="U226" s="29">
         <v>0.13</v>
@@ -22646,19 +22695,19 @@
         <v>153</v>
       </c>
       <c r="X226" s="30" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="Y226" s="29"/>
       <c r="Z226" s="38" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
     </row>
     <row r="227" ht="60" spans="1:26">
       <c r="A227" s="4" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B227" s="29">
-        <v>17137</v>
+        <v>17138</v>
       </c>
       <c r="C227" s="29">
         <v>1</v>
@@ -22667,48 +22716,48 @@
         <v>32</v>
       </c>
       <c r="E227" s="8" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F227" s="31" t="s">
-        <v>1305</v>
+        <v>1306</v>
+      </c>
+      <c r="F227" s="31">
+        <v>755352364</v>
       </c>
       <c r="G227" s="29" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H227" s="31" t="s">
-        <v>240</v>
+        <v>1307</v>
+      </c>
+      <c r="H227" s="29" t="s">
+        <v>1308</v>
       </c>
       <c r="I227" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J227" s="31" t="s">
+      <c r="J227" s="29" t="s">
         <v>30</v>
       </c>
       <c r="K227" s="34" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="L227" s="35" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="M227" s="29"/>
-      <c r="N227" s="34" t="s">
-        <v>1309</v>
+      <c r="N227" s="9" t="s">
+        <v>1311</v>
       </c>
       <c r="O227" s="29" t="s">
-        <v>1310</v>
-      </c>
-      <c r="P227" s="44" t="s">
-        <v>1311</v>
+        <v>1312</v>
+      </c>
+      <c r="P227" s="46" t="s">
+        <v>1313</v>
       </c>
       <c r="Q227" s="29"/>
       <c r="R227" s="29">
-        <v>110000</v>
+        <v>252000</v>
       </c>
       <c r="S227" s="29">
-        <v>110000</v>
+        <v>252000</v>
       </c>
       <c r="T227" s="29">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="U227" s="29">
         <v>0.13</v>
@@ -22720,7 +22769,7 @@
         <v>153</v>
       </c>
       <c r="X227" s="30" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="Y227" s="29"/>
       <c r="Z227" s="38" t="s">
@@ -22729,10 +22778,10 @@
     </row>
     <row r="228" ht="60" spans="1:26">
       <c r="A228" s="4" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B228" s="29">
-        <v>17138</v>
+        <v>17139</v>
       </c>
       <c r="C228" s="29">
         <v>1</v>
@@ -22741,16 +22790,16 @@
         <v>32</v>
       </c>
       <c r="E228" s="8" t="s">
-        <v>1313</v>
+        <v>1306</v>
       </c>
       <c r="F228" s="31">
         <v>755352364</v>
       </c>
       <c r="G228" s="29" t="s">
-        <v>1314</v>
+        <v>1307</v>
       </c>
       <c r="H228" s="29" t="s">
-        <v>1315</v>
+        <v>1308</v>
       </c>
       <c r="I228" s="29" t="s">
         <v>29</v>
@@ -22759,30 +22808,30 @@
         <v>30</v>
       </c>
       <c r="K228" s="34" t="s">
-        <v>1316</v>
+        <v>1309</v>
       </c>
       <c r="L228" s="35" t="s">
-        <v>1317</v>
+        <v>1310</v>
       </c>
       <c r="M228" s="29"/>
-      <c r="N228" s="34" t="s">
-        <v>1318</v>
+      <c r="N228" s="9" t="s">
+        <v>1311</v>
       </c>
       <c r="O228" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P228" s="44" t="s">
-        <v>1320</v>
+        <v>1312</v>
+      </c>
+      <c r="P228" s="46" t="s">
+        <v>1313</v>
       </c>
       <c r="Q228" s="29"/>
       <c r="R228" s="29">
-        <v>252000</v>
+        <v>58000</v>
       </c>
       <c r="S228" s="29">
-        <v>252000</v>
+        <v>58000</v>
       </c>
       <c r="T228" s="29">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="U228" s="29">
         <v>0.13</v>
@@ -22794,7 +22843,7 @@
         <v>153</v>
       </c>
       <c r="X228" s="30" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="Y228" s="29"/>
       <c r="Z228" s="38" t="s">
@@ -22803,10 +22852,10 @@
     </row>
     <row r="229" ht="60" spans="1:26">
       <c r="A229" s="4" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="B229" s="29">
-        <v>17139</v>
+        <v>17143</v>
       </c>
       <c r="C229" s="29">
         <v>1</v>
@@ -22815,48 +22864,46 @@
         <v>32</v>
       </c>
       <c r="E229" s="8" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F229" s="31">
-        <v>755352364</v>
+        <v>1314</v>
+      </c>
+      <c r="F229" s="31" t="s">
+        <v>1315</v>
       </c>
       <c r="G229" s="29" t="s">
-        <v>1314</v>
-      </c>
-      <c r="H229" s="29" t="s">
-        <v>1315</v>
+        <v>1316</v>
+      </c>
+      <c r="H229" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="I229" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J229" s="29" t="s">
+      <c r="J229" s="31" t="s">
         <v>30</v>
       </c>
       <c r="K229" s="34" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="L229" s="35" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="M229" s="29"/>
-      <c r="N229" s="34" t="s">
-        <v>1318</v>
-      </c>
+      <c r="N229" s="9"/>
       <c r="O229" s="29" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P229" s="46" t="s">
         <v>1319</v>
-      </c>
-      <c r="P229" s="44" t="s">
-        <v>1320</v>
       </c>
       <c r="Q229" s="29"/>
       <c r="R229" s="29">
-        <v>58000</v>
+        <v>103000</v>
       </c>
       <c r="S229" s="29">
-        <v>58000</v>
+        <v>103000</v>
       </c>
       <c r="T229" s="29">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="U229" s="29">
         <v>0.13</v>
@@ -22868,19 +22915,19 @@
         <v>153</v>
       </c>
       <c r="X229" s="30" t="s">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="Y229" s="29"/>
       <c r="Z229" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="230" ht="60" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="230" ht="75" spans="1:26">
       <c r="A230" s="4" t="s">
-        <v>1303</v>
+        <v>1320</v>
       </c>
       <c r="B230" s="29">
-        <v>17143</v>
+        <v>17144</v>
       </c>
       <c r="C230" s="29">
         <v>1</v>
@@ -22898,13 +22945,13 @@
         <v>1323</v>
       </c>
       <c r="H230" s="31" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="I230" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J230" s="31" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="K230" s="34" t="s">
         <v>1324</v>
@@ -22913,19 +22960,21 @@
         <v>1325</v>
       </c>
       <c r="M230" s="29"/>
-      <c r="N230" s="34"/>
+      <c r="N230" s="9" t="s">
+        <v>1326</v>
+      </c>
       <c r="O230" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P230" s="44" t="s">
-        <v>1326</v>
+        <v>1312</v>
+      </c>
+      <c r="P230" s="46" t="s">
+        <v>1327</v>
       </c>
       <c r="Q230" s="29"/>
       <c r="R230" s="29">
-        <v>103000</v>
+        <v>210000</v>
       </c>
       <c r="S230" s="29">
-        <v>103000</v>
+        <v>210000</v>
       </c>
       <c r="T230" s="29">
         <v>0.4</v>
@@ -22940,19 +22989,19 @@
         <v>153</v>
       </c>
       <c r="X230" s="30" t="s">
-        <v>1312</v>
+        <v>1328</v>
       </c>
       <c r="Y230" s="29"/>
       <c r="Z230" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="231" ht="75" spans="1:26">
+    <row r="231" ht="60" spans="1:26">
       <c r="A231" s="4" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="B231" s="29">
-        <v>17144</v>
+        <v>17145</v>
       </c>
       <c r="C231" s="29">
         <v>1</v>
@@ -22961,48 +23010,48 @@
         <v>32</v>
       </c>
       <c r="E231" s="8" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F231" s="31" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="G231" s="29" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="H231" s="31" t="s">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="I231" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J231" s="31" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K231" s="34" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="L231" s="35" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="M231" s="29"/>
-      <c r="N231" s="34" t="s">
-        <v>1333</v>
+      <c r="N231" s="9" t="s">
+        <v>1334</v>
       </c>
       <c r="O231" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P231" s="44" t="s">
-        <v>1334</v>
+        <v>1312</v>
+      </c>
+      <c r="P231" s="46" t="s">
+        <v>1335</v>
       </c>
       <c r="Q231" s="29"/>
       <c r="R231" s="29">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="S231" s="29">
-        <v>210000</v>
+        <v>420000</v>
       </c>
       <c r="T231" s="29">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="U231" s="29">
         <v>0.13</v>
@@ -23014,19 +23063,19 @@
         <v>153</v>
       </c>
       <c r="X231" s="30" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="Y231" s="29"/>
       <c r="Z231" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="232" ht="60" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="232" ht="75" spans="1:26">
       <c r="A232" s="4" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="B232" s="29">
-        <v>17145</v>
+        <v>17146</v>
       </c>
       <c r="C232" s="29">
         <v>1</v>
@@ -23044,7 +23093,7 @@
         <v>1338</v>
       </c>
       <c r="H232" s="31" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="I232" s="29" t="s">
         <v>29</v>
@@ -23059,24 +23108,24 @@
         <v>1340</v>
       </c>
       <c r="M232" s="29"/>
-      <c r="N232" s="34" t="s">
+      <c r="N232" s="9" t="s">
         <v>1341</v>
       </c>
       <c r="O232" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P232" s="44" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P232" s="46" t="s">
         <v>1342</v>
       </c>
       <c r="Q232" s="29"/>
       <c r="R232" s="29">
-        <v>420000</v>
+        <v>32000</v>
       </c>
       <c r="S232" s="29">
-        <v>420000</v>
+        <v>32000</v>
       </c>
       <c r="T232" s="29">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="U232" s="29">
         <v>0.13</v>
@@ -23088,19 +23137,19 @@
         <v>153</v>
       </c>
       <c r="X232" s="30" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="Y232" s="29"/>
       <c r="Z232" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="233" ht="75" spans="1:26">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="233" ht="60" spans="1:26">
       <c r="A233" s="4" t="s">
-        <v>1327</v>
+        <v>1320</v>
       </c>
       <c r="B233" s="29">
-        <v>17146</v>
+        <v>17147</v>
       </c>
       <c r="C233" s="29">
         <v>1</v>
@@ -23133,21 +23182,21 @@
         <v>1347</v>
       </c>
       <c r="M233" s="29"/>
-      <c r="N233" s="34" t="s">
+      <c r="N233" s="9" t="s">
         <v>1348</v>
       </c>
       <c r="O233" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P233" s="44" t="s">
         <v>1349</v>
+      </c>
+      <c r="P233" s="46" t="s">
+        <v>1350</v>
       </c>
       <c r="Q233" s="29"/>
       <c r="R233" s="29">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="S233" s="29">
-        <v>32000</v>
+        <v>42000</v>
       </c>
       <c r="T233" s="29">
         <v>0.4</v>
@@ -23162,19 +23211,19 @@
         <v>153</v>
       </c>
       <c r="X233" s="30" t="s">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="Y233" s="29"/>
       <c r="Z233" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="234" ht="60" spans="1:26">
+    <row r="234" ht="75" spans="1:26">
       <c r="A234" s="4" t="s">
-        <v>1327</v>
+        <v>1351</v>
       </c>
       <c r="B234" s="29">
-        <v>17147</v>
+        <v>17148</v>
       </c>
       <c r="C234" s="29">
         <v>1</v>
@@ -23183,16 +23232,16 @@
         <v>32</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="F234" s="31" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="G234" s="29" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="H234" s="31" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I234" s="29" t="s">
         <v>29</v>
@@ -23201,27 +23250,27 @@
         <v>30</v>
       </c>
       <c r="K234" s="34" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="L234" s="35" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="M234" s="29"/>
-      <c r="N234" s="34" t="s">
-        <v>1355</v>
+      <c r="N234" s="9" t="s">
+        <v>1357</v>
       </c>
       <c r="O234" s="29" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P234" s="44" t="s">
-        <v>1357</v>
+        <v>1312</v>
+      </c>
+      <c r="P234" s="46" t="s">
+        <v>1358</v>
       </c>
       <c r="Q234" s="29"/>
       <c r="R234" s="29">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="S234" s="29">
-        <v>42000</v>
+        <v>45000</v>
       </c>
       <c r="T234" s="29">
         <v>0.4</v>
@@ -23236,7 +23285,7 @@
         <v>153</v>
       </c>
       <c r="X234" s="30" t="s">
-        <v>1335</v>
+        <v>1359</v>
       </c>
       <c r="Y234" s="29"/>
       <c r="Z234" s="38" t="s">
@@ -23245,10 +23294,10 @@
     </row>
     <row r="235" ht="75" spans="1:26">
       <c r="A235" s="4" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="B235" s="29">
-        <v>17148</v>
+        <v>17149</v>
       </c>
       <c r="C235" s="29">
         <v>1</v>
@@ -23257,16 +23306,16 @@
         <v>32</v>
       </c>
       <c r="E235" s="8" t="s">
-        <v>1359</v>
+        <v>901</v>
       </c>
       <c r="F235" s="31" t="s">
-        <v>1360</v>
+        <v>1024</v>
       </c>
       <c r="G235" s="29" t="s">
         <v>1361</v>
       </c>
       <c r="H235" s="31" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="I235" s="29" t="s">
         <v>29</v>
@@ -23281,24 +23330,24 @@
         <v>1363</v>
       </c>
       <c r="M235" s="29"/>
-      <c r="N235" s="34" t="s">
+      <c r="N235" s="9" t="s">
         <v>1364</v>
       </c>
       <c r="O235" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P235" s="44" t="s">
         <v>1365</v>
+      </c>
+      <c r="P235" s="46" t="s">
+        <v>1366</v>
       </c>
       <c r="Q235" s="29"/>
       <c r="R235" s="29">
-        <v>45000</v>
+        <v>160000</v>
       </c>
       <c r="S235" s="29">
-        <v>45000</v>
+        <v>160000</v>
       </c>
       <c r="T235" s="29">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="U235" s="29">
         <v>0.13</v>
@@ -23310,19 +23359,19 @@
         <v>153</v>
       </c>
       <c r="X235" s="30" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="Y235" s="29"/>
       <c r="Z235" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="236" ht="75" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="236" ht="60" spans="1:26">
       <c r="A236" s="4" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B236" s="29">
-        <v>17149</v>
+        <v>17156</v>
       </c>
       <c r="C236" s="29">
         <v>1</v>
@@ -23331,16 +23380,16 @@
         <v>32</v>
       </c>
       <c r="E236" s="8" t="s">
-        <v>901</v>
+        <v>1369</v>
       </c>
       <c r="F236" s="31" t="s">
-        <v>1024</v>
+        <v>1370</v>
       </c>
       <c r="G236" s="29" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="H236" s="31" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="I236" s="29" t="s">
         <v>29</v>
@@ -23349,30 +23398,30 @@
         <v>30</v>
       </c>
       <c r="K236" s="34" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
       <c r="L236" s="35" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="M236" s="29"/>
-      <c r="N236" s="34" t="s">
-        <v>1371</v>
+      <c r="N236" s="9" t="s">
+        <v>1374</v>
       </c>
       <c r="O236" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="P236" s="44" t="s">
-        <v>1373</v>
+        <v>1312</v>
+      </c>
+      <c r="P236" s="46" t="s">
+        <v>1375</v>
       </c>
       <c r="Q236" s="29"/>
       <c r="R236" s="29">
-        <v>160000</v>
+        <v>239000</v>
       </c>
       <c r="S236" s="29">
-        <v>160000</v>
+        <v>239000</v>
       </c>
       <c r="T236" s="29">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="U236" s="29">
         <v>0.13</v>
@@ -23384,19 +23433,19 @@
         <v>153</v>
       </c>
       <c r="X236" s="30" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="Y236" s="29"/>
       <c r="Z236" s="38" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="237" ht="60" spans="1:26">
       <c r="A237" s="4" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B237" s="29">
-        <v>17156</v>
+        <v>17157</v>
       </c>
       <c r="C237" s="29">
         <v>1</v>
@@ -23405,16 +23454,16 @@
         <v>32</v>
       </c>
       <c r="E237" s="8" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="F237" s="31" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G237" s="29" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="H237" s="31" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I237" s="29" t="s">
         <v>29</v>
@@ -23423,27 +23472,27 @@
         <v>30</v>
       </c>
       <c r="K237" s="34" t="s">
-        <v>1379</v>
-      </c>
-      <c r="L237" s="35">
-        <v>14</v>
+        <v>1380</v>
+      </c>
+      <c r="L237" s="35" t="s">
+        <v>1381</v>
       </c>
       <c r="M237" s="29"/>
-      <c r="N237" s="34" t="s">
-        <v>1380</v>
+      <c r="N237" s="9" t="s">
+        <v>1382</v>
       </c>
       <c r="O237" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P237" s="44" t="s">
-        <v>1381</v>
+        <v>1383</v>
+      </c>
+      <c r="P237" s="46" t="s">
+        <v>1384</v>
       </c>
       <c r="Q237" s="29"/>
       <c r="R237" s="29">
-        <v>239000</v>
+        <v>100000</v>
       </c>
       <c r="S237" s="29">
-        <v>239000</v>
+        <v>100000</v>
       </c>
       <c r="T237" s="29">
         <v>0.4</v>
@@ -23458,7 +23507,7 @@
         <v>153</v>
       </c>
       <c r="X237" s="30" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="Y237" s="29"/>
       <c r="Z237" s="38" t="s">
@@ -23467,10 +23516,10 @@
     </row>
     <row r="238" ht="60" spans="1:26">
       <c r="A238" s="4" t="s">
-        <v>1375</v>
+        <v>1368</v>
       </c>
       <c r="B238" s="29">
-        <v>17157</v>
+        <v>17159</v>
       </c>
       <c r="C238" s="29">
         <v>1</v>
@@ -23479,50 +23528,50 @@
         <v>32</v>
       </c>
       <c r="E238" s="8" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="F238" s="31" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G238" s="29" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="H238" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I238" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="I238" s="36" t="s">
         <v>29</v>
       </c>
       <c r="J238" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K238" s="34" t="s">
-        <v>1386</v>
-      </c>
+        <v>1388</v>
+      </c>
+      <c r="K238" s="34"/>
       <c r="L238" s="35" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="M238" s="29"/>
-      <c r="N238" s="34" t="s">
-        <v>1388</v>
+      <c r="N238" s="9" t="s">
+        <v>1390</v>
       </c>
       <c r="O238" s="29" t="s">
-        <v>1389</v>
-      </c>
-      <c r="P238" s="44" t="s">
-        <v>1390</v>
-      </c>
-      <c r="Q238" s="29"/>
+        <v>1391</v>
+      </c>
+      <c r="P238" s="46" t="s">
+        <v>1392</v>
+      </c>
+      <c r="Q238" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="R238" s="29">
-        <v>100000</v>
+        <v>145000</v>
       </c>
       <c r="S238" s="29">
-        <v>100000</v>
-      </c>
-      <c r="T238" s="29">
+        <v>145000</v>
+      </c>
+      <c r="T238" s="30">
         <v>0.4</v>
       </c>
-      <c r="U238" s="29">
+      <c r="U238" s="30">
         <v>0.13</v>
       </c>
       <c r="V238" s="29">
@@ -23532,19 +23581,21 @@
         <v>153</v>
       </c>
       <c r="X238" s="30" t="s">
-        <v>1382</v>
-      </c>
-      <c r="Y238" s="29"/>
+        <v>1393</v>
+      </c>
+      <c r="Y238" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="Z238" s="38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="239" ht="60" spans="1:26">
       <c r="A239" s="4" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="B239" s="29">
-        <v>17159</v>
+        <v>17164</v>
       </c>
       <c r="C239" s="29">
         <v>1</v>
@@ -23553,45 +23604,47 @@
         <v>32</v>
       </c>
       <c r="E239" s="8" t="s">
-        <v>1391</v>
-      </c>
-      <c r="F239" s="31" t="s">
-        <v>1392</v>
+        <v>1395</v>
+      </c>
+      <c r="F239" s="29" t="s">
+        <v>1396</v>
       </c>
       <c r="G239" s="29" t="s">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="H239" s="31" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I239" s="36" t="s">
         <v>29</v>
       </c>
       <c r="J239" s="31" t="s">
-        <v>1394</v>
-      </c>
-      <c r="K239" s="34"/>
+        <v>1388</v>
+      </c>
+      <c r="K239" s="34" t="s">
+        <v>1398</v>
+      </c>
       <c r="L239" s="35" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="M239" s="29"/>
-      <c r="N239" s="34" t="s">
-        <v>1396</v>
+      <c r="N239" s="9" t="s">
+        <v>1400</v>
       </c>
       <c r="O239" s="29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P239" s="44" t="s">
-        <v>1398</v>
+        <v>1401</v>
+      </c>
+      <c r="P239" s="46" t="s">
+        <v>1402</v>
       </c>
       <c r="Q239" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R239" s="29">
-        <v>145000</v>
+        <v>58000</v>
       </c>
       <c r="S239" s="29">
-        <v>145000</v>
+        <v>58000</v>
       </c>
       <c r="T239" s="30">
         <v>0.4</v>
@@ -23606,7 +23659,7 @@
         <v>153</v>
       </c>
       <c r="X239" s="30" t="s">
-        <v>1399</v>
+        <v>1403</v>
       </c>
       <c r="Y239" s="29" t="s">
         <v>32</v>
@@ -23617,10 +23670,10 @@
     </row>
     <row r="240" ht="60" spans="1:26">
       <c r="A240" s="4" t="s">
-        <v>1400</v>
+        <v>1394</v>
       </c>
       <c r="B240" s="29">
-        <v>17164</v>
+        <v>17165</v>
       </c>
       <c r="C240" s="29">
         <v>1</v>
@@ -23629,13 +23682,13 @@
         <v>32</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="F240" s="29" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="G240" s="29" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="H240" s="31" t="s">
         <v>62</v>
@@ -23644,32 +23697,32 @@
         <v>29</v>
       </c>
       <c r="J240" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K240" s="34" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="L240" s="35" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="M240" s="29"/>
-      <c r="N240" s="34" t="s">
-        <v>1406</v>
+      <c r="N240" s="9" t="s">
+        <v>1409</v>
       </c>
       <c r="O240" s="29" t="s">
-        <v>1407</v>
-      </c>
-      <c r="P240" s="44" t="s">
-        <v>1408</v>
+        <v>1312</v>
+      </c>
+      <c r="P240" s="46" t="s">
+        <v>1410</v>
       </c>
       <c r="Q240" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R240" s="29">
-        <v>58000</v>
+        <v>120000</v>
       </c>
       <c r="S240" s="29">
-        <v>58000</v>
+        <v>120000</v>
       </c>
       <c r="T240" s="30">
         <v>0.4</v>
@@ -23684,7 +23737,7 @@
         <v>153</v>
       </c>
       <c r="X240" s="30" t="s">
-        <v>1409</v>
+        <v>1403</v>
       </c>
       <c r="Y240" s="29" t="s">
         <v>32</v>
@@ -23693,12 +23746,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="241" ht="60" spans="1:26">
+    <row r="241" ht="75" spans="1:26">
       <c r="A241" s="4" t="s">
-        <v>1400</v>
+        <v>1411</v>
       </c>
       <c r="B241" s="29">
-        <v>17165</v>
+        <v>17166</v>
       </c>
       <c r="C241" s="29">
         <v>1</v>
@@ -23707,47 +23760,47 @@
         <v>32</v>
       </c>
       <c r="E241" s="8" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F241" s="29" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G241" s="29" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="H241" s="31" t="s">
-        <v>62</v>
+        <v>288</v>
       </c>
       <c r="I241" s="36" t="s">
         <v>29</v>
       </c>
       <c r="J241" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K241" s="34" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="L241" s="35" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="M241" s="29"/>
-      <c r="N241" s="34" t="s">
-        <v>1415</v>
+      <c r="N241" s="9" t="s">
+        <v>1417</v>
       </c>
       <c r="O241" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P241" s="44" t="s">
-        <v>1416</v>
+        <v>1418</v>
+      </c>
+      <c r="P241" s="46" t="s">
+        <v>1419</v>
       </c>
       <c r="Q241" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R241" s="29">
-        <v>120000</v>
+        <v>69000</v>
       </c>
       <c r="S241" s="29">
-        <v>120000</v>
+        <v>69000</v>
       </c>
       <c r="T241" s="30">
         <v>0.4</v>
@@ -23762,7 +23815,7 @@
         <v>153</v>
       </c>
       <c r="X241" s="30" t="s">
-        <v>1409</v>
+        <v>1420</v>
       </c>
       <c r="Y241" s="29" t="s">
         <v>32</v>
@@ -23771,12 +23824,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="242" ht="75" spans="1:26">
+    <row r="242" ht="90" spans="1:26">
       <c r="A242" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="B242" s="29">
-        <v>17166</v>
+        <v>17167</v>
       </c>
       <c r="C242" s="29">
         <v>1</v>
@@ -23785,47 +23838,47 @@
         <v>32</v>
       </c>
       <c r="E242" s="8" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="F242" s="29" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="G242" s="29" t="s">
-        <v>1420</v>
-      </c>
-      <c r="H242" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="I242" s="36" t="s">
+        <v>1423</v>
+      </c>
+      <c r="H242" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="I242" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J242" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K242" s="34" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="L242" s="35" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="M242" s="29"/>
-      <c r="N242" s="34" t="s">
-        <v>1423</v>
+      <c r="N242" s="9" t="s">
+        <v>1426</v>
       </c>
       <c r="O242" s="29" t="s">
-        <v>1424</v>
-      </c>
-      <c r="P242" s="44" t="s">
-        <v>1425</v>
+        <v>32</v>
+      </c>
+      <c r="P242" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Q242" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R242" s="29">
-        <v>69000</v>
+        <v>20000</v>
       </c>
       <c r="S242" s="29">
-        <v>69000</v>
+        <v>20000</v>
       </c>
       <c r="T242" s="30">
         <v>0.4</v>
@@ -23840,7 +23893,7 @@
         <v>153</v>
       </c>
       <c r="X242" s="30" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="Y242" s="29" t="s">
         <v>32</v>
@@ -23849,12 +23902,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="243" ht="90" spans="1:26">
+    <row r="243" ht="75" spans="1:26">
       <c r="A243" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="B243" s="29">
-        <v>17167</v>
+        <v>17168</v>
       </c>
       <c r="C243" s="29">
         <v>1</v>
@@ -23872,13 +23925,13 @@
         <v>1429</v>
       </c>
       <c r="H243" s="32" t="s">
-        <v>342</v>
+        <v>415</v>
       </c>
       <c r="I243" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J243" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K243" s="34" t="s">
         <v>1430</v>
@@ -23887,23 +23940,23 @@
         <v>1431</v>
       </c>
       <c r="M243" s="29"/>
-      <c r="N243" s="34" t="s">
+      <c r="N243" s="9" t="s">
         <v>1432</v>
       </c>
       <c r="O243" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P243" s="44" t="s">
-        <v>32</v>
+        <v>1312</v>
+      </c>
+      <c r="P243" s="46" t="s">
+        <v>1433</v>
       </c>
       <c r="Q243" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R243" s="29">
-        <v>20000</v>
+        <v>108000</v>
       </c>
       <c r="S243" s="29">
-        <v>20000</v>
+        <v>108000</v>
       </c>
       <c r="T243" s="30">
         <v>0.4</v>
@@ -23918,7 +23971,7 @@
         <v>153</v>
       </c>
       <c r="X243" s="30" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="Y243" s="29" t="s">
         <v>32</v>
@@ -23927,12 +23980,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="244" ht="75" spans="1:26">
+    <row r="244" ht="90" spans="1:26">
       <c r="A244" s="4" t="s">
-        <v>1417</v>
+        <v>1411</v>
       </c>
       <c r="B244" s="29">
-        <v>17168</v>
+        <v>17169</v>
       </c>
       <c r="C244" s="29">
         <v>1</v>
@@ -23941,47 +23994,47 @@
         <v>32</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>1433</v>
-      </c>
-      <c r="F244" s="29" t="s">
         <v>1434</v>
       </c>
+      <c r="F244" s="31" t="s">
+        <v>1435</v>
+      </c>
       <c r="G244" s="29" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="H244" s="32" t="s">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="I244" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J244" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K244" s="34" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="L244" s="35" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="M244" s="29"/>
-      <c r="N244" s="34" t="s">
-        <v>1438</v>
+      <c r="N244" s="9" t="s">
+        <v>1439</v>
       </c>
       <c r="O244" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P244" s="44" t="s">
-        <v>1439</v>
+        <v>1440</v>
+      </c>
+      <c r="P244" s="46" t="s">
+        <v>1441</v>
       </c>
       <c r="Q244" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R244" s="29">
-        <v>108000</v>
+        <v>98000</v>
       </c>
       <c r="S244" s="29">
-        <v>108000</v>
+        <v>72000</v>
       </c>
       <c r="T244" s="30">
         <v>0.4</v>
@@ -23996,7 +24049,7 @@
         <v>153</v>
       </c>
       <c r="X244" s="30" t="s">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="Y244" s="29" t="s">
         <v>32</v>
@@ -24005,12 +24058,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="245" ht="90" spans="1:26">
+    <row r="245" ht="75" spans="1:26">
       <c r="A245" s="4" t="s">
-        <v>1417</v>
+        <v>1442</v>
       </c>
       <c r="B245" s="29">
-        <v>17169</v>
+        <v>17170</v>
       </c>
       <c r="C245" s="29">
         <v>1</v>
@@ -24019,13 +24072,13 @@
         <v>32</v>
       </c>
       <c r="E245" s="8" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F245" s="31" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G245" s="29" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="H245" s="32" t="s">
         <v>62</v>
@@ -24034,32 +24087,32 @@
         <v>29</v>
       </c>
       <c r="J245" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K245" s="34" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="L245" s="35" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="M245" s="29"/>
-      <c r="N245" s="34" t="s">
-        <v>1445</v>
+      <c r="N245" s="9" t="s">
+        <v>1448</v>
       </c>
       <c r="O245" s="29" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P245" s="44" t="s">
-        <v>1447</v>
+        <v>1418</v>
+      </c>
+      <c r="P245" s="46" t="s">
+        <v>1449</v>
       </c>
       <c r="Q245" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R245" s="29">
-        <v>98000</v>
+        <v>86000</v>
       </c>
       <c r="S245" s="29">
-        <v>72000</v>
+        <v>86000</v>
       </c>
       <c r="T245" s="30">
         <v>0.4</v>
@@ -24074,7 +24127,7 @@
         <v>153</v>
       </c>
       <c r="X245" s="30" t="s">
-        <v>1426</v>
+        <v>1450</v>
       </c>
       <c r="Y245" s="29" t="s">
         <v>32</v>
@@ -24083,12 +24136,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="246" ht="75" spans="1:26">
+    <row r="246" ht="60" spans="1:26">
       <c r="A246" s="4" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="B246" s="29">
-        <v>17170</v>
+        <v>17171</v>
       </c>
       <c r="C246" s="29">
         <v>1</v>
@@ -24097,47 +24150,47 @@
         <v>32</v>
       </c>
       <c r="E246" s="8" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="F246" s="31" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
       <c r="G246" s="29" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="H246" s="32" t="s">
-        <v>62</v>
+        <v>1242</v>
       </c>
       <c r="I246" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J246" s="31" t="s">
-        <v>1394</v>
+      <c r="J246" s="29" t="s">
+        <v>1454</v>
       </c>
       <c r="K246" s="34" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="L246" s="35" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="M246" s="29"/>
-      <c r="N246" s="34" t="s">
-        <v>1454</v>
+      <c r="N246" s="9" t="s">
+        <v>1457</v>
       </c>
       <c r="O246" s="29" t="s">
-        <v>1424</v>
-      </c>
-      <c r="P246" s="44" t="s">
-        <v>1455</v>
+        <v>1418</v>
+      </c>
+      <c r="P246" s="46" t="s">
+        <v>1458</v>
       </c>
       <c r="Q246" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R246" s="29">
-        <v>86000</v>
+        <v>35000</v>
       </c>
       <c r="S246" s="29">
-        <v>86000</v>
+        <v>35000</v>
       </c>
       <c r="T246" s="30">
         <v>0.4</v>
@@ -24152,7 +24205,7 @@
         <v>153</v>
       </c>
       <c r="X246" s="30" t="s">
-        <v>1456</v>
+        <v>1450</v>
       </c>
       <c r="Y246" s="29" t="s">
         <v>32</v>
@@ -24163,10 +24216,10 @@
     </row>
     <row r="247" ht="60" spans="1:26">
       <c r="A247" s="4" t="s">
-        <v>1448</v>
+        <v>1459</v>
       </c>
       <c r="B247" s="29">
-        <v>17171</v>
+        <v>17172</v>
       </c>
       <c r="C247" s="29">
         <v>1</v>
@@ -24175,47 +24228,47 @@
         <v>32</v>
       </c>
       <c r="E247" s="8" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="F247" s="31" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="G247" s="29" t="s">
-        <v>1459</v>
-      </c>
-      <c r="H247" s="32" t="s">
-        <v>1249</v>
+        <v>1462</v>
+      </c>
+      <c r="H247" s="31" t="s">
+        <v>44</v>
       </c>
       <c r="I247" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J247" s="29" t="s">
-        <v>1460</v>
+      <c r="J247" s="31" t="s">
+        <v>1388</v>
       </c>
       <c r="K247" s="34" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="L247" s="35" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="M247" s="29"/>
-      <c r="N247" s="34" t="s">
-        <v>1463</v>
+      <c r="N247" s="9" t="s">
+        <v>1465</v>
       </c>
       <c r="O247" s="29" t="s">
-        <v>1424</v>
-      </c>
-      <c r="P247" s="44" t="s">
-        <v>1464</v>
+        <v>1440</v>
+      </c>
+      <c r="P247" s="46" t="s">
+        <v>1466</v>
       </c>
       <c r="Q247" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R247" s="29">
-        <v>35000</v>
+        <v>57000</v>
       </c>
       <c r="S247" s="29">
-        <v>35000</v>
+        <v>57000</v>
       </c>
       <c r="T247" s="30">
         <v>0.4</v>
@@ -24230,7 +24283,7 @@
         <v>153</v>
       </c>
       <c r="X247" s="30" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
       <c r="Y247" s="29" t="s">
         <v>32</v>
@@ -24241,10 +24294,10 @@
     </row>
     <row r="248" ht="60" spans="1:26">
       <c r="A248" s="4" t="s">
-        <v>1465</v>
+        <v>1459</v>
       </c>
       <c r="B248" s="29">
-        <v>17172</v>
+        <v>17173</v>
       </c>
       <c r="C248" s="29">
         <v>1</v>
@@ -24253,47 +24306,47 @@
         <v>32</v>
       </c>
       <c r="E248" s="8" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="F248" s="31" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="G248" s="29" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="H248" s="31" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="I248" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J248" s="31" t="s">
-        <v>1394</v>
+        <v>1388</v>
       </c>
       <c r="K248" s="34" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="L248" s="35" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="M248" s="29"/>
-      <c r="N248" s="34" t="s">
-        <v>1471</v>
+      <c r="N248" s="9" t="s">
+        <v>1473</v>
       </c>
       <c r="O248" s="29" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P248" s="44" t="s">
-        <v>1472</v>
+        <v>1440</v>
+      </c>
+      <c r="P248" s="46" t="s">
+        <v>1474</v>
       </c>
       <c r="Q248" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R248" s="29">
-        <v>57000</v>
+        <v>145000</v>
       </c>
       <c r="S248" s="29">
-        <v>57000</v>
+        <v>145000</v>
       </c>
       <c r="T248" s="30">
         <v>0.4</v>
@@ -24308,7 +24361,7 @@
         <v>153</v>
       </c>
       <c r="X248" s="30" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="Y248" s="29" t="s">
         <v>32</v>
@@ -24317,12 +24370,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="249" ht="60" spans="1:26">
+    <row r="249" ht="75" spans="1:26">
       <c r="A249" s="4" t="s">
-        <v>1465</v>
+        <v>1475</v>
       </c>
       <c r="B249" s="29">
-        <v>17173</v>
+        <v>17175</v>
       </c>
       <c r="C249" s="29">
         <v>1</v>
@@ -24331,47 +24384,47 @@
         <v>32</v>
       </c>
       <c r="E249" s="8" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="F249" s="31" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="G249" s="29" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="H249" s="31" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="I249" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="J249" s="31" t="s">
-        <v>1394</v>
+      <c r="J249" s="29" t="s">
+        <v>1479</v>
       </c>
       <c r="K249" s="34" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="L249" s="35" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="M249" s="29"/>
-      <c r="N249" s="34" t="s">
-        <v>1479</v>
+      <c r="N249" s="9" t="s">
+        <v>1482</v>
       </c>
       <c r="O249" s="29" t="s">
-        <v>1446</v>
-      </c>
-      <c r="P249" s="44" t="s">
-        <v>1480</v>
+        <v>1391</v>
+      </c>
+      <c r="P249" s="46" t="s">
+        <v>1483</v>
       </c>
       <c r="Q249" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R249" s="29">
-        <v>145000</v>
+        <v>160000</v>
       </c>
       <c r="S249" s="29">
-        <v>145000</v>
+        <v>160000</v>
       </c>
       <c r="T249" s="30">
         <v>0.4</v>
@@ -24386,7 +24439,7 @@
         <v>153</v>
       </c>
       <c r="X249" s="30" t="s">
-        <v>1473</v>
+        <v>1484</v>
       </c>
       <c r="Y249" s="29" t="s">
         <v>32</v>
@@ -24397,10 +24450,10 @@
     </row>
     <row r="250" ht="75" spans="1:26">
       <c r="A250" s="4" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="B250" s="29">
-        <v>17175</v>
+        <v>17177</v>
       </c>
       <c r="C250" s="29">
         <v>1</v>
@@ -24409,47 +24462,47 @@
         <v>32</v>
       </c>
       <c r="E250" s="8" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="F250" s="31" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="G250" s="29" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H250" s="31" t="s">
-        <v>364</v>
+        <v>288</v>
       </c>
       <c r="I250" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J250" s="29" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="K250" s="34" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="L250" s="35" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="M250" s="29"/>
-      <c r="N250" s="34" t="s">
-        <v>1488</v>
+      <c r="N250" s="9" t="s">
+        <v>1491</v>
       </c>
       <c r="O250" s="29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P250" s="44" t="s">
-        <v>1489</v>
+        <v>1391</v>
+      </c>
+      <c r="P250" s="46" t="s">
+        <v>1492</v>
       </c>
       <c r="Q250" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R250" s="29">
-        <v>160000</v>
+        <v>105000</v>
       </c>
       <c r="S250" s="29">
-        <v>160000</v>
+        <v>105000</v>
       </c>
       <c r="T250" s="30">
         <v>0.4</v>
@@ -24464,7 +24517,7 @@
         <v>153</v>
       </c>
       <c r="X250" s="30" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="Y250" s="29" t="s">
         <v>32</v>
@@ -24475,10 +24528,10 @@
     </row>
     <row r="251" ht="75" spans="1:26">
       <c r="A251" s="4" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="B251" s="29">
-        <v>17177</v>
+        <v>17178</v>
       </c>
       <c r="C251" s="29">
         <v>1</v>
@@ -24487,47 +24540,47 @@
         <v>32</v>
       </c>
       <c r="E251" s="8" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="F251" s="31" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="G251" s="29" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="H251" s="31" t="s">
-        <v>288</v>
+        <v>342</v>
       </c>
       <c r="I251" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J251" s="29" t="s">
-        <v>1494</v>
+        <v>595</v>
       </c>
       <c r="K251" s="34" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="L251" s="35" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="M251" s="29"/>
-      <c r="N251" s="34" t="s">
-        <v>1497</v>
+      <c r="N251" s="9" t="s">
+        <v>1498</v>
       </c>
       <c r="O251" s="29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P251" s="44" t="s">
-        <v>1498</v>
+        <v>1499</v>
+      </c>
+      <c r="P251" s="46" t="s">
+        <v>1500</v>
       </c>
       <c r="Q251" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R251" s="29">
-        <v>105000</v>
+        <v>108000</v>
       </c>
       <c r="S251" s="29">
-        <v>105000</v>
+        <v>108000</v>
       </c>
       <c r="T251" s="30">
         <v>0.4</v>
@@ -24542,7 +24595,7 @@
         <v>153</v>
       </c>
       <c r="X251" s="30" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="Y251" s="29" t="s">
         <v>32</v>
@@ -24553,10 +24606,10 @@
     </row>
     <row r="252" ht="75" spans="1:26">
       <c r="A252" s="4" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="B252" s="29">
-        <v>17178</v>
+        <v>17179</v>
       </c>
       <c r="C252" s="29">
         <v>1</v>
@@ -24565,47 +24618,49 @@
         <v>32</v>
       </c>
       <c r="E252" s="8" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
       <c r="F252" s="31" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="G252" s="29" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="H252" s="31" t="s">
-        <v>342</v>
+        <v>62</v>
       </c>
       <c r="I252" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J252" s="29" t="s">
-        <v>595</v>
+        <v>475</v>
       </c>
       <c r="K252" s="34" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="L252" s="35" t="s">
-        <v>1503</v>
-      </c>
-      <c r="M252" s="29"/>
-      <c r="N252" s="34" t="s">
-        <v>1504</v>
+        <v>1505</v>
+      </c>
+      <c r="M252" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N252" s="9" t="s">
+        <v>1506</v>
       </c>
       <c r="O252" s="29" t="s">
-        <v>1505</v>
-      </c>
-      <c r="P252" s="44" t="s">
-        <v>1506</v>
+        <v>1349</v>
+      </c>
+      <c r="P252" s="46" t="s">
+        <v>1507</v>
       </c>
       <c r="Q252" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R252" s="29">
-        <v>108000</v>
+        <v>21000</v>
       </c>
       <c r="S252" s="29">
-        <v>108000</v>
+        <v>21000</v>
       </c>
       <c r="T252" s="30">
         <v>0.4</v>
@@ -24619,22 +24674,20 @@
       <c r="W252" s="29">
         <v>153</v>
       </c>
-      <c r="X252" s="30" t="s">
-        <v>1490</v>
-      </c>
-      <c r="Y252" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="X252" s="37" t="s">
+        <v>1484</v>
+      </c>
+      <c r="Y252" s="29"/>
       <c r="Z252" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="253" ht="75" spans="1:26">
+    <row r="253" ht="60" spans="1:26">
       <c r="A253" s="4" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="B253" s="29">
-        <v>17179</v>
+        <v>17180</v>
       </c>
       <c r="C253" s="29">
         <v>1</v>
@@ -24643,16 +24696,16 @@
         <v>32</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="F253" s="31" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G253" s="29" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="H253" s="31" t="s">
-        <v>62</v>
+        <v>1511</v>
       </c>
       <c r="I253" s="29" t="s">
         <v>29</v>
@@ -24661,31 +24714,31 @@
         <v>475</v>
       </c>
       <c r="K253" s="34" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
       <c r="L253" s="35" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="M253" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N253" s="34" t="s">
-        <v>1512</v>
+      <c r="N253" s="9" t="s">
+        <v>1514</v>
       </c>
       <c r="O253" s="29" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P253" s="44" t="s">
-        <v>1513</v>
+        <v>1312</v>
+      </c>
+      <c r="P253" s="46" t="s">
+        <v>1515</v>
       </c>
       <c r="Q253" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R253" s="29">
-        <v>21000</v>
+        <v>125000</v>
       </c>
       <c r="S253" s="29">
-        <v>21000</v>
+        <v>125000</v>
       </c>
       <c r="T253" s="30">
         <v>0.4</v>
@@ -24700,19 +24753,19 @@
         <v>153</v>
       </c>
       <c r="X253" s="37" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="Y253" s="29"/>
       <c r="Z253" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="254" ht="60" spans="1:26">
+    <row r="254" ht="75" spans="1:26">
       <c r="A254" s="4" t="s">
-        <v>1481</v>
+        <v>1475</v>
       </c>
       <c r="B254" s="29">
-        <v>17180</v>
+        <v>17181</v>
       </c>
       <c r="C254" s="29">
         <v>1</v>
@@ -24721,16 +24774,16 @@
         <v>32</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="F254" s="31" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="G254" s="29" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
       <c r="H254" s="31" t="s">
-        <v>1517</v>
+        <v>62</v>
       </c>
       <c r="I254" s="29" t="s">
         <v>29</v>
@@ -24739,34 +24792,34 @@
         <v>475</v>
       </c>
       <c r="K254" s="34" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="L254" s="35" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="M254" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N254" s="34" t="s">
-        <v>1520</v>
+      <c r="N254" s="9" t="s">
+        <v>1521</v>
       </c>
       <c r="O254" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P254" s="44" t="s">
-        <v>1521</v>
+        <v>1312</v>
+      </c>
+      <c r="P254" s="46" t="s">
+        <v>1522</v>
       </c>
       <c r="Q254" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R254" s="29">
-        <v>125000</v>
+        <v>73000</v>
       </c>
       <c r="S254" s="29">
-        <v>125000</v>
+        <v>73000</v>
       </c>
       <c r="T254" s="30">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U254" s="30">
         <v>0.13</v>
@@ -24778,19 +24831,19 @@
         <v>153</v>
       </c>
       <c r="X254" s="37" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="Y254" s="29"/>
       <c r="Z254" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="255" ht="75" spans="1:26">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" ht="90" spans="1:26">
       <c r="A255" s="4" t="s">
-        <v>1481</v>
+        <v>1523</v>
       </c>
       <c r="B255" s="29">
-        <v>17181</v>
+        <v>17182</v>
       </c>
       <c r="C255" s="29">
         <v>1</v>
@@ -24799,13 +24852,13 @@
         <v>32</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="F255" s="31" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="G255" s="29" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="H255" s="31" t="s">
         <v>62</v>
@@ -24817,34 +24870,34 @@
         <v>475</v>
       </c>
       <c r="K255" s="34" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="L255" s="35" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="M255" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N255" s="34" t="s">
-        <v>1527</v>
+      <c r="N255" s="9" t="s">
+        <v>1529</v>
       </c>
       <c r="O255" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P255" s="44" t="s">
-        <v>1528</v>
+        <v>32</v>
+      </c>
+      <c r="P255" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Q255" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R255" s="29">
-        <v>73000</v>
+        <v>20000</v>
       </c>
       <c r="S255" s="29">
-        <v>73000</v>
+        <v>20000</v>
       </c>
       <c r="T255" s="30">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="U255" s="30">
         <v>0.13</v>
@@ -24856,19 +24909,19 @@
         <v>153</v>
       </c>
       <c r="X255" s="37" t="s">
-        <v>1490</v>
+        <v>1530</v>
       </c>
       <c r="Y255" s="29"/>
       <c r="Z255" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="256" ht="90" spans="1:26">
+    <row r="256" ht="60" spans="1:26">
       <c r="A256" s="4" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B256" s="29">
-        <v>17182</v>
+        <v>17183</v>
       </c>
       <c r="C256" s="29">
         <v>1</v>
@@ -24877,16 +24930,16 @@
         <v>32</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F256" s="31" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="G256" s="29" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="H256" s="31" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I256" s="29" t="s">
         <v>29</v>
@@ -24895,34 +24948,34 @@
         <v>475</v>
       </c>
       <c r="K256" s="34" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="L256" s="35" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="M256" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N256" s="34" t="s">
-        <v>1535</v>
+      <c r="N256" s="9" t="s">
+        <v>1536</v>
       </c>
       <c r="O256" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P256" s="44" t="s">
-        <v>32</v>
+        <v>1365</v>
+      </c>
+      <c r="P256" s="46" t="s">
+        <v>1537</v>
       </c>
       <c r="Q256" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R256" s="29">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="S256" s="29">
-        <v>20000</v>
+        <v>90000</v>
       </c>
       <c r="T256" s="30">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="U256" s="30">
         <v>0.13</v>
@@ -24934,19 +24987,19 @@
         <v>153</v>
       </c>
       <c r="X256" s="37" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="Y256" s="29"/>
-      <c r="Z256" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="257" ht="60" spans="1:26">
+      <c r="Z256" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="257" ht="105" spans="1:26">
       <c r="A257" s="4" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B257" s="29">
-        <v>17183</v>
+        <v>17184</v>
       </c>
       <c r="C257" s="29">
         <v>1</v>
@@ -24955,49 +25008,49 @@
         <v>32</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F257" s="31" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="G257" s="29" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="H257" s="31" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="I257" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J257" s="29" t="s">
-        <v>475</v>
+        <v>1541</v>
       </c>
       <c r="K257" s="34" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="L257" s="35" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="M257" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N257" s="34" t="s">
-        <v>1542</v>
+      <c r="N257" s="9" t="s">
+        <v>1544</v>
       </c>
       <c r="O257" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="P257" s="44" t="s">
-        <v>1543</v>
+        <v>1365</v>
+      </c>
+      <c r="P257" s="46" t="s">
+        <v>1545</v>
       </c>
       <c r="Q257" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R257" s="29">
-        <v>90000</v>
+        <v>238000</v>
       </c>
       <c r="S257" s="29">
-        <v>90000</v>
+        <v>238000</v>
       </c>
       <c r="T257" s="30">
         <v>0.4</v>
@@ -25012,19 +25065,19 @@
         <v>153</v>
       </c>
       <c r="X257" s="37" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="Y257" s="29"/>
-      <c r="Z257" s="38" t="s">
+      <c r="Z257" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="258" ht="105" spans="1:26">
+    <row r="258" ht="75" spans="1:26">
       <c r="A258" s="4" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B258" s="29">
-        <v>17184</v>
+        <v>17185</v>
       </c>
       <c r="C258" s="29">
         <v>1</v>
@@ -25033,52 +25086,52 @@
         <v>32</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="F258" s="31" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="G258" s="29" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="H258" s="31" t="s">
-        <v>170</v>
+        <v>415</v>
       </c>
       <c r="I258" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J258" s="29" t="s">
-        <v>1547</v>
+        <v>475</v>
       </c>
       <c r="K258" s="34" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="L258" s="35" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="M258" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N258" s="34" t="s">
-        <v>1550</v>
+      <c r="N258" s="9" t="s">
+        <v>1551</v>
       </c>
       <c r="O258" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="P258" s="44" t="s">
-        <v>1551</v>
+        <v>1221</v>
+      </c>
+      <c r="P258" s="46" t="s">
+        <v>1552</v>
       </c>
       <c r="Q258" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R258" s="29">
-        <v>238000</v>
+        <v>240000</v>
       </c>
       <c r="S258" s="29">
-        <v>238000</v>
+        <v>47000</v>
       </c>
       <c r="T258" s="30">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="U258" s="30">
         <v>0.13</v>
@@ -25090,19 +25143,19 @@
         <v>153</v>
       </c>
       <c r="X258" s="37" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="Y258" s="29"/>
-      <c r="Z258" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="259" ht="75" spans="1:26">
+      <c r="Z258" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" ht="60" spans="1:26">
       <c r="A259" s="4" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="B259" s="29">
-        <v>17185</v>
+        <v>17186</v>
       </c>
       <c r="C259" s="29">
         <v>1</v>
@@ -25111,16 +25164,16 @@
         <v>32</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F259" s="31" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G259" s="29" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="H259" s="31" t="s">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="I259" s="29" t="s">
         <v>29</v>
@@ -25129,34 +25182,34 @@
         <v>475</v>
       </c>
       <c r="K259" s="34" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="L259" s="35" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="M259" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N259" s="34" t="s">
-        <v>1557</v>
+      <c r="N259" s="9" t="s">
+        <v>1558</v>
       </c>
       <c r="O259" s="29" t="s">
-        <v>1228</v>
-      </c>
-      <c r="P259" s="44" t="s">
-        <v>1558</v>
+        <v>1365</v>
+      </c>
+      <c r="P259" s="46" t="s">
+        <v>1559</v>
       </c>
       <c r="Q259" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R259" s="29">
-        <v>240000</v>
+        <v>60000</v>
       </c>
       <c r="S259" s="29">
-        <v>47000</v>
+        <v>60000</v>
       </c>
       <c r="T259" s="30">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U259" s="30">
         <v>0.13</v>
@@ -25168,19 +25221,19 @@
         <v>153</v>
       </c>
       <c r="X259" s="37" t="s">
-        <v>1536</v>
+        <v>1530</v>
       </c>
       <c r="Y259" s="29"/>
-      <c r="Z259" s="38" t="s">
+      <c r="Z259" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="260" ht="60" spans="1:26">
+    <row r="260" ht="90" spans="1:26">
       <c r="A260" s="4" t="s">
-        <v>1529</v>
+        <v>1560</v>
       </c>
       <c r="B260" s="29">
-        <v>17186</v>
+        <v>17187</v>
       </c>
       <c r="C260" s="29">
         <v>1</v>
@@ -25189,52 +25242,52 @@
         <v>32</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>1559</v>
+        <v>1203</v>
       </c>
       <c r="F260" s="31" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G260" s="29" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="H260" s="31" t="s">
-        <v>62</v>
+        <v>531</v>
       </c>
       <c r="I260" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J260" s="29" t="s">
-        <v>475</v>
+        <v>1563</v>
       </c>
       <c r="K260" s="34" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="L260" s="35" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
       <c r="M260" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N260" s="34" t="s">
-        <v>1564</v>
+      <c r="N260" s="9" t="s">
+        <v>1566</v>
       </c>
       <c r="O260" s="29" t="s">
-        <v>1372</v>
-      </c>
-      <c r="P260" s="44" t="s">
-        <v>1565</v>
+        <v>1349</v>
+      </c>
+      <c r="P260" s="46" t="s">
+        <v>1567</v>
       </c>
       <c r="Q260" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R260" s="29">
-        <v>60000</v>
+        <v>130000</v>
       </c>
       <c r="S260" s="29">
-        <v>60000</v>
+        <v>130000</v>
       </c>
       <c r="T260" s="30">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="U260" s="30">
         <v>0.13</v>
@@ -25246,19 +25299,19 @@
         <v>153</v>
       </c>
       <c r="X260" s="37" t="s">
-        <v>1536</v>
+        <v>1568</v>
       </c>
       <c r="Y260" s="29"/>
-      <c r="Z260" s="38" t="s">
+      <c r="Z260" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="261" ht="90" spans="1:26">
+    <row r="261" ht="75" spans="1:26">
       <c r="A261" s="4" t="s">
-        <v>1566</v>
+        <v>1560</v>
       </c>
       <c r="B261" s="29">
-        <v>17187</v>
+        <v>17188</v>
       </c>
       <c r="C261" s="29">
         <v>1</v>
@@ -25267,52 +25320,52 @@
         <v>32</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>1210</v>
+        <v>1569</v>
       </c>
       <c r="F261" s="31" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="G261" s="29" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="H261" s="31" t="s">
-        <v>531</v>
+        <v>62</v>
       </c>
       <c r="I261" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J261" s="29" t="s">
-        <v>1569</v>
+        <v>475</v>
       </c>
       <c r="K261" s="34" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="L261" s="35" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="M261" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N261" s="34" t="s">
-        <v>1572</v>
+      <c r="N261" s="9" t="s">
+        <v>1574</v>
       </c>
       <c r="O261" s="29" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P261" s="44" t="s">
-        <v>1573</v>
+        <v>1575</v>
+      </c>
+      <c r="P261" s="46" t="s">
+        <v>1576</v>
       </c>
       <c r="Q261" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R261" s="29">
-        <v>130000</v>
+        <v>32000</v>
       </c>
       <c r="S261" s="29">
-        <v>130000</v>
+        <v>32000</v>
       </c>
       <c r="T261" s="30">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="U261" s="30">
         <v>0.13</v>
@@ -25324,19 +25377,19 @@
         <v>153</v>
       </c>
       <c r="X261" s="37" t="s">
-        <v>1574</v>
+        <v>1568</v>
       </c>
       <c r="Y261" s="29"/>
-      <c r="Z261" s="38" t="s">
-        <v>34</v>
+      <c r="Z261" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="262" ht="75" spans="1:26">
       <c r="A262" s="4" t="s">
-        <v>1566</v>
+        <v>1577</v>
       </c>
       <c r="B262" s="29">
-        <v>17188</v>
+        <v>17189</v>
       </c>
       <c r="C262" s="29">
         <v>1</v>
@@ -25345,13 +25398,13 @@
         <v>32</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="F262" s="31" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="G262" s="29" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="H262" s="31" t="s">
         <v>62</v>
@@ -25363,34 +25416,34 @@
         <v>475</v>
       </c>
       <c r="K262" s="34" t="s">
-        <v>1578</v>
+        <v>1519</v>
       </c>
       <c r="L262" s="35" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="M262" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N262" s="34" t="s">
-        <v>1580</v>
+      <c r="N262" s="9" t="s">
+        <v>1582</v>
       </c>
       <c r="O262" s="29" t="s">
-        <v>1581</v>
-      </c>
-      <c r="P262" s="44" t="s">
-        <v>1582</v>
+        <v>1312</v>
+      </c>
+      <c r="P262" s="46" t="s">
+        <v>1522</v>
       </c>
       <c r="Q262" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R262" s="29">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="S262" s="29">
-        <v>32000</v>
+        <v>75000</v>
       </c>
       <c r="T262" s="30">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="U262" s="30">
         <v>0.13</v>
@@ -25402,19 +25455,19 @@
         <v>153</v>
       </c>
       <c r="X262" s="37" t="s">
-        <v>1574</v>
+        <v>1583</v>
       </c>
       <c r="Y262" s="29"/>
-      <c r="Z262" s="38" t="s">
-        <v>92</v>
+      <c r="Z262" s="29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="263" ht="75" spans="1:26">
       <c r="A263" s="4" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="B263" s="29">
-        <v>17189</v>
+        <v>17190</v>
       </c>
       <c r="C263" s="29">
         <v>1</v>
@@ -25432,7 +25485,7 @@
         <v>1586</v>
       </c>
       <c r="H263" s="31" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="I263" s="29" t="s">
         <v>29</v>
@@ -25441,22 +25494,22 @@
         <v>475</v>
       </c>
       <c r="K263" s="34" t="s">
-        <v>1525</v>
+        <v>1587</v>
       </c>
       <c r="L263" s="35" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="M263" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N263" s="34" t="s">
-        <v>1588</v>
+      <c r="N263" s="9" t="s">
+        <v>1589</v>
       </c>
       <c r="O263" s="29" t="s">
-        <v>1319</v>
-      </c>
-      <c r="P263" s="44" t="s">
-        <v>1528</v>
+        <v>1590</v>
+      </c>
+      <c r="P263" s="46" t="s">
+        <v>1591</v>
       </c>
       <c r="Q263" s="29" t="s">
         <v>32</v>
@@ -25468,7 +25521,7 @@
         <v>75000</v>
       </c>
       <c r="T263" s="30">
-        <v>0.18</v>
+        <v>0.4</v>
       </c>
       <c r="U263" s="30">
         <v>0.13</v>
@@ -25480,19 +25533,19 @@
         <v>153</v>
       </c>
       <c r="X263" s="37" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="Y263" s="29"/>
-      <c r="Z263" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="264" ht="75" spans="1:26">
+      <c r="Z263" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="264" ht="60" spans="1:26">
       <c r="A264" s="4" t="s">
-        <v>1583</v>
+        <v>1577</v>
       </c>
       <c r="B264" s="29">
-        <v>17190</v>
+        <v>17191</v>
       </c>
       <c r="C264" s="29">
         <v>1</v>
@@ -25501,16 +25554,16 @@
         <v>32</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="F264" s="31" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="G264" s="29" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
       <c r="H264" s="31" t="s">
-        <v>364</v>
+        <v>28</v>
       </c>
       <c r="I264" s="29" t="s">
         <v>29</v>
@@ -25519,31 +25572,31 @@
         <v>475</v>
       </c>
       <c r="K264" s="34" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="L264" s="35" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="M264" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N264" s="34" t="s">
-        <v>1595</v>
+      <c r="N264" s="9" t="s">
+        <v>1597</v>
       </c>
       <c r="O264" s="29" t="s">
-        <v>1596</v>
-      </c>
-      <c r="P264" s="44" t="s">
-        <v>1597</v>
+        <v>1598</v>
+      </c>
+      <c r="P264" s="46" t="s">
+        <v>1599</v>
       </c>
       <c r="Q264" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R264" s="29">
-        <v>75000</v>
+        <v>156000</v>
       </c>
       <c r="S264" s="29">
-        <v>75000</v>
+        <v>156000</v>
       </c>
       <c r="T264" s="30">
         <v>0.4</v>
@@ -25558,19 +25611,19 @@
         <v>153</v>
       </c>
       <c r="X264" s="37" t="s">
-        <v>1589</v>
+        <v>1583</v>
       </c>
       <c r="Y264" s="29"/>
-      <c r="Z264" s="38" t="s">
+      <c r="Z264" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="265" ht="60" spans="1:26">
+    <row r="265" ht="75" spans="1:26">
       <c r="A265" s="4" t="s">
-        <v>1583</v>
+        <v>1600</v>
       </c>
       <c r="B265" s="29">
-        <v>17191</v>
+        <v>17193</v>
       </c>
       <c r="C265" s="29">
         <v>1</v>
@@ -25579,76 +25632,74 @@
         <v>32</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="F265" s="31" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G265" s="29" t="s">
-        <v>1600</v>
+        <v>1602</v>
+      </c>
+      <c r="G265" s="31" t="s">
+        <v>1603</v>
       </c>
       <c r="H265" s="31" t="s">
-        <v>28</v>
+        <v>1604</v>
       </c>
       <c r="I265" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J265" s="29" t="s">
-        <v>475</v>
+        <v>184</v>
       </c>
       <c r="K265" s="34" t="s">
-        <v>1601</v>
-      </c>
-      <c r="L265" s="35" t="s">
-        <v>1602</v>
-      </c>
-      <c r="M265" s="29" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L265" s="42">
+        <v>35044</v>
+      </c>
+      <c r="M265" s="29"/>
+      <c r="N265" s="9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="O265" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N265" s="34" t="s">
-        <v>1603</v>
-      </c>
-      <c r="O265" s="29" t="s">
-        <v>1604</v>
-      </c>
-      <c r="P265" s="44" t="s">
-        <v>1605</v>
+      <c r="P265" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Q265" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R265" s="29">
-        <v>156000</v>
+        <v>3050000</v>
       </c>
       <c r="S265" s="29">
-        <v>156000</v>
+        <v>3050000</v>
       </c>
       <c r="T265" s="30">
-        <v>0.4</v>
+        <v>0.14</v>
       </c>
       <c r="U265" s="30">
         <v>0.13</v>
       </c>
       <c r="V265" s="29">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="W265" s="29">
-        <v>153</v>
-      </c>
-      <c r="X265" s="37" t="s">
-        <v>1589</v>
+        <v>179</v>
+      </c>
+      <c r="X265" s="37">
+        <v>45951</v>
       </c>
       <c r="Y265" s="29"/>
-      <c r="Z265" s="38" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="266" ht="75" spans="1:26">
+      <c r="Z265" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="266" ht="90" spans="1:26">
       <c r="A266" s="4" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="B266" s="29">
-        <v>17193</v>
+        <v>17195</v>
       </c>
       <c r="C266" s="29">
         <v>1</v>
@@ -25662,69 +25713,71 @@
       <c r="F266" s="31" t="s">
         <v>1608</v>
       </c>
-      <c r="G266" s="31" t="s">
+      <c r="G266" s="29" t="s">
         <v>1609</v>
       </c>
       <c r="H266" s="31" t="s">
+        <v>288</v>
+      </c>
+      <c r="I266" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J266" s="29" t="s">
         <v>1610</v>
-      </c>
-      <c r="I266" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J266" s="29" t="s">
-        <v>184</v>
       </c>
       <c r="K266" s="34" t="s">
         <v>1611</v>
       </c>
-      <c r="L266" s="42">
-        <v>35044</v>
-      </c>
-      <c r="M266" s="29"/>
-      <c r="N266" s="34" t="s">
+      <c r="L266" s="35" t="s">
         <v>1612</v>
       </c>
+      <c r="M266" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N266" s="9" t="s">
+        <v>1613</v>
+      </c>
       <c r="O266" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P266" s="44" t="s">
-        <v>32</v>
+        <v>1391</v>
+      </c>
+      <c r="P266" s="46" t="s">
+        <v>1614</v>
       </c>
       <c r="Q266" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R266" s="29">
-        <v>3050000</v>
+        <v>124000</v>
       </c>
       <c r="S266" s="29">
-        <v>3050000</v>
+        <v>124000</v>
       </c>
       <c r="T266" s="30">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="U266" s="30">
         <v>0.13</v>
       </c>
       <c r="V266" s="29">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="W266" s="29">
-        <v>179</v>
-      </c>
-      <c r="X266" s="37">
-        <v>45951</v>
+        <v>153</v>
+      </c>
+      <c r="X266" s="37" t="s">
+        <v>1615</v>
       </c>
       <c r="Y266" s="29"/>
-      <c r="Z266" s="38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="267" ht="90" spans="1:26">
+      <c r="Z266" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" ht="60" spans="1:26">
       <c r="A267" s="4" t="s">
-        <v>1606</v>
+        <v>1600</v>
       </c>
       <c r="B267" s="29">
-        <v>17195</v>
+        <v>17196</v>
       </c>
       <c r="C267" s="29">
         <v>1</v>
@@ -25733,52 +25786,52 @@
         <v>32</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="F267" s="31" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="G267" s="29" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="H267" s="31" t="s">
-        <v>288</v>
+        <v>62</v>
       </c>
       <c r="I267" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J267" s="29" t="s">
-        <v>1616</v>
+        <v>475</v>
       </c>
       <c r="K267" s="34" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="L267" s="35" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="M267" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N267" s="34" t="s">
-        <v>1619</v>
-      </c>
-      <c r="O267" s="29" t="s">
-        <v>1397</v>
-      </c>
-      <c r="P267" s="44" t="s">
-        <v>1620</v>
+      <c r="N267" s="9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="O267" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="P267" s="46" t="s">
+        <v>32</v>
       </c>
       <c r="Q267" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R267" s="29">
-        <v>124000</v>
+        <v>17000</v>
       </c>
       <c r="S267" s="29">
-        <v>124000</v>
+        <v>17000</v>
       </c>
       <c r="T267" s="30">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="U267" s="30">
         <v>0.13</v>
@@ -25790,19 +25843,19 @@
         <v>153</v>
       </c>
       <c r="X267" s="37" t="s">
-        <v>1621</v>
+        <v>1615</v>
       </c>
       <c r="Y267" s="29"/>
-      <c r="Z267" s="38" t="s">
-        <v>34</v>
+      <c r="Z267" s="29" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="268" ht="60" spans="1:26">
       <c r="A268" s="4" t="s">
-        <v>1606</v>
+        <v>1622</v>
       </c>
       <c r="B268" s="29">
-        <v>17196</v>
+        <v>17199</v>
       </c>
       <c r="C268" s="29">
         <v>1</v>
@@ -25811,16 +25864,16 @@
         <v>32</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>1622</v>
-      </c>
-      <c r="F268" s="31" t="s">
         <v>1623</v>
       </c>
+      <c r="F268" s="29" t="s">
+        <v>1624</v>
+      </c>
       <c r="G268" s="29" t="s">
-        <v>1624</v>
-      </c>
-      <c r="H268" s="31" t="s">
-        <v>62</v>
+        <v>1625</v>
+      </c>
+      <c r="H268" s="29" t="s">
+        <v>1511</v>
       </c>
       <c r="I268" s="29" t="s">
         <v>29</v>
@@ -25829,31 +25882,29 @@
         <v>475</v>
       </c>
       <c r="K268" s="34" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="L268" s="35" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="M268" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N268" s="34" t="s">
-        <v>1627</v>
-      </c>
-      <c r="O268" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="P268" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q268" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="N268" s="9" t="s">
+        <v>1613</v>
+      </c>
+      <c r="O268" s="29" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P268" s="46" t="s">
+        <v>1628</v>
+      </c>
+      <c r="Q268" s="29"/>
       <c r="R268" s="29">
-        <v>17000</v>
+        <v>105000</v>
       </c>
       <c r="S268" s="29">
-        <v>17000</v>
+        <v>105000</v>
       </c>
       <c r="T268" s="30">
         <v>0.4</v>
@@ -25867,20 +25918,20 @@
       <c r="W268" s="29">
         <v>153</v>
       </c>
-      <c r="X268" s="37" t="s">
-        <v>1621</v>
+      <c r="X268" s="30" t="s">
+        <v>1629</v>
       </c>
       <c r="Y268" s="29"/>
-      <c r="Z268" s="38" t="s">
+      <c r="Z268" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="269" ht="60" spans="1:26">
+    <row r="269" spans="1:26">
       <c r="A269" s="4" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="B269" s="29">
-        <v>17199</v>
+        <v>17200</v>
       </c>
       <c r="C269" s="29">
         <v>1</v>
@@ -25888,50 +25939,52 @@
       <c r="D269" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E269" s="8" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F269" s="29" t="s">
-        <v>1630</v>
-      </c>
-      <c r="G269" s="29" t="s">
+      <c r="E269" s="39" t="s">
         <v>1631</v>
       </c>
-      <c r="H269" s="29" t="s">
-        <v>1517</v>
+      <c r="F269" s="39" t="s">
+        <v>1632</v>
+      </c>
+      <c r="G269" s="40">
+        <v>46842</v>
+      </c>
+      <c r="H269" s="31" t="s">
+        <v>162</v>
       </c>
       <c r="I269" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J269" s="29" t="s">
-        <v>475</v>
-      </c>
-      <c r="K269" s="34" t="s">
-        <v>1632</v>
-      </c>
-      <c r="L269" s="35" t="s">
         <v>1633</v>
+      </c>
+      <c r="K269" s="39" t="s">
+        <v>1634</v>
+      </c>
+      <c r="L269" s="40">
+        <v>31482</v>
       </c>
       <c r="M269" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="N269" s="34" t="s">
-        <v>1619</v>
+      <c r="N269" s="39" t="s">
+        <v>1635</v>
       </c>
       <c r="O269" s="29" t="s">
-        <v>1356</v>
-      </c>
-      <c r="P269" s="44" t="s">
-        <v>1634</v>
-      </c>
-      <c r="Q269" s="29"/>
-      <c r="R269" s="29">
-        <v>105000</v>
-      </c>
-      <c r="S269" s="29">
-        <v>105000</v>
-      </c>
-      <c r="T269" s="30">
+        <v>32</v>
+      </c>
+      <c r="P269" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q269" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R269" s="39">
+        <v>264000</v>
+      </c>
+      <c r="S269" s="39">
+        <v>264000</v>
+      </c>
+      <c r="T269" s="39">
         <v>0.4</v>
       </c>
       <c r="U269" s="30">
@@ -25944,19 +25997,19 @@
         <v>153</v>
       </c>
       <c r="X269" s="30" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="Y269" s="29"/>
-      <c r="Z269" s="38" t="s">
+      <c r="Z269" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:26">
       <c r="A270" s="4" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="B270" s="29">
-        <v>17200</v>
+        <v>17201</v>
       </c>
       <c r="C270" s="29">
         <v>1</v>
@@ -25967,26 +26020,26 @@
       <c r="E270" s="39" t="s">
         <v>1637</v>
       </c>
-      <c r="F270" s="39" t="s">
+      <c r="F270" s="41" t="s">
         <v>1638</v>
       </c>
       <c r="G270" s="40">
-        <v>46842</v>
+        <v>47707</v>
       </c>
       <c r="H270" s="31" t="s">
-        <v>162</v>
+        <v>1639</v>
       </c>
       <c r="I270" s="29" t="s">
         <v>29</v>
       </c>
       <c r="J270" s="29" t="s">
-        <v>1639</v>
+        <v>475</v>
       </c>
       <c r="K270" s="39" t="s">
         <v>1640</v>
       </c>
       <c r="L270" s="40">
-        <v>31482</v>
+        <v>37500</v>
       </c>
       <c r="M270" s="29" t="s">
         <v>32</v>
@@ -26004,10 +26057,10 @@
         <v>32</v>
       </c>
       <c r="R270" s="39">
-        <v>264000</v>
+        <v>94000</v>
       </c>
       <c r="S270" s="39">
-        <v>264000</v>
+        <v>94000</v>
       </c>
       <c r="T270" s="39">
         <v>0.4</v>
@@ -26022,7 +26075,7 @@
         <v>153</v>
       </c>
       <c r="X270" s="30" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="Y270" s="29"/>
       <c r="Z270" s="29" t="s">
@@ -26031,10 +26084,10 @@
     </row>
     <row r="271" spans="1:26">
       <c r="A271" s="4" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="B271" s="29">
-        <v>17201</v>
+        <v>17202</v>
       </c>
       <c r="C271" s="29">
         <v>1</v>
@@ -26043,16 +26096,16 @@
         <v>32</v>
       </c>
       <c r="E271" s="39" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F271" s="39" t="s">
         <v>1643</v>
       </c>
-      <c r="F271" s="41" t="s">
-        <v>1644</v>
-      </c>
       <c r="G271" s="40">
-        <v>47707</v>
+        <v>48675</v>
       </c>
       <c r="H271" s="31" t="s">
-        <v>1645</v>
+        <v>44</v>
       </c>
       <c r="I271" s="29" t="s">
         <v>29</v>
@@ -26061,16 +26114,16 @@
         <v>475</v>
       </c>
       <c r="K271" s="39" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="L271" s="40">
-        <v>37500</v>
+        <v>32996</v>
       </c>
       <c r="M271" s="29" t="s">
         <v>32</v>
       </c>
       <c r="N271" s="39" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="O271" s="29" t="s">
         <v>32</v>
@@ -26082,10 +26135,10 @@
         <v>32</v>
       </c>
       <c r="R271" s="39">
-        <v>94000</v>
+        <v>22000</v>
       </c>
       <c r="S271" s="39">
-        <v>94000</v>
+        <v>22000</v>
       </c>
       <c r="T271" s="39">
         <v>0.4</v>
@@ -26100,19 +26153,19 @@
         <v>153</v>
       </c>
       <c r="X271" s="30" t="s">
-        <v>1642</v>
+        <v>1636</v>
       </c>
       <c r="Y271" s="29"/>
       <c r="Z271" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="272" spans="1:26">
+    <row r="272" ht="30" spans="1:26">
       <c r="A272" s="4" t="s">
-        <v>1636</v>
+        <v>1630</v>
       </c>
       <c r="B272" s="29">
-        <v>17202</v>
+        <v>17203</v>
       </c>
       <c r="C272" s="29">
         <v>1</v>
@@ -26121,16 +26174,16 @@
         <v>32</v>
       </c>
       <c r="E272" s="39" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="F272" s="39" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="G272" s="40">
-        <v>48675</v>
+        <v>46207</v>
       </c>
       <c r="H272" s="31" t="s">
-        <v>44</v>
+        <v>371</v>
       </c>
       <c r="I272" s="29" t="s">
         <v>29</v>
@@ -26138,32 +26191,32 @@
       <c r="J272" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="K272" s="39" t="s">
-        <v>1650</v>
+      <c r="K272" s="44" t="s">
+        <v>1648</v>
       </c>
       <c r="L272" s="40">
-        <v>32996</v>
+        <v>36162</v>
       </c>
       <c r="M272" s="29" t="s">
         <v>32</v>
       </c>
       <c r="N272" s="39" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="O272" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="P272" s="29" t="s">
-        <v>32</v>
+        <v>1365</v>
+      </c>
+      <c r="P272" s="47" t="s">
+        <v>1650</v>
       </c>
       <c r="Q272" s="29" t="s">
         <v>32</v>
       </c>
       <c r="R272" s="39">
-        <v>22000</v>
+        <v>239000</v>
       </c>
       <c r="S272" s="39">
-        <v>22000</v>
+        <v>239000</v>
       </c>
       <c r="T272" s="39">
         <v>0.4</v>
@@ -26178,11 +26231,167 @@
         <v>153</v>
       </c>
       <c r="X272" s="30" t="s">
-        <v>1642</v>
-      </c>
-      <c r="Y272" s="29"/>
+        <v>1636</v>
+      </c>
+      <c r="Y272" s="39"/>
       <c r="Z272" s="29" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="273" ht="30" spans="1:26">
+      <c r="A273" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B273" s="29">
+        <v>17205</v>
+      </c>
+      <c r="C273" s="29">
+        <v>1</v>
+      </c>
+      <c r="D273" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E273" s="39" t="s">
+        <v>1651</v>
+      </c>
+      <c r="F273" s="31" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G273" s="40">
+        <v>45958</v>
+      </c>
+      <c r="H273" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I273" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J273" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="K273" s="44" t="s">
+        <v>1653</v>
+      </c>
+      <c r="L273" s="40">
+        <v>36202</v>
+      </c>
+      <c r="M273" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N273" s="39" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O273" s="29" t="s">
+        <v>1349</v>
+      </c>
+      <c r="P273" s="47" t="s">
+        <v>1655</v>
+      </c>
+      <c r="Q273" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R273" s="39">
+        <v>156000</v>
+      </c>
+      <c r="S273" s="39">
+        <v>156000</v>
+      </c>
+      <c r="T273" s="39">
+        <v>0.4</v>
+      </c>
+      <c r="U273" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="V273" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="W273" s="29">
+        <v>153</v>
+      </c>
+      <c r="X273" s="30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Y273" s="39"/>
+      <c r="Z273" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="274" ht="30" spans="1:26">
+      <c r="A274" s="4" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B274" s="29">
+        <v>17206</v>
+      </c>
+      <c r="C274" s="29">
+        <v>1</v>
+      </c>
+      <c r="D274" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E274" s="39" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F274" s="41" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G274" s="40">
+        <v>47908</v>
+      </c>
+      <c r="H274" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I274" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J274" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="K274" s="44" t="s">
+        <v>1658</v>
+      </c>
+      <c r="L274" s="40">
+        <v>32687</v>
+      </c>
+      <c r="M274" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N274" s="39" t="s">
+        <v>1659</v>
+      </c>
+      <c r="O274" s="29" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P274" s="47" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Q274" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="R274" s="39">
+        <v>175000</v>
+      </c>
+      <c r="S274" s="39">
+        <v>175000</v>
+      </c>
+      <c r="T274" s="39">
+        <v>0.17</v>
+      </c>
+      <c r="U274" s="30">
+        <v>0.13</v>
+      </c>
+      <c r="V274" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="W274" s="29">
+        <v>153</v>
+      </c>
+      <c r="X274" s="30" t="s">
+        <v>1636</v>
+      </c>
+      <c r="Y274" s="39"/>
+      <c r="Z274" s="29" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
